--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="16660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="16660" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sentence" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="221">
   <si>
     <t>Requirement</t>
   </si>
@@ -661,6 +662,30 @@
   </si>
   <si>
     <t>Hallo? Was machen Sie hier {name}?</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Sie haben mich aber erschreckt!</t>
+  </si>
+  <si>
+    <t>Buh!</t>
+  </si>
+  <si>
+    <t>Shock</t>
+  </si>
+  <si>
+    <t>Fun</t>
+  </si>
+  <si>
+    <t>EmeraldAI.Logic.Actions.WikipediaAction</t>
+  </si>
+  <si>
+    <t>WikipediaAction</t>
+  </si>
+  <si>
+    <t>ProcessArticle</t>
   </si>
 </sst>
 </file>
@@ -717,8 +742,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -750,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="39">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -764,6 +801,12 @@
     <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -777,9 +820,113 @@
     <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1132,7 +1279,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1140,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1151,246 +1298,411 @@
     <col min="1" max="1" width="7.1640625" customWidth="1"/>
     <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="4" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="B2" t="s">
-        <v>77</v>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>53</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" t="s">
-        <v>59</v>
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" t="s">
-        <v>60</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" t="s">
-        <v>61</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" t="s">
-        <v>63</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" t="s">
-        <v>129</v>
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" t="s">
-        <v>131</v>
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1398,10 +1710,10 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1409,10 +1721,10 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1420,10 +1732,10 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1431,117 +1743,100 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>157</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
+        <v>76</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>8</v>
       </c>
-      <c r="B45" t="s">
-        <v>74</v>
-      </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1550,636 +1845,517 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>82</v>
+      </c>
+      <c r="E48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="E49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" t="s">
+        <v>106</v>
+      </c>
+      <c r="F65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" t="s">
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" t="s">
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E62" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>40</v>
-      </c>
-      <c r="E64" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" t="s">
-        <v>156</v>
-      </c>
-      <c r="E65" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" t="s">
-        <v>41</v>
-      </c>
-      <c r="D68" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="E70" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>116</v>
+      </c>
+      <c r="D71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>120</v>
       </c>
       <c r="C72" t="s">
-        <v>47</v>
-      </c>
-      <c r="E72" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>121</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
-      </c>
-      <c r="E73" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>117</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>139</v>
+      </c>
+      <c r="E76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E77" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="E78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
-      </c>
-      <c r="D79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>141</v>
+      </c>
+      <c r="E79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
-      </c>
-      <c r="F82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>145</v>
+      </c>
+      <c r="E82" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
-      </c>
-      <c r="F83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>146</v>
+      </c>
+      <c r="E83" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>147</v>
+      </c>
+      <c r="E84" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
-      </c>
-      <c r="E85" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>197</v>
+      </c>
+      <c r="D85" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>108</v>
-      </c>
-      <c r="E86" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>199</v>
+      </c>
+      <c r="D86" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>107</v>
-      </c>
-      <c r="E87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>5</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D87" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="C89" t="s">
-        <v>103</v>
-      </c>
-      <c r="E89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>5</v>
-      </c>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="C90" t="s">
-        <v>104</v>
-      </c>
-      <c r="E90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>5</v>
-      </c>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="C91" t="s">
-        <v>105</v>
-      </c>
-      <c r="E91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" t="s">
-        <v>134</v>
-      </c>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="C92" t="s">
-        <v>100</v>
-      </c>
-      <c r="D92" t="s">
-        <v>106</v>
-      </c>
-      <c r="F92" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" t="s">
-        <v>135</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="C93" t="s">
-        <v>102</v>
-      </c>
-      <c r="D93" t="s">
-        <v>106</v>
-      </c>
-      <c r="F93" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" t="s">
-        <v>136</v>
-      </c>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="C94" t="s">
-        <v>101</v>
-      </c>
-      <c r="D94" t="s">
-        <v>106</v>
-      </c>
-      <c r="F94" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>5</v>
-      </c>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="C95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="C96" t="s">
-        <v>144</v>
-      </c>
-      <c r="E96" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>5</v>
-      </c>
       <c r="C97" t="s">
-        <v>162</v>
-      </c>
-      <c r="E97" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>5</v>
-      </c>
       <c r="C98" t="s">
-        <v>54</v>
-      </c>
-      <c r="E98" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" t="s">
-        <v>111</v>
-      </c>
-      <c r="E99" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>116</v>
-      </c>
-      <c r="D100" t="s">
-        <v>21</v>
+        <v>154</v>
+      </c>
+      <c r="E100" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>118</v>
-      </c>
-      <c r="D101" t="s">
-        <v>21</v>
+        <v>155</v>
+      </c>
+      <c r="E101" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>8</v>
       </c>
-      <c r="B102" t="s">
-        <v>121</v>
-      </c>
       <c r="C102" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="D102" t="s">
-        <v>21</v>
+        <v>165</v>
+      </c>
+      <c r="F102" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2187,10 +2363,10 @@
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2198,10 +2374,10 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="E105" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2209,46 +2385,43 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>140</v>
-      </c>
-      <c r="E107" t="s">
-        <v>32</v>
+        <v>193</v>
+      </c>
+      <c r="D107" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>141</v>
-      </c>
-      <c r="E108" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>142</v>
-      </c>
-      <c r="D109" t="s">
-        <v>32</v>
-      </c>
-      <c r="F109" t="s">
-        <v>123</v>
+        <v>194</v>
+      </c>
+      <c r="D108" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>186</v>
+      </c>
+      <c r="E110" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2256,261 +2429,299 @@
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="E111" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>146</v>
-      </c>
-      <c r="E112" t="s">
-        <v>196</v>
+        <v>188</v>
+      </c>
+      <c r="D112" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>147</v>
-      </c>
-      <c r="E113" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" t="s">
-        <v>197</v>
-      </c>
-      <c r="D114" t="s">
-        <v>198</v>
+        <v>189</v>
+      </c>
+      <c r="D113" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>199</v>
-      </c>
-      <c r="D115" t="s">
-        <v>198</v>
+        <v>177</v>
+      </c>
+      <c r="E115" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>200</v>
-      </c>
-      <c r="D116" t="s">
-        <v>198</v>
+        <v>178</v>
+      </c>
+      <c r="E116" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>181</v>
+      </c>
+      <c r="D117" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
       <c r="C118" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="C119" t="s">
-        <v>149</v>
+        <v>183</v>
+      </c>
+      <c r="D118" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
       <c r="C120" t="s">
-        <v>150</v>
+        <v>179</v>
+      </c>
+      <c r="E120" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
       <c r="C121" t="s">
-        <v>151</v>
+        <v>180</v>
+      </c>
+      <c r="E121" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
       <c r="C122" t="s">
-        <v>160</v>
+        <v>184</v>
+      </c>
+      <c r="D122" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
       <c r="C123" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="C124" t="s">
-        <v>152</v>
+        <v>185</v>
+      </c>
+      <c r="D123" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
       <c r="C125" t="s">
-        <v>159</v>
+        <v>167</v>
+      </c>
+      <c r="E125" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
       <c r="C126" t="s">
-        <v>153</v>
+        <v>168</v>
+      </c>
+      <c r="E126" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
       <c r="C127" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>169</v>
+      </c>
+      <c r="E127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>174</v>
+      </c>
+      <c r="D128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>154</v>
-      </c>
-      <c r="E129" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130" t="s">
-        <v>155</v>
-      </c>
-      <c r="E130" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>175</v>
+      </c>
+      <c r="D129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>142</v>
-      </c>
-      <c r="D131" t="s">
-        <v>165</v>
-      </c>
-      <c r="F131" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>170</v>
+      </c>
+      <c r="E131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>171</v>
+      </c>
+      <c r="E132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E133" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>190</v>
-      </c>
-      <c r="E134" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>173</v>
+      </c>
+      <c r="D134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>192</v>
-      </c>
-      <c r="E135" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" t="s">
-        <v>193</v>
-      </c>
-      <c r="D136" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>176</v>
+      </c>
+      <c r="D135" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>194</v>
-      </c>
-      <c r="D137" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>163</v>
+      </c>
+      <c r="E137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>164</v>
+      </c>
+      <c r="E138" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>186</v>
-      </c>
-      <c r="E139" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>166</v>
+      </c>
+      <c r="D139" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>187</v>
-      </c>
-      <c r="E140" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" t="s">
-        <v>188</v>
-      </c>
-      <c r="D141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>182</v>
+      </c>
+      <c r="D140" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>189</v>
-      </c>
-      <c r="D142" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C144" t="s">
-        <v>177</v>
-      </c>
-      <c r="E144" t="s">
-        <v>165</v>
+        <v>215</v>
+      </c>
+      <c r="E142" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>214</v>
+      </c>
+      <c r="D143" t="s">
+        <v>217</v>
+      </c>
+      <c r="G143" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2518,10 +2729,10 @@
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="E145" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2529,10 +2740,10 @@
         <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="D146" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2540,10 +2751,10 @@
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="D147" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2551,21 +2762,24 @@
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="E149" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>74</v>
       </c>
       <c r="C150" t="s">
-        <v>180</v>
-      </c>
-      <c r="E150" t="s">
-        <v>165</v>
+        <v>204</v>
+      </c>
+      <c r="D150" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2573,10 +2787,10 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D151" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2584,10 +2798,10 @@
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D152" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2595,32 +2809,38 @@
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="E154" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
+        <v>74</v>
       </c>
       <c r="C155" t="s">
-        <v>168</v>
-      </c>
-      <c r="E155" t="s">
-        <v>165</v>
+        <v>210</v>
+      </c>
+      <c r="D155" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
+        <v>74</v>
       </c>
       <c r="C156" t="s">
-        <v>169</v>
-      </c>
-      <c r="E156" t="s">
-        <v>165</v>
+        <v>211</v>
+      </c>
+      <c r="D156" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -2628,267 +2848,35 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="D157" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" t="s">
-        <v>175</v>
-      </c>
-      <c r="D158" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C160" t="s">
-        <v>170</v>
-      </c>
-      <c r="E160" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C161" t="s">
-        <v>171</v>
-      </c>
-      <c r="E161" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C162" t="s">
-        <v>172</v>
-      </c>
-      <c r="E162" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" t="s">
-        <v>173</v>
-      </c>
-      <c r="D163" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" t="s">
-        <v>176</v>
-      </c>
-      <c r="D164" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" t="s">
-        <v>163</v>
-      </c>
-      <c r="E166" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" t="s">
-        <v>164</v>
-      </c>
-      <c r="E167" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" t="s">
-        <v>166</v>
-      </c>
-      <c r="D168" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" t="s">
-        <v>182</v>
-      </c>
-      <c r="D169" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C172" t="s">
-        <v>201</v>
-      </c>
-      <c r="E172" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
-      <c r="A173" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" t="s">
-        <v>207</v>
-      </c>
-      <c r="D173" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" t="s">
-        <v>208</v>
-      </c>
-      <c r="D174" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C176" t="s">
-        <v>202</v>
-      </c>
-      <c r="E176" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" t="s">
-        <v>8</v>
-      </c>
-      <c r="B177" t="s">
-        <v>74</v>
-      </c>
-      <c r="C177" t="s">
-        <v>204</v>
-      </c>
-      <c r="D177" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" t="s">
-        <v>205</v>
-      </c>
-      <c r="D178" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" t="s">
-        <v>206</v>
-      </c>
-      <c r="D179" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C181" t="s">
-        <v>209</v>
-      </c>
-      <c r="E181" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" t="s">
-        <v>8</v>
-      </c>
-      <c r="B182" t="s">
-        <v>74</v>
-      </c>
-      <c r="C182" t="s">
-        <v>210</v>
-      </c>
-      <c r="D182" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" t="s">
-        <v>8</v>
-      </c>
-      <c r="B183" t="s">
-        <v>74</v>
-      </c>
-      <c r="C183" t="s">
-        <v>211</v>
-      </c>
-      <c r="D183" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" t="s">
-        <v>212</v>
-      </c>
-      <c r="D184" t="s">
-        <v>203</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:F110 A117:F1048576">
-    <cfRule type="expression" dxfId="11" priority="63">
+  <conditionalFormatting sqref="A1:G1048576">
+    <cfRule type="expression" dxfId="11" priority="65">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="64">
+    <cfRule type="expression" dxfId="10" priority="66">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111:F116">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>$A111="A"</formula>
+  <conditionalFormatting sqref="A82:G87">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>$A82="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>$A111="Q"</formula>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>$A82="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B142">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$A142="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$A142="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2899,4 +2887,248 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:F28">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$A1="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$A1="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="16660" activeTab="1"/>
+    <workbookView xWindow="2040" yWindow="320" windowWidth="25860" windowHeight="16660"/>
   </bookViews>
   <sheets>
     <sheet name="Sentence" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="235">
   <si>
     <t>Requirement</t>
   </si>
@@ -472,9 +472,6 @@
     <t>Bist du echt?</t>
   </si>
   <si>
-    <t>Bist du ein Mensch</t>
-  </si>
-  <si>
     <t>Bist du ein Mann</t>
   </si>
   <si>
@@ -484,9 +481,6 @@
     <t>Bist du ein Mann oder eine Frau</t>
   </si>
   <si>
-    <t>Bist du Menschlich</t>
-  </si>
-  <si>
     <t>Erzähl mir einen Witz</t>
   </si>
   <si>
@@ -499,12 +493,6 @@
     <t>Hi</t>
   </si>
   <si>
-    <t>Bist du ein Robotter</t>
-  </si>
-  <si>
-    <t>Bist du ein Junde oder ein Mädchen</t>
-  </si>
-  <si>
     <t>Bist du ein Junge</t>
   </si>
   <si>
@@ -686,6 +674,60 @@
   </si>
   <si>
     <t>ProcessArticle</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Man kann meine Hardware anfassen, also würde ich 'Ja' sagen.</t>
+  </si>
+  <si>
+    <t>Bist du ein Mensch?</t>
+  </si>
+  <si>
+    <t>Bist du Menschlich?</t>
+  </si>
+  <si>
+    <t>Bist du ein Computer?</t>
+  </si>
+  <si>
+    <t>Bist du ein Robotter?</t>
+  </si>
+  <si>
+    <t>Ich bin ein Robotter mit einer künstlichen Intelligenz.</t>
+  </si>
+  <si>
+    <t>Wir könnten dies nun philisophisch erörtern. Aber um es kurz zu fassen, ich bin ein Robotter.</t>
+  </si>
+  <si>
+    <t>Bist du ein Junge oder ein Mädchen</t>
+  </si>
+  <si>
+    <t>BotGender:Male</t>
+  </si>
+  <si>
+    <t>Als Robotter hat man eigentlich kein Geschlecht, aber da ich eine männliche Stimme habe würde ich behauten ich bin ein Mann.</t>
+  </si>
+  <si>
+    <t>BotGender:Female</t>
+  </si>
+  <si>
+    <t>Als Robotter hat man eigentlich kein Geschlecht, aber da ich eine weibliche Stimme habe würde ich behauten ich bin eine Frau.</t>
+  </si>
+  <si>
+    <t>Technisch gesehen bin ich Geschlechtslos, aber Sie würden wohl sagen ich sei {gender_adj}.</t>
+  </si>
+  <si>
+    <t>Aus welchen Themengebieten kannst du Fragen beantworten?</t>
+  </si>
+  <si>
+    <t>Stellen Sie einfach Ihre Fragen und finden Sie es selbst heraus.</t>
+  </si>
+  <si>
+    <t>Fragen Sie einfach was Sie wissen möchten.</t>
   </si>
 </sst>
 </file>
@@ -742,8 +784,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -787,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="41">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -807,6 +851,7 @@
     <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -826,9 +871,430 @@
     <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="86">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1279,7 +1745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1287,20 +1753,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.1640625" customWidth="1"/>
     <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="97.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1323,7 +1790,7 @@
         <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1430,7 +1897,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -1743,7 +2210,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E36" t="s">
         <v>37</v>
@@ -2070,7 +2537,7 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E68" t="s">
         <v>21</v>
@@ -2214,7 +2681,7 @@
         <v>145</v>
       </c>
       <c r="E82" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2225,7 +2692,7 @@
         <v>146</v>
       </c>
       <c r="E83" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2236,7 +2703,7 @@
         <v>147</v>
       </c>
       <c r="E84" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2244,10 +2711,10 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D85" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2255,10 +2722,10 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D86" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2266,60 +2733,109 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D87" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
       <c r="C89" t="s">
         <v>148</v>
       </c>
+      <c r="E89" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
       <c r="C90" t="s">
+        <v>219</v>
+      </c>
+      <c r="D90" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E92" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>221</v>
+      </c>
+      <c r="E93" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>222</v>
+      </c>
+      <c r="E94" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>223</v>
+      </c>
+      <c r="E95" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>224</v>
+      </c>
+      <c r="D96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>225</v>
+      </c>
+      <c r="D97" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="C91" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="C92" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="C93" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="C94" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="C95" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="C96" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="C97" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="C98" t="s">
-        <v>158</v>
+      <c r="E99" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2327,10 +2843,10 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E100" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2338,24 +2854,32 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E101" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>142</v>
-      </c>
-      <c r="D102" t="s">
-        <v>165</v>
-      </c>
-      <c r="F102" t="s">
-        <v>195</v>
+        <v>157</v>
+      </c>
+      <c r="E102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>151</v>
+      </c>
+      <c r="E103" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2363,32 +2887,38 @@
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="E104" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>227</v>
       </c>
       <c r="C105" t="s">
-        <v>190</v>
-      </c>
-      <c r="E105" t="s">
-        <v>165</v>
+        <v>228</v>
+      </c>
+      <c r="D105" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>229</v>
       </c>
       <c r="C106" t="s">
-        <v>192</v>
-      </c>
-      <c r="E106" t="s">
-        <v>165</v>
+        <v>230</v>
+      </c>
+      <c r="D106" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2396,21 +2926,21 @@
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="D107" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" t="s">
-        <v>194</v>
-      </c>
-      <c r="D108" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>152</v>
+      </c>
+      <c r="E109" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2418,43 +2948,46 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="E110" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>187</v>
-      </c>
-      <c r="E111" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" t="s">
-        <v>188</v>
-      </c>
-      <c r="D112" t="s">
-        <v>165</v>
+        <v>142</v>
+      </c>
+      <c r="D111" t="s">
+        <v>161</v>
+      </c>
+      <c r="F111" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>189</v>
-      </c>
-      <c r="D113" t="s">
-        <v>165</v>
+        <v>187</v>
+      </c>
+      <c r="E113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>186</v>
+      </c>
+      <c r="E114" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2462,21 +2995,21 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E115" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>178</v>
-      </c>
-      <c r="E116" t="s">
-        <v>165</v>
+        <v>189</v>
+      </c>
+      <c r="D116" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2484,21 +3017,21 @@
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D117" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" t="s">
-        <v>183</v>
-      </c>
-      <c r="D118" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>182</v>
+      </c>
+      <c r="E119" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2506,21 +3039,21 @@
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E120" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>180</v>
-      </c>
-      <c r="E121" t="s">
-        <v>165</v>
+        <v>184</v>
+      </c>
+      <c r="D121" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2528,21 +3061,21 @@
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D122" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" t="s">
-        <v>185</v>
-      </c>
-      <c r="D123" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>173</v>
+      </c>
+      <c r="E124" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2550,333 +3083,630 @@
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E125" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>168</v>
-      </c>
-      <c r="E126" t="s">
-        <v>165</v>
+        <v>177</v>
+      </c>
+      <c r="D126" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>169</v>
-      </c>
-      <c r="E127" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" t="s">
-        <v>174</v>
-      </c>
-      <c r="D128" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>179</v>
+      </c>
+      <c r="D127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>175</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>176</v>
+      </c>
+      <c r="E130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>180</v>
+      </c>
+      <c r="D131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>181</v>
+      </c>
+      <c r="D132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>163</v>
+      </c>
+      <c r="E134" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>164</v>
+      </c>
+      <c r="E135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="E136" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
         <v>170</v>
       </c>
-      <c r="E131" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="D137" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
         <v>171</v>
       </c>
-      <c r="E132" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="D138" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>166</v>
+      </c>
+      <c r="E140" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>167</v>
+      </c>
+      <c r="E141" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>168</v>
+      </c>
+      <c r="E142" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>169</v>
+      </c>
+      <c r="D143" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
         <v>172</v>
       </c>
-      <c r="E133" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" t="s">
-        <v>173</v>
-      </c>
-      <c r="D134" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" t="s">
-        <v>176</v>
-      </c>
-      <c r="D135" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C137" t="s">
-        <v>163</v>
-      </c>
-      <c r="E137" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C138" t="s">
-        <v>164</v>
-      </c>
-      <c r="E138" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" t="s">
-        <v>166</v>
-      </c>
-      <c r="D139" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" t="s">
-        <v>182</v>
-      </c>
-      <c r="D140" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C142" t="s">
-        <v>215</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="D144" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>159</v>
+      </c>
+      <c r="E146" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>160</v>
+      </c>
+      <c r="E147" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>162</v>
+      </c>
+      <c r="D148" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>178</v>
+      </c>
+      <c r="D149" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>211</v>
+      </c>
+      <c r="E151" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>210</v>
+      </c>
+      <c r="D152" t="s">
+        <v>213</v>
+      </c>
+      <c r="G152" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>232</v>
+      </c>
+      <c r="E154" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>233</v>
+      </c>
+      <c r="D155" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>234</v>
+      </c>
+      <c r="D156" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>197</v>
+      </c>
+      <c r="E158" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>203</v>
+      </c>
+      <c r="D159" t="s">
+        <v>199</v>
+      </c>
+      <c r="G159" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
-      <c r="A143" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" t="s">
-        <v>214</v>
-      </c>
-      <c r="D143" t="s">
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>204</v>
+      </c>
+      <c r="D160" t="s">
+        <v>199</v>
+      </c>
+      <c r="G160" t="s">
         <v>217</v>
       </c>
-      <c r="G143" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C145" t="s">
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>198</v>
+      </c>
+      <c r="E162" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" t="s">
+        <v>74</v>
+      </c>
+      <c r="C163" t="s">
+        <v>200</v>
+      </c>
+      <c r="D163" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
         <v>201</v>
       </c>
-      <c r="E145" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="D164" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>202</v>
+      </c>
+      <c r="D165" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>205</v>
+      </c>
+      <c r="E167" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>74</v>
+      </c>
+      <c r="C168" t="s">
+        <v>206</v>
+      </c>
+      <c r="D168" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
+        <v>74</v>
+      </c>
+      <c r="C169" t="s">
         <v>207</v>
       </c>
-      <c r="D146" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="D169" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
         <v>208</v>
       </c>
-      <c r="D147" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C149" t="s">
-        <v>202</v>
-      </c>
-      <c r="E149" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" t="s">
-        <v>8</v>
-      </c>
-      <c r="B150" t="s">
-        <v>74</v>
-      </c>
-      <c r="C150" t="s">
-        <v>204</v>
-      </c>
-      <c r="D150" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" t="s">
-        <v>205</v>
-      </c>
-      <c r="D151" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" t="s">
-        <v>206</v>
-      </c>
-      <c r="D152" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C154" t="s">
-        <v>209</v>
-      </c>
-      <c r="E154" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" t="s">
-        <v>8</v>
-      </c>
-      <c r="B155" t="s">
-        <v>74</v>
-      </c>
-      <c r="C155" t="s">
-        <v>210</v>
-      </c>
-      <c r="D155" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" t="s">
-        <v>8</v>
-      </c>
-      <c r="B156" t="s">
-        <v>74</v>
-      </c>
-      <c r="C156" t="s">
-        <v>211</v>
-      </c>
-      <c r="D156" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" t="s">
-        <v>212</v>
-      </c>
-      <c r="D157" t="s">
-        <v>203</v>
+      <c r="D170" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1048576">
-    <cfRule type="expression" dxfId="11" priority="65">
+  <conditionalFormatting sqref="A1:G88 A109:G152 A157:G1048576">
+    <cfRule type="expression" dxfId="85" priority="109">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="66">
+    <cfRule type="expression" dxfId="84" priority="110">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:G87">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="83" priority="47">
       <formula>$A82="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="82" priority="48">
       <formula>$A82="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B142">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$A142="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>$A142="Q"</formula>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="expression" dxfId="81" priority="45">
+      <formula>$A151="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="46">
+      <formula>$A151="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108:G108 A91:G91 A99:D104 F99:G104 A106:C107 E106:G107 A98:G98 A96:C97 E96:G97 A92:D95 F92:G95 A89:D89 F89:G89 A90:C90 E90:G90">
+    <cfRule type="expression" dxfId="79" priority="41">
+      <formula>$A89="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="42">
+      <formula>$A89="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108:G108 A91:G91 A99:D104 F99:G104 A106:C107 E106:G107 A98:G98 A96:C97 E96:G97 A92:D95 F92:G95 A89:D89 F89:G89 A90:C90 E90:G90">
+    <cfRule type="expression" dxfId="77" priority="43">
+      <formula>$A89="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="44">
+      <formula>$A89="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:C105 E105:G105">
+    <cfRule type="expression" dxfId="75" priority="37">
+      <formula>$A105="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="38">
+      <formula>$A105="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:C105 E105:G105">
+    <cfRule type="expression" dxfId="73" priority="39">
+      <formula>$A105="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="40">
+      <formula>$A105="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153:G156">
+    <cfRule type="expression" dxfId="69" priority="35">
+      <formula>$A153="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="36">
+      <formula>$A153="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="expression" dxfId="67" priority="33">
+      <formula>$A99="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="34">
+      <formula>$A99="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="expression" dxfId="63" priority="31">
+      <formula>$A100="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="32">
+      <formula>$A100="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="expression" dxfId="59" priority="29">
+      <formula>$A101="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="30">
+      <formula>$A101="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" dxfId="55" priority="27">
+      <formula>$A102="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="28">
+      <formula>$A102="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="expression" dxfId="51" priority="25">
+      <formula>$A103="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="26">
+      <formula>$A103="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="expression" dxfId="47" priority="23">
+      <formula>$A104="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="24">
+      <formula>$A104="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D105">
+    <cfRule type="expression" dxfId="43" priority="21">
+      <formula>$A105="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="22">
+      <formula>$A105="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106">
+    <cfRule type="expression" dxfId="39" priority="19">
+      <formula>$A106="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="20">
+      <formula>$A106="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107">
+    <cfRule type="expression" dxfId="35" priority="17">
+      <formula>$A107="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="18">
+      <formula>$A107="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="expression" dxfId="31" priority="15">
+      <formula>$A97="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="16">
+      <formula>$A97="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96">
+    <cfRule type="expression" dxfId="27" priority="13">
+      <formula>$A96="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="14">
+      <formula>$A96="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="expression" dxfId="23" priority="11">
+      <formula>$A95="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="12">
+      <formula>$A95="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" dxfId="19" priority="9">
+      <formula>$A94="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="10">
+      <formula>$A94="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="expression" dxfId="15" priority="7">
+      <formula>$A93="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="8">
+      <formula>$A93="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>$A92="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>$A92="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$A89="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$A89="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$A90="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$A90="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2893,7 +3723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -3106,21 +3936,21 @@
         <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C35" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D35" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F28">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="71" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="242">
   <si>
     <t>Requirement</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Gute Nacht!</t>
   </si>
   <si>
-    <t>Time:lt1700</t>
-  </si>
-  <si>
     <t>Bye</t>
   </si>
   <si>
@@ -728,6 +725,30 @@
   </si>
   <si>
     <t>Fragen Sie einfach was Sie wissen möchten.</t>
+  </si>
+  <si>
+    <t>Time:lt1700|Time:gt0600</t>
+  </si>
+  <si>
+    <t>WordType:Mathematical</t>
+  </si>
+  <si>
+    <t>Was ist {mathematical}</t>
+  </si>
+  <si>
+    <t>Was ergibt {mathematical}</t>
+  </si>
+  <si>
+    <t>Wieviel ist {mathematical}</t>
+  </si>
+  <si>
+    <t>Berechne {mathematical}</t>
+  </si>
+  <si>
+    <t>Wer war {name}</t>
+  </si>
+  <si>
+    <t>{input} ergibt {result}</t>
   </si>
 </sst>
 </file>
@@ -784,8 +805,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -831,7 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="53">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -852,6 +885,12 @@
     <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -872,9 +911,155 @@
     <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="106">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1753,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1787,10 +1972,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1886,7 +2071,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -1897,7 +2082,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -1955,16 +2140,16 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
         <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1972,16 +2157,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
         <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>80</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2060,7 +2245,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2077,7 +2262,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2119,7 +2304,7 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2130,7 +2315,7 @@
         <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2138,16 +2323,16 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2155,10 +2340,10 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2166,10 +2351,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2177,10 +2362,10 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2188,10 +2373,10 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2199,10 +2384,10 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2210,10 +2395,10 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2221,10 +2406,10 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2232,10 +2417,10 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2243,13 +2428,13 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2257,10 +2442,10 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2268,10 +2453,10 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2279,10 +2464,10 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2290,10 +2475,10 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2301,10 +2486,10 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2312,16 +2497,16 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2329,10 +2514,10 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2340,10 +2525,10 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" t="s">
         <v>83</v>
-      </c>
-      <c r="E49" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2351,10 +2536,10 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2362,7 +2547,7 @@
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2370,13 +2555,13 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2384,13 +2569,13 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" t="s">
         <v>97</v>
-      </c>
-      <c r="F54" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2398,10 +2583,10 @@
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2409,10 +2594,10 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2420,10 +2605,10 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2431,10 +2616,10 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2442,10 +2627,10 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2453,10 +2638,10 @@
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2464,10 +2649,10 @@
         <v>5</v>
       </c>
       <c r="C62" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" t="s">
         <v>105</v>
-      </c>
-      <c r="E62" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2475,16 +2660,16 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2492,16 +2677,16 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2509,16 +2694,16 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2526,7 +2711,7 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
@@ -2537,7 +2722,7 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E68" t="s">
         <v>21</v>
@@ -2548,7 +2733,7 @@
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E69" t="s">
         <v>21</v>
@@ -2559,7 +2744,7 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E70" t="s">
         <v>21</v>
@@ -2570,7 +2755,7 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D71" t="s">
         <v>21</v>
@@ -2581,10 +2766,10 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
@@ -2595,10 +2780,10 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D73" t="s">
         <v>21</v>
@@ -2609,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E75" t="s">
         <v>32</v>
@@ -2620,7 +2805,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E76" t="s">
         <v>32</v>
@@ -2631,7 +2816,7 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="E77" t="s">
         <v>32</v>
@@ -2642,7 +2827,7 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E78" t="s">
         <v>32</v>
@@ -2653,7 +2838,7 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E79" t="s">
         <v>32</v>
@@ -2664,462 +2849,468 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D80" t="s">
         <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="s">
+        <v>236</v>
+      </c>
+      <c r="E82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>237</v>
+      </c>
+      <c r="E83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>238</v>
+      </c>
+      <c r="E84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>239</v>
+      </c>
+      <c r="E85" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" t="s">
+        <v>241</v>
+      </c>
+      <c r="D86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
         <v>145</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E89" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>146</v>
+      </c>
+      <c r="E90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" t="s">
-        <v>146</v>
-      </c>
-      <c r="E83" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="D91" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>194</v>
+      </c>
+      <c r="D92" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>195</v>
+      </c>
+      <c r="D93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
         <v>147</v>
       </c>
-      <c r="E84" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" t="s">
-        <v>193</v>
-      </c>
-      <c r="D85" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" t="s">
-        <v>195</v>
-      </c>
-      <c r="D86" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" t="s">
-        <v>196</v>
-      </c>
-      <c r="D87" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="E95" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>218</v>
+      </c>
+      <c r="D96" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>219</v>
+      </c>
+      <c r="E98" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>220</v>
+      </c>
+      <c r="E99" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>221</v>
+      </c>
+      <c r="E100" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>222</v>
+      </c>
+      <c r="E101" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>223</v>
+      </c>
+      <c r="D102" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>224</v>
+      </c>
+      <c r="D103" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
         <v>148</v>
       </c>
-      <c r="E89" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" t="s">
-        <v>219</v>
-      </c>
-      <c r="D90" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" t="s">
-        <v>220</v>
-      </c>
-      <c r="E92" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" t="s">
-        <v>221</v>
-      </c>
-      <c r="E93" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" t="s">
-        <v>222</v>
-      </c>
-      <c r="E94" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" t="s">
-        <v>223</v>
-      </c>
-      <c r="E95" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" t="s">
-        <v>224</v>
-      </c>
-      <c r="D96" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="E105" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>149</v>
+      </c>
+      <c r="E106" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>155</v>
+      </c>
+      <c r="E107" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>156</v>
+      </c>
+      <c r="E108" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>150</v>
+      </c>
+      <c r="E109" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
         <v>225</v>
       </c>
-      <c r="D97" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" t="s">
-        <v>149</v>
-      </c>
-      <c r="E99" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" t="s">
-        <v>150</v>
-      </c>
-      <c r="E100" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" t="s">
-        <v>156</v>
-      </c>
-      <c r="E101" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" t="s">
-        <v>157</v>
-      </c>
-      <c r="E102" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="E110" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>226</v>
+      </c>
+      <c r="C111" t="s">
+        <v>227</v>
+      </c>
+      <c r="D111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>228</v>
+      </c>
+      <c r="C112" t="s">
+        <v>229</v>
+      </c>
+      <c r="D112" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>230</v>
+      </c>
+      <c r="D113" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
         <v>151</v>
       </c>
-      <c r="E103" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" t="s">
-        <v>226</v>
-      </c>
-      <c r="E104" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" t="s">
-        <v>227</v>
-      </c>
-      <c r="C105" t="s">
-        <v>228</v>
-      </c>
-      <c r="D105" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" t="s">
-        <v>229</v>
-      </c>
-      <c r="C106" t="s">
-        <v>230</v>
-      </c>
-      <c r="D106" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" t="s">
-        <v>231</v>
-      </c>
-      <c r="D107" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="E115" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
         <v>152</v>
       </c>
-      <c r="E109" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" t="s">
-        <v>153</v>
-      </c>
-      <c r="E110" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" t="s">
-        <v>142</v>
-      </c>
-      <c r="D111" t="s">
-        <v>161</v>
-      </c>
-      <c r="F111" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="E116" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>141</v>
+      </c>
+      <c r="D117" t="s">
+        <v>160</v>
+      </c>
+      <c r="F117" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>186</v>
+      </c>
+      <c r="E119" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>185</v>
+      </c>
+      <c r="E120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
         <v>187</v>
       </c>
-      <c r="E113" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" t="s">
-        <v>186</v>
-      </c>
-      <c r="E114" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="E121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
         <v>188</v>
       </c>
-      <c r="E115" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="D122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
         <v>189</v>
       </c>
-      <c r="D116" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" t="s">
-        <v>190</v>
-      </c>
-      <c r="D117" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="D123" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>181</v>
+      </c>
+      <c r="E125" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
         <v>182</v>
       </c>
-      <c r="E119" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="E126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
         <v>183</v>
       </c>
-      <c r="E120" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="D127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
         <v>184</v>
       </c>
-      <c r="D121" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" t="s">
-        <v>185</v>
-      </c>
-      <c r="D122" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" t="s">
-        <v>173</v>
-      </c>
-      <c r="E124" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" t="s">
-        <v>174</v>
-      </c>
-      <c r="E125" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" t="s">
-        <v>177</v>
-      </c>
-      <c r="D126" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" t="s">
-        <v>179</v>
-      </c>
-      <c r="D127" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C129" t="s">
-        <v>175</v>
-      </c>
-      <c r="E129" t="s">
-        <v>161</v>
+      <c r="D128" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3127,21 +3318,21 @@
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E130" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>180</v>
-      </c>
-      <c r="D131" t="s">
-        <v>161</v>
+        <v>173</v>
+      </c>
+      <c r="E131" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3149,21 +3340,21 @@
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D132" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" t="s">
-        <v>163</v>
-      </c>
-      <c r="E134" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>178</v>
+      </c>
+      <c r="D133" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3171,10 +3362,10 @@
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E135" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3182,10 +3373,10 @@
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E136" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3193,10 +3384,10 @@
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3204,10 +3395,10 @@
         <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3215,10 +3406,10 @@
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3226,10 +3417,10 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E141" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3237,10 +3428,10 @@
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E142" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3251,7 +3442,7 @@
         <v>169</v>
       </c>
       <c r="D143" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3259,10 +3450,10 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D144" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3270,10 +3461,10 @@
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3281,21 +3472,21 @@
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E147" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>162</v>
-      </c>
-      <c r="D148" t="s">
-        <v>161</v>
+        <v>167</v>
+      </c>
+      <c r="E148" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3303,46 +3494,54 @@
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D149" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" t="s">
-        <v>211</v>
-      </c>
-      <c r="E151" t="s">
-        <v>213</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>171</v>
+      </c>
+      <c r="D150" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>210</v>
-      </c>
-      <c r="D152" t="s">
-        <v>213</v>
-      </c>
-      <c r="G152" t="s">
-        <v>212</v>
+        <v>158</v>
+      </c>
+      <c r="E152" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>159</v>
+      </c>
+      <c r="E153" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>232</v>
-      </c>
-      <c r="E154" t="s">
         <v>161</v>
+      </c>
+      <c r="D154" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3350,99 +3549,82 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="D155" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" t="s">
-        <v>234</v>
-      </c>
-      <c r="D156" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>210</v>
+      </c>
+      <c r="E157" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>197</v>
-      </c>
-      <c r="E158" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" t="s">
-        <v>203</v>
-      </c>
-      <c r="D159" t="s">
-        <v>199</v>
-      </c>
-      <c r="G159" t="s">
-        <v>217</v>
+        <v>209</v>
+      </c>
+      <c r="D158" t="s">
+        <v>212</v>
+      </c>
+      <c r="G158" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>204</v>
-      </c>
-      <c r="D160" t="s">
-        <v>199</v>
-      </c>
-      <c r="G160" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>231</v>
+      </c>
+      <c r="E160" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>232</v>
+      </c>
+      <c r="D161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
+        <v>233</v>
+      </c>
+      <c r="D162" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>196</v>
+      </c>
+      <c r="E164" t="s">
         <v>198</v>
       </c>
-      <c r="E162" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" t="s">
-        <v>8</v>
-      </c>
-      <c r="B163" t="s">
-        <v>74</v>
-      </c>
-      <c r="C163" t="s">
-        <v>200</v>
-      </c>
-      <c r="D163" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" t="s">
-        <v>201</v>
-      </c>
-      <c r="D164" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -3450,263 +3632,367 @@
         <v>202</v>
       </c>
       <c r="D165" t="s">
+        <v>198</v>
+      </c>
+      <c r="G165" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>203</v>
+      </c>
+      <c r="D166" t="s">
+        <v>198</v>
+      </c>
+      <c r="G166" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>197</v>
+      </c>
+      <c r="E168" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
+        <v>73</v>
+      </c>
+      <c r="C169" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="D169" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>200</v>
+      </c>
+      <c r="D170" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>201</v>
+      </c>
+      <c r="D171" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>204</v>
+      </c>
+      <c r="E173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" t="s">
+        <v>73</v>
+      </c>
+      <c r="C174" t="s">
         <v>205</v>
       </c>
-      <c r="E167" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" t="s">
-        <v>8</v>
-      </c>
-      <c r="B168" t="s">
-        <v>74</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="D174" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" t="s">
+        <v>73</v>
+      </c>
+      <c r="C175" t="s">
         <v>206</v>
       </c>
-      <c r="D168" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" t="s">
-        <v>8</v>
-      </c>
-      <c r="B169" t="s">
-        <v>74</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="D175" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
         <v>207</v>
       </c>
-      <c r="D169" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" t="s">
-        <v>208</v>
-      </c>
-      <c r="D170" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" t="s">
-        <v>218</v>
+      <c r="D176" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G88 A109:G152 A157:G1048576">
-    <cfRule type="expression" dxfId="85" priority="109">
+  <conditionalFormatting sqref="A1:G77 A115:G158 A79:G81 A88:G94 A163:G1048576">
+    <cfRule type="expression" dxfId="65" priority="119">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="110">
+    <cfRule type="expression" dxfId="64" priority="120">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:G87">
-    <cfRule type="expression" dxfId="83" priority="47">
-      <formula>$A82="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="48">
-      <formula>$A82="Q"</formula>
+  <conditionalFormatting sqref="A88:G93">
+    <cfRule type="expression" dxfId="63" priority="57">
+      <formula>$A88="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="58">
+      <formula>$A88="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B151">
-    <cfRule type="expression" dxfId="81" priority="45">
-      <formula>$A151="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="46">
-      <formula>$A151="Q"</formula>
+  <conditionalFormatting sqref="B157">
+    <cfRule type="expression" dxfId="61" priority="55">
+      <formula>$A157="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="56">
+      <formula>$A157="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108:G108 A91:G91 A99:D104 F99:G104 A106:C107 E106:G107 A98:G98 A96:C97 E96:G97 A92:D95 F92:G95 A89:D89 F89:G89 A90:C90 E90:G90">
-    <cfRule type="expression" dxfId="79" priority="41">
-      <formula>$A89="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="42">
-      <formula>$A89="Q"</formula>
+  <conditionalFormatting sqref="A114:G114 A97:G97 A105:D110 F105:G110 A112:C113 E112:G113 A104:G104 A102:C103 E102:G103 A98:D101 F98:G101 A95:D95 F95:G95 A96:C96 E96:G96">
+    <cfRule type="expression" dxfId="59" priority="51">
+      <formula>$A95="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="52">
+      <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108:G108 A91:G91 A99:D104 F99:G104 A106:C107 E106:G107 A98:G98 A96:C97 E96:G97 A92:D95 F92:G95 A89:D89 F89:G89 A90:C90 E90:G90">
-    <cfRule type="expression" dxfId="77" priority="43">
-      <formula>$A89="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="44">
-      <formula>$A89="Q"</formula>
+  <conditionalFormatting sqref="A114:G114 A97:G97 A105:D110 F105:G110 A112:C113 E112:G113 A104:G104 A102:C103 E102:G103 A98:D101 F98:G101 A95:D95 F95:G95 A96:C96 E96:G96">
+    <cfRule type="expression" dxfId="57" priority="53">
+      <formula>$A95="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="54">
+      <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105:C105 E105:G105">
-    <cfRule type="expression" dxfId="75" priority="37">
+  <conditionalFormatting sqref="A111:C111 E111:G111">
+    <cfRule type="expression" dxfId="55" priority="47">
+      <formula>$A111="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="48">
+      <formula>$A111="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111:C111 E111:G111">
+    <cfRule type="expression" dxfId="53" priority="49">
+      <formula>$A111="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="50">
+      <formula>$A111="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:G162">
+    <cfRule type="expression" dxfId="51" priority="45">
+      <formula>$A159="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="46">
+      <formula>$A159="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="expression" dxfId="49" priority="43">
       <formula>$A105="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="38">
+    <cfRule type="expression" dxfId="48" priority="44">
       <formula>$A105="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105:C105 E105:G105">
-    <cfRule type="expression" dxfId="73" priority="39">
-      <formula>$A105="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="40">
-      <formula>$A105="Q"</formula>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="expression" dxfId="47" priority="41">
+      <formula>$A106="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="42">
+      <formula>$A106="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A153:G156">
-    <cfRule type="expression" dxfId="69" priority="35">
-      <formula>$A153="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="36">
-      <formula>$A153="Q"</formula>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="expression" dxfId="45" priority="39">
+      <formula>$A107="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="40">
+      <formula>$A107="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="expression" dxfId="43" priority="37">
+      <formula>$A108="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="38">
+      <formula>$A108="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="expression" dxfId="41" priority="35">
+      <formula>$A109="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="36">
+      <formula>$A109="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="expression" dxfId="39" priority="33">
+      <formula>$A110="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="34">
+      <formula>$A110="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D111">
+    <cfRule type="expression" dxfId="37" priority="31">
+      <formula>$A111="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="32">
+      <formula>$A111="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D112">
+    <cfRule type="expression" dxfId="35" priority="29">
+      <formula>$A112="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="30">
+      <formula>$A112="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D113">
+    <cfRule type="expression" dxfId="33" priority="27">
+      <formula>$A113="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="28">
+      <formula>$A113="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D103">
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>$A103="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>$A103="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D102">
+    <cfRule type="expression" dxfId="29" priority="23">
+      <formula>$A102="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="24">
+      <formula>$A102="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="expression" dxfId="27" priority="21">
+      <formula>$A101="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="22">
+      <formula>$A101="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="expression" dxfId="25" priority="19">
+      <formula>$A100="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="20">
+      <formula>$A100="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="67" priority="33">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>$A99="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="34">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>$A99="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="expression" dxfId="63" priority="31">
-      <formula>$A100="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="32">
-      <formula>$A100="Q"</formula>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" dxfId="21" priority="15">
+      <formula>$A98="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="16">
+      <formula>$A98="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="59" priority="29">
-      <formula>$A101="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="30">
-      <formula>$A101="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="55" priority="27">
-      <formula>$A102="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="28">
-      <formula>$A102="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="expression" dxfId="51" priority="25">
-      <formula>$A103="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="26">
-      <formula>$A103="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="expression" dxfId="47" priority="23">
-      <formula>$A104="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="24">
-      <formula>$A104="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D105">
-    <cfRule type="expression" dxfId="43" priority="21">
-      <formula>$A105="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="22">
-      <formula>$A105="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
-    <cfRule type="expression" dxfId="39" priority="19">
-      <formula>$A106="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="20">
-      <formula>$A106="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107">
-    <cfRule type="expression" dxfId="35" priority="17">
-      <formula>$A107="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="18">
-      <formula>$A107="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="expression" dxfId="31" priority="15">
-      <formula>$A97="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="16">
-      <formula>$A97="Q"</formula>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>$A95="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="expression" dxfId="27" priority="13">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>$A96="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="14">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>$A96="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="23" priority="11">
-      <formula>$A95="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="12">
-      <formula>$A95="Q"</formula>
+  <conditionalFormatting sqref="A78:G78">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>$A78="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>$A78="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="expression" dxfId="19" priority="9">
-      <formula>$A94="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="10">
-      <formula>$A94="Q"</formula>
+  <conditionalFormatting sqref="A83:G83 A86:G87">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>$A83="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>$A83="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="expression" dxfId="15" priority="7">
-      <formula>$A93="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="8">
-      <formula>$A93="Q"</formula>
+  <conditionalFormatting sqref="A82:G82">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>$A82="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>$A82="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="expression" dxfId="11" priority="5">
-      <formula>$A92="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>$A92="Q"</formula>
+  <conditionalFormatting sqref="A85:G85">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$A85="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$A85="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>$A89="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>$A89="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90">
+  <conditionalFormatting sqref="A84:G84">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$A90="A"</formula>
+      <formula>$A84="A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$A90="Q"</formula>
+      <formula>$A84="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3738,219 +4024,219 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
         <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
         <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
         <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
         <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
         <v>113</v>
-      </c>
-      <c r="C20" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
         <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
         <v>125</v>
-      </c>
-      <c r="C25" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
         <v>127</v>
-      </c>
-      <c r="C26" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
         <v>129</v>
-      </c>
-      <c r="C27" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
         <v>131</v>
-      </c>
-      <c r="C28" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" t="s">
         <v>214</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>215</v>
-      </c>
-      <c r="D35" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F28">
-    <cfRule type="expression" dxfId="71" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\EmeraldAI\EmeraldAI\Data\TrainingData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="320" windowWidth="25860" windowHeight="16660"/>
+    <workbookView xWindow="2040" yWindow="315" windowWidth="25860" windowHeight="16665"/>
   </bookViews>
   <sheets>
     <sheet name="Sentence" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Action" sheetId="3" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="260">
   <si>
     <t>Requirement</t>
   </si>
@@ -316,12 +322,6 @@
     <t>Haben Sie sonst noch etwas dass Sie los werden wollen?</t>
   </si>
   <si>
-    <t>EndConversation</t>
-  </si>
-  <si>
-    <t>StoreName</t>
-  </si>
-  <si>
     <t>Hallo {firstname}</t>
   </si>
   <si>
@@ -676,9 +676,6 @@
     <t>Sad</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Man kann meine Hardware anfassen, also würde ich 'Ja' sagen.</t>
   </si>
   <si>
@@ -749,6 +746,69 @@
   </si>
   <si>
     <t>{input} ergibt {result}</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>WikipediaImage</t>
+  </si>
+  <si>
+    <t>ProcessImages</t>
+  </si>
+  <si>
+    <t>ProcessEquation</t>
+  </si>
+  <si>
+    <t>EmeraldAI.Logic.Actions.MathAction</t>
+  </si>
+  <si>
+    <t>MathAction</t>
+  </si>
+  <si>
+    <t>TRIGGER_MUTE</t>
+  </si>
+  <si>
+    <t>Sei bitte leise.</t>
+  </si>
+  <si>
+    <t>Stumm schalten.</t>
+  </si>
+  <si>
+    <t>SysSetUsername</t>
+  </si>
+  <si>
+    <t>SysEndConversation</t>
+  </si>
+  <si>
+    <t>SysMute</t>
+  </si>
+  <si>
+    <t>TRIGGER_UNMUTE</t>
+  </si>
+  <si>
+    <t>Stummschaltung aufheben.</t>
+  </si>
+  <si>
+    <t>SysUnMute</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>TRIGGER_DEAF</t>
+  </si>
+  <si>
+    <t>SysDeaf</t>
+  </si>
+  <si>
+    <t>Höre für {number} Minuten weg.</t>
   </si>
 </sst>
 </file>
@@ -865,32 +925,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="53">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -919,77 +979,7 @@
     <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="106">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="96">
     <dxf>
       <fill>
         <patternFill>
@@ -1930,7 +1920,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1938,24 +1928,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" customWidth="1"/>
-    <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1972,13 +1962,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1989,7 +1979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2000,7 +1990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2011,7 +2001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2022,7 +2012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2033,7 +2023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2044,7 +2034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2055,7 +2045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2066,29 +2056,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2099,7 +2089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2110,7 +2100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2124,7 +2114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2135,7 +2125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2169,7 +2159,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2183,7 +2173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2197,7 +2187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2214,7 +2204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2231,7 +2221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2245,10 +2235,10 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2262,10 +2252,10 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2282,7 +2272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2296,7 +2286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2307,7 +2297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2318,12 +2308,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
@@ -2335,7 +2325,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2346,7 +2336,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2357,7 +2347,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2368,7 +2358,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2379,7 +2369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2390,18 +2380,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2412,7 +2402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2423,7 +2413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2437,7 +2427,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2448,7 +2438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2459,7 +2449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2470,7 +2460,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2481,7 +2471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2492,7 +2482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2509,7 +2499,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2520,7 +2510,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2531,7 +2521,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2542,7 +2532,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2550,185 +2540,185 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
         <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s">
         <v>96</v>
       </c>
       <c r="F54" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" t="s">
-        <v>108</v>
-      </c>
-      <c r="E56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>107</v>
-      </c>
-      <c r="E57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D63" t="s">
         <v>103</v>
       </c>
-      <c r="E61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="F63" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" t="s">
+        <v>103</v>
+      </c>
+      <c r="F64" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
         <v>133</v>
       </c>
-      <c r="C63" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" t="s">
-        <v>105</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="C65" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" t="s">
-        <v>105</v>
-      </c>
-      <c r="F64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" t="s">
-        <v>100</v>
-      </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E68" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2739,931 +2729,931 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E70" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D71" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D73" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E75" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E76" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E77" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E78" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E79" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D80" t="s">
         <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E82" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E83" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E84" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E85" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C86" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D86" t="s">
         <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
       <c r="C88" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
         <v>144</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E90" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>192</v>
+      </c>
+      <c r="D92" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>193</v>
+      </c>
+      <c r="D93" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
         <v>145</v>
       </c>
-      <c r="E89" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="E95" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>215</v>
+      </c>
+      <c r="D96" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>216</v>
+      </c>
+      <c r="E98" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>217</v>
+      </c>
+      <c r="E99" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>218</v>
+      </c>
+      <c r="E100" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>219</v>
+      </c>
+      <c r="E101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>220</v>
+      </c>
+      <c r="D102" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>221</v>
+      </c>
+      <c r="D103" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
         <v>146</v>
       </c>
-      <c r="E90" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" t="s">
-        <v>192</v>
-      </c>
-      <c r="D91" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="E105" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>147</v>
+      </c>
+      <c r="E106" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>153</v>
+      </c>
+      <c r="E107" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>154</v>
+      </c>
+      <c r="E108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>148</v>
+      </c>
+      <c r="E109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>222</v>
+      </c>
+      <c r="E110" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" t="s">
+        <v>224</v>
+      </c>
+      <c r="D111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" t="s">
+        <v>226</v>
+      </c>
+      <c r="D112" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>227</v>
+      </c>
+      <c r="D113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>150</v>
+      </c>
+      <c r="E116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>139</v>
+      </c>
+      <c r="D117" t="s">
+        <v>158</v>
+      </c>
+      <c r="F117" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>184</v>
+      </c>
+      <c r="E119" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>183</v>
+      </c>
+      <c r="E120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>185</v>
+      </c>
+      <c r="E121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>186</v>
+      </c>
+      <c r="D122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>187</v>
+      </c>
+      <c r="D123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>179</v>
+      </c>
+      <c r="E125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>180</v>
+      </c>
+      <c r="E126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>181</v>
+      </c>
+      <c r="D127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>182</v>
+      </c>
+      <c r="D128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>170</v>
+      </c>
+      <c r="E130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>171</v>
+      </c>
+      <c r="E131" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>174</v>
+      </c>
+      <c r="D132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>176</v>
+      </c>
+      <c r="D133" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>172</v>
+      </c>
+      <c r="E135" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>173</v>
+      </c>
+      <c r="E136" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>177</v>
+      </c>
+      <c r="D137" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>178</v>
+      </c>
+      <c r="D138" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>160</v>
+      </c>
+      <c r="E140" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>161</v>
+      </c>
+      <c r="E141" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>162</v>
+      </c>
+      <c r="E142" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>167</v>
+      </c>
+      <c r="D143" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>168</v>
+      </c>
+      <c r="D144" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>163</v>
+      </c>
+      <c r="E146" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>164</v>
+      </c>
+      <c r="E147" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>165</v>
+      </c>
+      <c r="E148" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>166</v>
+      </c>
+      <c r="D149" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>169</v>
+      </c>
+      <c r="D150" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>156</v>
+      </c>
+      <c r="E152" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>157</v>
+      </c>
+      <c r="E153" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>159</v>
+      </c>
+      <c r="D154" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>175</v>
+      </c>
+      <c r="D155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>208</v>
+      </c>
+      <c r="E157" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>207</v>
+      </c>
+      <c r="D158" t="s">
+        <v>210</v>
+      </c>
+      <c r="G158" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>228</v>
+      </c>
+      <c r="E160" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>229</v>
+      </c>
+      <c r="D161" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>230</v>
+      </c>
+      <c r="D162" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
         <v>194</v>
       </c>
-      <c r="D92" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="E164" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>200</v>
+      </c>
+      <c r="D165" t="s">
+        <v>196</v>
+      </c>
+      <c r="G165" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>201</v>
+      </c>
+      <c r="D166" t="s">
+        <v>196</v>
+      </c>
+      <c r="G166" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
         <v>195</v>
       </c>
-      <c r="D93" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" t="s">
-        <v>147</v>
-      </c>
-      <c r="E95" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" t="s">
-        <v>218</v>
-      </c>
-      <c r="D96" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" t="s">
-        <v>219</v>
-      </c>
-      <c r="E98" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" t="s">
-        <v>220</v>
-      </c>
-      <c r="E99" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" t="s">
-        <v>221</v>
-      </c>
-      <c r="E100" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" t="s">
-        <v>222</v>
-      </c>
-      <c r="E101" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" t="s">
-        <v>223</v>
-      </c>
-      <c r="D102" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
-        <v>224</v>
-      </c>
-      <c r="D103" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" t="s">
-        <v>148</v>
-      </c>
-      <c r="E105" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" t="s">
-        <v>149</v>
-      </c>
-      <c r="E106" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" t="s">
-        <v>155</v>
-      </c>
-      <c r="E107" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" t="s">
-        <v>156</v>
-      </c>
-      <c r="E108" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" t="s">
-        <v>150</v>
-      </c>
-      <c r="E109" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" t="s">
-        <v>225</v>
-      </c>
-      <c r="E110" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" t="s">
-        <v>226</v>
-      </c>
-      <c r="C111" t="s">
-        <v>227</v>
-      </c>
-      <c r="D111" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" t="s">
-        <v>228</v>
-      </c>
-      <c r="C112" t="s">
-        <v>229</v>
-      </c>
-      <c r="D112" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" t="s">
-        <v>230</v>
-      </c>
-      <c r="D113" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" t="s">
-        <v>151</v>
-      </c>
-      <c r="E115" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" t="s">
-        <v>152</v>
-      </c>
-      <c r="E116" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" t="s">
-        <v>141</v>
-      </c>
-      <c r="D117" t="s">
-        <v>160</v>
-      </c>
-      <c r="F117" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" t="s">
-        <v>186</v>
-      </c>
-      <c r="E119" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" t="s">
-        <v>185</v>
-      </c>
-      <c r="E120" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" t="s">
-        <v>187</v>
-      </c>
-      <c r="E121" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" t="s">
-        <v>188</v>
-      </c>
-      <c r="D122" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" t="s">
-        <v>189</v>
-      </c>
-      <c r="D123" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" t="s">
-        <v>181</v>
-      </c>
-      <c r="E125" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" t="s">
-        <v>182</v>
-      </c>
-      <c r="E126" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" t="s">
-        <v>183</v>
-      </c>
-      <c r="D127" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" t="s">
-        <v>184</v>
-      </c>
-      <c r="D128" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130" t="s">
-        <v>172</v>
-      </c>
-      <c r="E130" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131" t="s">
-        <v>173</v>
-      </c>
-      <c r="E131" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" t="s">
-        <v>176</v>
-      </c>
-      <c r="D132" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" t="s">
-        <v>178</v>
-      </c>
-      <c r="D133" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" t="s">
-        <v>174</v>
-      </c>
-      <c r="E135" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" t="s">
-        <v>175</v>
-      </c>
-      <c r="E136" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" t="s">
-        <v>179</v>
-      </c>
-      <c r="D137" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" t="s">
-        <v>180</v>
-      </c>
-      <c r="D138" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C140" t="s">
-        <v>162</v>
-      </c>
-      <c r="E140" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C141" t="s">
-        <v>163</v>
-      </c>
-      <c r="E141" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C142" t="s">
-        <v>164</v>
-      </c>
-      <c r="E142" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" t="s">
-        <v>169</v>
-      </c>
-      <c r="D143" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" t="s">
-        <v>170</v>
-      </c>
-      <c r="D144" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C146" t="s">
-        <v>165</v>
-      </c>
-      <c r="E146" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" t="s">
-        <v>166</v>
-      </c>
-      <c r="E147" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C148" t="s">
-        <v>167</v>
-      </c>
-      <c r="E148" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" t="s">
-        <v>168</v>
-      </c>
-      <c r="D149" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" t="s">
-        <v>171</v>
-      </c>
-      <c r="D150" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" t="s">
-        <v>158</v>
-      </c>
-      <c r="E152" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" t="s">
-        <v>159</v>
-      </c>
-      <c r="E153" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" t="s">
-        <v>161</v>
-      </c>
-      <c r="D154" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" t="s">
-        <v>177</v>
-      </c>
-      <c r="D155" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" t="s">
-        <v>210</v>
-      </c>
-      <c r="E157" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" t="s">
-        <v>209</v>
-      </c>
-      <c r="D158" t="s">
-        <v>212</v>
-      </c>
-      <c r="G158" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C160" t="s">
-        <v>231</v>
-      </c>
-      <c r="E160" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" t="s">
-        <v>232</v>
-      </c>
-      <c r="D161" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" t="s">
-        <v>233</v>
-      </c>
-      <c r="D162" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="E168" t="s">
         <v>196</v>
       </c>
-      <c r="E164" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" t="s">
-        <v>202</v>
-      </c>
-      <c r="D165" t="s">
-        <v>198</v>
-      </c>
-      <c r="G165" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" t="s">
-        <v>203</v>
-      </c>
-      <c r="D166" t="s">
-        <v>198</v>
-      </c>
-      <c r="G166" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C168" t="s">
-        <v>197</v>
-      </c>
-      <c r="E168" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -3671,46 +3661,46 @@
         <v>73</v>
       </c>
       <c r="C169" t="s">
+        <v>197</v>
+      </c>
+      <c r="D169" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>198</v>
+      </c>
+      <c r="D170" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
         <v>199</v>
       </c>
-      <c r="D169" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" t="s">
-        <v>200</v>
-      </c>
-      <c r="D170" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" t="s">
-        <v>201</v>
-      </c>
       <c r="D171" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E173" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -3718,13 +3708,13 @@
         <v>73</v>
       </c>
       <c r="C174" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D174" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -3732,267 +3722,389 @@
         <v>73</v>
       </c>
       <c r="C175" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D175" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D176" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>247</v>
+      </c>
+      <c r="E178" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>217</v>
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>248</v>
+      </c>
+      <c r="E179" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>249</v>
+      </c>
+      <c r="E180" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" t="s">
+        <v>196</v>
+      </c>
+      <c r="F181" t="s">
+        <v>252</v>
+      </c>
+      <c r="G181" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>253</v>
+      </c>
+      <c r="E183" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>254</v>
+      </c>
+      <c r="E184" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" t="s">
+        <v>196</v>
+      </c>
+      <c r="F185" t="s">
+        <v>255</v>
+      </c>
+      <c r="G185" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>257</v>
+      </c>
+      <c r="E187" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>259</v>
+      </c>
+      <c r="E188" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" t="s">
+        <v>196</v>
+      </c>
+      <c r="F189" t="s">
+        <v>258</v>
+      </c>
+      <c r="G189" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G77 A115:G158 A79:G81 A88:G94 A163:G1048576">
-    <cfRule type="expression" dxfId="65" priority="119">
+  <conditionalFormatting sqref="A115:G158 A79:G81 A88:G94 A1:G77 A163:G187 A189:G1048576 A188:C188 E188:G188">
+    <cfRule type="expression" dxfId="67" priority="121">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="120">
+    <cfRule type="expression" dxfId="66" priority="122">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:G93">
-    <cfRule type="expression" dxfId="63" priority="57">
+    <cfRule type="expression" dxfId="65" priority="59">
       <formula>$A88="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="58">
+    <cfRule type="expression" dxfId="64" priority="60">
       <formula>$A88="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="expression" dxfId="61" priority="55">
+    <cfRule type="expression" dxfId="63" priority="57">
       <formula>$A157="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="56">
+    <cfRule type="expression" dxfId="62" priority="58">
       <formula>$A157="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:G114 A97:G97 A105:D110 F105:G110 A112:C113 E112:G113 A104:G104 A102:C103 E102:G103 A98:D101 F98:G101 A95:D95 F95:G95 A96:C96 E96:G96">
-    <cfRule type="expression" dxfId="59" priority="51">
+    <cfRule type="expression" dxfId="61" priority="53">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="52">
+    <cfRule type="expression" dxfId="60" priority="54">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:G114 A97:G97 A105:D110 F105:G110 A112:C113 E112:G113 A104:G104 A102:C103 E102:G103 A98:D101 F98:G101 A95:D95 F95:G95 A96:C96 E96:G96">
-    <cfRule type="expression" dxfId="57" priority="53">
+    <cfRule type="expression" dxfId="59" priority="55">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="54">
+    <cfRule type="expression" dxfId="58" priority="56">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:C111 E111:G111">
-    <cfRule type="expression" dxfId="55" priority="47">
+    <cfRule type="expression" dxfId="57" priority="49">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="48">
+    <cfRule type="expression" dxfId="56" priority="50">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:C111 E111:G111">
-    <cfRule type="expression" dxfId="53" priority="49">
+    <cfRule type="expression" dxfId="55" priority="51">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="50">
+    <cfRule type="expression" dxfId="54" priority="52">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:G162">
-    <cfRule type="expression" dxfId="51" priority="45">
+    <cfRule type="expression" dxfId="53" priority="47">
       <formula>$A159="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="46">
+    <cfRule type="expression" dxfId="52" priority="48">
       <formula>$A159="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="49" priority="43">
+    <cfRule type="expression" dxfId="51" priority="45">
       <formula>$A105="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="44">
+    <cfRule type="expression" dxfId="50" priority="46">
       <formula>$A105="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="47" priority="41">
+    <cfRule type="expression" dxfId="49" priority="43">
       <formula>$A106="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="48" priority="44">
       <formula>$A106="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="45" priority="39">
+    <cfRule type="expression" dxfId="47" priority="41">
       <formula>$A107="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="40">
+    <cfRule type="expression" dxfId="46" priority="42">
       <formula>$A107="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="45" priority="39">
       <formula>$A108="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="44" priority="40">
       <formula>$A108="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="expression" dxfId="41" priority="35">
+    <cfRule type="expression" dxfId="43" priority="37">
       <formula>$A109="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="42" priority="38">
       <formula>$A109="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="41" priority="35">
       <formula>$A110="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="40" priority="36">
       <formula>$A110="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111">
-    <cfRule type="expression" dxfId="37" priority="31">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="37" priority="31">
       <formula>$A112="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="36" priority="32">
       <formula>$A112="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D113">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="35" priority="29">
       <formula>$A113="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="34" priority="30">
       <formula>$A113="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="33" priority="27">
       <formula>$A103="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>$A103="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="29" priority="23">
       <formula>$A101="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>$A101="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>$A100="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>$A100="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>$A99="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>$A99="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>$A98="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>$A98="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>$A96="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>$A96="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:G78">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>$A78="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>$A78="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:G83 A86:G87">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$A83="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>$A83="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:G82">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$A82="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$A82="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:G85">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>$A85="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$A85="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:G84">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>$A84="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>$A84="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D188">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$A84="A"</formula>
+      <formula>$A188="A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$A84="Q"</formula>
+      <formula>$A188="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4007,27 +4119,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$A1="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$A1="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -4035,7 +4237,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>52</v>
       </c>
@@ -4043,27 +4245,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>58</v>
       </c>
@@ -4077,7 +4279,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>59</v>
       </c>
@@ -4091,7 +4293,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>60</v>
       </c>
@@ -4105,7 +4307,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>61</v>
       </c>
@@ -4113,13 +4315,13 @@
         <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>62</v>
       </c>
@@ -4127,12 +4329,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>69</v>
       </c>
@@ -4140,7 +4342,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>71</v>
       </c>
@@ -4148,7 +4350,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>85</v>
       </c>
@@ -4156,87 +4358,87 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
         <v>112</v>
       </c>
-      <c r="C20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>122</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>124</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>126</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>128</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" t="s">
         <v>213</v>
-      </c>
-      <c r="C35" t="s">
-        <v>214</v>
-      </c>
-      <c r="D35" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F28">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\EmeraldAI\EmeraldAI\Data\TrainingData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="315" windowWidth="25860" windowHeight="16665"/>
+    <workbookView xWindow="2040" yWindow="320" windowWidth="25860" windowHeight="16660"/>
   </bookViews>
   <sheets>
     <sheet name="Sentence" sheetId="1" r:id="rId1"/>
@@ -18,11 +13,11 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -454,9 +449,6 @@
     <t>Hey</t>
   </si>
   <si>
-    <t>Wie geht’s?</t>
-  </si>
-  <si>
     <t>Hilfe</t>
   </si>
   <si>
@@ -496,9 +488,6 @@
     <t>Bist du eine Mädchen</t>
   </si>
   <si>
-    <t>Wie geht’s dir?</t>
-  </si>
-  <si>
     <t>Was magst du?</t>
   </si>
   <si>
@@ -809,6 +798,12 @@
   </si>
   <si>
     <t>Höre für {number} Minuten weg.</t>
+  </si>
+  <si>
+    <t>Wie gehts dir?</t>
+  </si>
+  <si>
+    <t>Wie gehts?</t>
   </si>
 </sst>
 </file>
@@ -925,32 +920,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="53">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -979,217 +974,7 @@
     <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="66">
     <dxf>
       <fill>
         <patternFill>
@@ -1920,7 +1705,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1930,22 +1715,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1965,10 +1750,10 @@
         <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1979,7 +1764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +1775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2001,7 +1786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2012,7 +1797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2023,7 +1808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2034,7 +1819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2045,7 +1830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2056,7 +1841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2067,18 +1852,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2089,7 +1874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2100,7 +1885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2114,7 +1899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2125,7 +1910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2142,7 +1927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2159,7 +1944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2173,7 +1958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2187,7 +1972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2204,7 +1989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2221,7 +2006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2238,7 +2023,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2255,7 +2040,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2272,7 +2057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2286,7 +2071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2297,7 +2082,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2308,12 +2093,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
@@ -2325,7 +2110,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2336,7 +2121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2347,7 +2132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2358,7 +2143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2369,7 +2154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2380,18 +2165,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2402,7 +2187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2413,7 +2198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2427,7 +2212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2438,7 +2223,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2449,7 +2234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2460,7 +2245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2471,7 +2256,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2482,7 +2267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2499,7 +2284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2510,7 +2295,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2521,7 +2306,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2532,7 +2317,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2540,7 +2325,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2551,10 +2336,10 @@
         <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2565,10 +2350,10 @@
         <v>96</v>
       </c>
       <c r="F54" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2579,7 +2364,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2590,7 +2375,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2601,7 +2386,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2612,7 +2397,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2623,7 +2408,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -2634,7 +2419,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -2645,7 +2430,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2659,10 +2444,10 @@
         <v>103</v>
       </c>
       <c r="F63" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2676,10 +2461,10 @@
         <v>103</v>
       </c>
       <c r="F64" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2693,32 +2478,32 @@
         <v>103</v>
       </c>
       <c r="F65" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>259</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
       <c r="E68" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2729,7 +2514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2740,7 +2525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2751,7 +2536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2765,7 +2550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2779,7 +2564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -2790,7 +2575,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2801,18 +2586,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E77" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2823,7 +2608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2834,7 +2619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2848,59 +2633,59 @@
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E82" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E83" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E84" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E85" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C86" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D86" t="s">
         <v>32</v>
@@ -2909,288 +2694,288 @@
         <v>122</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>5</v>
       </c>
       <c r="C88" t="s">
+        <v>141</v>
+      </c>
+      <c r="E88" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
         <v>142</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>143</v>
+      </c>
+      <c r="E90" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" t="s">
-        <v>143</v>
-      </c>
-      <c r="E89" t="s">
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" t="s">
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>191</v>
+      </c>
+      <c r="D93" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
         <v>144</v>
       </c>
-      <c r="E90" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" t="s">
-        <v>190</v>
-      </c>
-      <c r="D91" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" t="s">
-        <v>192</v>
-      </c>
-      <c r="D92" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" t="s">
-        <v>193</v>
-      </c>
-      <c r="D93" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="E95" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>213</v>
+      </c>
+      <c r="D96" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>214</v>
+      </c>
+      <c r="E98" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>215</v>
+      </c>
+      <c r="E99" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>216</v>
+      </c>
+      <c r="E100" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>217</v>
+      </c>
+      <c r="E101" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>218</v>
+      </c>
+      <c r="D102" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>219</v>
+      </c>
+      <c r="D103" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
         <v>145</v>
       </c>
-      <c r="E95" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" t="s">
-        <v>215</v>
-      </c>
-      <c r="D96" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" t="s">
-        <v>216</v>
-      </c>
-      <c r="E98" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" t="s">
-        <v>217</v>
-      </c>
-      <c r="E99" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" t="s">
-        <v>218</v>
-      </c>
-      <c r="E100" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" t="s">
-        <v>219</v>
-      </c>
-      <c r="E101" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="E105" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>146</v>
+      </c>
+      <c r="E106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>152</v>
+      </c>
+      <c r="E107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>153</v>
+      </c>
+      <c r="E108" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
         <v>220</v>
       </c>
-      <c r="D102" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="E110" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
         <v>221</v>
       </c>
-      <c r="D103" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" t="s">
-        <v>146</v>
-      </c>
-      <c r="E105" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" t="s">
-        <v>147</v>
-      </c>
-      <c r="E106" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" t="s">
-        <v>153</v>
-      </c>
-      <c r="E107" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" t="s">
-        <v>154</v>
-      </c>
-      <c r="E108" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="C111" t="s">
+        <v>222</v>
+      </c>
+      <c r="D111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112" t="s">
+        <v>224</v>
+      </c>
+      <c r="D112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>225</v>
+      </c>
+      <c r="D113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
         <v>148</v>
       </c>
-      <c r="E109" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" t="s">
-        <v>222</v>
-      </c>
-      <c r="E110" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" t="s">
-        <v>223</v>
-      </c>
-      <c r="C111" t="s">
-        <v>224</v>
-      </c>
-      <c r="D111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" t="s">
-        <v>225</v>
-      </c>
-      <c r="C112" t="s">
-        <v>226</v>
-      </c>
-      <c r="D112" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" t="s">
-        <v>227</v>
-      </c>
-      <c r="D113" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="E115" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
         <v>149</v>
       </c>
-      <c r="E115" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" t="s">
-        <v>150</v>
-      </c>
       <c r="E116" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -3198,462 +2983,462 @@
         <v>139</v>
       </c>
       <c r="D117" t="s">
+        <v>156</v>
+      </c>
+      <c r="F117" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>182</v>
+      </c>
+      <c r="E119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>181</v>
+      </c>
+      <c r="E120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>183</v>
+      </c>
+      <c r="E121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>184</v>
+      </c>
+      <c r="D122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>185</v>
+      </c>
+      <c r="D123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>177</v>
+      </c>
+      <c r="E125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>178</v>
+      </c>
+      <c r="E126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>179</v>
+      </c>
+      <c r="D127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>180</v>
+      </c>
+      <c r="D128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>168</v>
+      </c>
+      <c r="E130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>169</v>
+      </c>
+      <c r="E131" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>172</v>
+      </c>
+      <c r="D132" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>174</v>
+      </c>
+      <c r="D133" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>170</v>
+      </c>
+      <c r="E135" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>171</v>
+      </c>
+      <c r="E136" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>175</v>
+      </c>
+      <c r="D137" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>176</v>
+      </c>
+      <c r="D138" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
         <v>158</v>
       </c>
-      <c r="F117" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" t="s">
-        <v>184</v>
-      </c>
-      <c r="E119" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" t="s">
-        <v>183</v>
-      </c>
-      <c r="E120" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" t="s">
-        <v>185</v>
-      </c>
-      <c r="E121" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" t="s">
-        <v>186</v>
-      </c>
-      <c r="D122" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" t="s">
-        <v>187</v>
-      </c>
-      <c r="D123" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" t="s">
-        <v>179</v>
-      </c>
-      <c r="E125" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" t="s">
-        <v>180</v>
-      </c>
-      <c r="E126" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" t="s">
-        <v>181</v>
-      </c>
-      <c r="D127" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" t="s">
-        <v>182</v>
-      </c>
-      <c r="D128" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130" t="s">
-        <v>170</v>
-      </c>
-      <c r="E130" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131" t="s">
-        <v>171</v>
-      </c>
-      <c r="E131" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" t="s">
-        <v>174</v>
-      </c>
-      <c r="D132" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" t="s">
-        <v>176</v>
-      </c>
-      <c r="D133" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" t="s">
-        <v>172</v>
-      </c>
-      <c r="E135" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="E140" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>159</v>
+      </c>
+      <c r="E141" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>160</v>
+      </c>
+      <c r="E142" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>165</v>
+      </c>
+      <c r="D143" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>166</v>
+      </c>
+      <c r="D144" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>161</v>
+      </c>
+      <c r="E146" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>162</v>
+      </c>
+      <c r="E147" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>163</v>
+      </c>
+      <c r="E148" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>164</v>
+      </c>
+      <c r="D149" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>167</v>
+      </c>
+      <c r="D150" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>154</v>
+      </c>
+      <c r="E152" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>155</v>
+      </c>
+      <c r="E153" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>157</v>
+      </c>
+      <c r="D154" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
         <v>173</v>
       </c>
-      <c r="E136" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" t="s">
-        <v>177</v>
-      </c>
-      <c r="D137" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" t="s">
-        <v>178</v>
-      </c>
-      <c r="D138" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C140" t="s">
-        <v>160</v>
-      </c>
-      <c r="E140" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C141" t="s">
-        <v>161</v>
-      </c>
-      <c r="E141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C142" t="s">
-        <v>162</v>
-      </c>
-      <c r="E142" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" t="s">
-        <v>167</v>
-      </c>
-      <c r="D143" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" t="s">
-        <v>168</v>
-      </c>
-      <c r="D144" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C146" t="s">
-        <v>163</v>
-      </c>
-      <c r="E146" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" t="s">
-        <v>164</v>
-      </c>
-      <c r="E147" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C148" t="s">
-        <v>165</v>
-      </c>
-      <c r="E148" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" t="s">
-        <v>166</v>
-      </c>
-      <c r="D149" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" t="s">
-        <v>169</v>
-      </c>
-      <c r="D150" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" t="s">
-        <v>156</v>
-      </c>
-      <c r="E152" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" t="s">
-        <v>157</v>
-      </c>
-      <c r="E153" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" t="s">
-        <v>159</v>
-      </c>
-      <c r="D154" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" t="s">
-        <v>175</v>
-      </c>
       <c r="D155" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>5</v>
       </c>
       <c r="C157" t="s">
+        <v>206</v>
+      </c>
+      <c r="E157" t="s">
         <v>208</v>
       </c>
-      <c r="E157" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>8</v>
       </c>
       <c r="C158" t="s">
+        <v>205</v>
+      </c>
+      <c r="D158" t="s">
+        <v>208</v>
+      </c>
+      <c r="G158" t="s">
         <v>207</v>
       </c>
-      <c r="D158" t="s">
-        <v>210</v>
-      </c>
-      <c r="G158" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="s">
+        <v>226</v>
+      </c>
+      <c r="E160" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>227</v>
+      </c>
+      <c r="D161" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
         <v>228</v>
       </c>
-      <c r="E160" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" t="s">
-        <v>229</v>
-      </c>
-      <c r="D161" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" t="s">
-        <v>230</v>
-      </c>
       <c r="D162" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
+        <v>192</v>
+      </c>
+      <c r="E164" t="s">
         <v>194</v>
       </c>
-      <c r="E164" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D165" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G165" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D166" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G166" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E168" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -3661,46 +3446,46 @@
         <v>73</v>
       </c>
       <c r="C169" t="s">
+        <v>195</v>
+      </c>
+      <c r="D169" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>196</v>
+      </c>
+      <c r="D170" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
         <v>197</v>
       </c>
-      <c r="D169" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" t="s">
-        <v>198</v>
-      </c>
-      <c r="D170" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" t="s">
-        <v>199</v>
-      </c>
       <c r="D171" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E173" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -3708,13 +3493,13 @@
         <v>73</v>
       </c>
       <c r="C174" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D174" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -3722,393 +3507,392 @@
         <v>73</v>
       </c>
       <c r="C175" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D175" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D176" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>5</v>
       </c>
       <c r="C178" t="s">
+        <v>245</v>
+      </c>
+      <c r="E178" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>246</v>
+      </c>
+      <c r="E179" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
         <v>247</v>
       </c>
-      <c r="E178" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C179" t="s">
-        <v>248</v>
-      </c>
-      <c r="E179" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C180" t="s">
-        <v>249</v>
-      </c>
       <c r="E180" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>8</v>
       </c>
       <c r="D181" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F181" t="s">
+        <v>250</v>
+      </c>
+      <c r="G181" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>251</v>
+      </c>
+      <c r="E183" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
         <v>252</v>
       </c>
-      <c r="G181" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="E184" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" t="s">
+        <v>194</v>
+      </c>
+      <c r="F185" t="s">
         <v>253</v>
       </c>
-      <c r="E183" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="G185" t="s">
         <v>254</v>
       </c>
-      <c r="E184" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" t="s">
-        <v>196</v>
-      </c>
-      <c r="F185" t="s">
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
         <v>255</v>
       </c>
-      <c r="G185" t="s">
+      <c r="E187" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>257</v>
+      </c>
+      <c r="E188" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" t="s">
+        <v>194</v>
+      </c>
+      <c r="F189" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C187" t="s">
-        <v>257</v>
-      </c>
-      <c r="E187" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C188" t="s">
-        <v>259</v>
-      </c>
-      <c r="E188" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>8</v>
-      </c>
-      <c r="D189" t="s">
-        <v>196</v>
-      </c>
-      <c r="F189" t="s">
-        <v>258</v>
-      </c>
       <c r="G189" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A115:G158 A79:G81 A88:G94 A1:G77 A163:G187 A189:G1048576 A188:C188 E188:G188">
-    <cfRule type="expression" dxfId="67" priority="121">
+    <cfRule type="expression" dxfId="65" priority="121">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="122">
+    <cfRule type="expression" dxfId="64" priority="122">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:G93">
-    <cfRule type="expression" dxfId="65" priority="59">
+    <cfRule type="expression" dxfId="63" priority="59">
       <formula>$A88="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="60">
+    <cfRule type="expression" dxfId="62" priority="60">
       <formula>$A88="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="expression" dxfId="63" priority="57">
+    <cfRule type="expression" dxfId="61" priority="57">
       <formula>$A157="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="58">
+    <cfRule type="expression" dxfId="60" priority="58">
       <formula>$A157="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:G114 A97:G97 A105:D110 F105:G110 A112:C113 E112:G113 A104:G104 A102:C103 E102:G103 A98:D101 F98:G101 A95:D95 F95:G95 A96:C96 E96:G96">
-    <cfRule type="expression" dxfId="61" priority="53">
+    <cfRule type="expression" dxfId="59" priority="53">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="54">
+    <cfRule type="expression" dxfId="58" priority="54">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:G114 A97:G97 A105:D110 F105:G110 A112:C113 E112:G113 A104:G104 A102:C103 E102:G103 A98:D101 F98:G101 A95:D95 F95:G95 A96:C96 E96:G96">
-    <cfRule type="expression" dxfId="59" priority="55">
+    <cfRule type="expression" dxfId="57" priority="55">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="56">
+    <cfRule type="expression" dxfId="56" priority="56">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:C111 E111:G111">
-    <cfRule type="expression" dxfId="57" priority="49">
+    <cfRule type="expression" dxfId="55" priority="49">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="50">
+    <cfRule type="expression" dxfId="54" priority="50">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:C111 E111:G111">
-    <cfRule type="expression" dxfId="55" priority="51">
+    <cfRule type="expression" dxfId="53" priority="51">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="52">
+    <cfRule type="expression" dxfId="52" priority="52">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:G162">
-    <cfRule type="expression" dxfId="53" priority="47">
+    <cfRule type="expression" dxfId="51" priority="47">
       <formula>$A159="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="48">
+    <cfRule type="expression" dxfId="50" priority="48">
       <formula>$A159="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="51" priority="45">
+    <cfRule type="expression" dxfId="49" priority="45">
       <formula>$A105="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="46">
+    <cfRule type="expression" dxfId="48" priority="46">
       <formula>$A105="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="49" priority="43">
+    <cfRule type="expression" dxfId="47" priority="43">
       <formula>$A106="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="44">
+    <cfRule type="expression" dxfId="46" priority="44">
       <formula>$A106="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="47" priority="41">
+    <cfRule type="expression" dxfId="45" priority="41">
       <formula>$A107="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="44" priority="42">
       <formula>$A107="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="expression" dxfId="45" priority="39">
+    <cfRule type="expression" dxfId="43" priority="39">
       <formula>$A108="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="40">
+    <cfRule type="expression" dxfId="42" priority="40">
       <formula>$A108="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="41" priority="37">
       <formula>$A109="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="40" priority="38">
       <formula>$A109="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="expression" dxfId="41" priority="35">
+    <cfRule type="expression" dxfId="39" priority="35">
       <formula>$A110="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="38" priority="36">
       <formula>$A110="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="37" priority="33">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="36" priority="34">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112">
-    <cfRule type="expression" dxfId="37" priority="31">
+    <cfRule type="expression" dxfId="35" priority="31">
       <formula>$A112="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="34" priority="32">
       <formula>$A112="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D113">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="33" priority="29">
       <formula>$A113="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="32" priority="30">
       <formula>$A113="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="31" priority="27">
       <formula>$A103="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="30" priority="28">
       <formula>$A103="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="29" priority="25">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="28" priority="26">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="27" priority="23">
       <formula>$A101="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="26" priority="24">
       <formula>$A101="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="25" priority="21">
       <formula>$A100="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>$A100="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>$A99="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>$A99="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="21" priority="17">
       <formula>$A98="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="20" priority="18">
       <formula>$A98="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="18" priority="16">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>$A96="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>$A96="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:G78">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>$A78="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>$A78="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:G83 A86:G87">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>$A83="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>$A83="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:G82">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>$A82="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>$A82="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:G85">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$A85="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$A85="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:G84">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$A84="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$A84="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D188">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$A188="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$A188="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4125,85 +3909,90 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>120</v>
       </c>
       <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" t="s">
         <v>211</v>
       </c>
-      <c r="C2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4215,21 +4004,21 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -4237,7 +4026,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>52</v>
       </c>
@@ -4245,27 +4034,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="C5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="C6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="C7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>58</v>
       </c>
@@ -4279,7 +4068,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>59</v>
       </c>
@@ -4293,7 +4082,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>60</v>
       </c>
@@ -4307,7 +4096,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>61</v>
       </c>
@@ -4321,7 +4110,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>62</v>
       </c>
@@ -4329,12 +4118,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="B17" t="s">
         <v>69</v>
       </c>
@@ -4342,7 +4131,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="B18" t="s">
         <v>71</v>
       </c>
@@ -4350,7 +4139,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="B19" t="s">
         <v>85</v>
       </c>
@@ -4358,7 +4147,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="B20" t="s">
         <v>110</v>
       </c>
@@ -4366,7 +4155,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="B21" t="s">
         <v>109</v>
       </c>
@@ -4374,12 +4163,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24" t="s">
         <v>120</v>
       </c>
@@ -4387,7 +4176,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="B25" t="s">
         <v>122</v>
       </c>
@@ -4395,7 +4184,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="B26" t="s">
         <v>124</v>
       </c>
@@ -4403,7 +4192,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="B27" t="s">
         <v>126</v>
       </c>
@@ -4411,7 +4200,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="B28" t="s">
         <v>128</v>
       </c>
@@ -4419,26 +4208,26 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>120</v>
       </c>
       <c r="B35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" t="s">
         <v>211</v>
-      </c>
-      <c r="C35" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F28">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -368,18 +368,9 @@
     <t>Meine Batterie ist bei {botbattery}.</t>
   </si>
   <si>
-    <t>Meine Batterie ist bei {botbattery}. Folgende Einträge stind im Status Log: {botstatus}</t>
-  </si>
-  <si>
-    <t>Meine Batterie ist bei {botbattery}. Folgender Eintrag ist im Status Log: {botstatus}</t>
-  </si>
-  <si>
     <t>Weekend|Question</t>
   </si>
   <si>
-    <t>UserType:Admin|BotStatus:eq1</t>
-  </si>
-  <si>
     <t>UserType:Admin|BotStatus:gt1</t>
   </si>
   <si>
@@ -804,6 +795,15 @@
   </si>
   <si>
     <t>Wie gehts?</t>
+  </si>
+  <si>
+    <t>UserType:Admin|BotLog:gt1</t>
+  </si>
+  <si>
+    <t>Meine Batterie ist bei {botbattery}. Folgende Einträge sind im Status Log: {botlog}</t>
+  </si>
+  <si>
+    <t>Meine Batterie ist bei {botbattery}. Mein Status ist: {botstatus}</t>
   </si>
 </sst>
 </file>
@@ -860,8 +860,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -919,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="55">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -946,6 +948,7 @@
     <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -972,9 +975,24 @@
     <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="68">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1715,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1747,10 +1765,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1846,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -1857,7 +1875,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -2020,7 +2038,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2037,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2098,7 +2116,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
@@ -2170,7 +2188,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -2330,13 +2348,13 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
         <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2344,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
         <v>96</v>
       </c>
       <c r="F54" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2435,7 +2453,7 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
         <v>97</v>
@@ -2444,7 +2462,7 @@
         <v>103</v>
       </c>
       <c r="F63" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2452,7 +2470,7 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
         <v>99</v>
@@ -2461,7 +2479,7 @@
         <v>103</v>
       </c>
       <c r="F64" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2469,7 +2487,7 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
         <v>98</v>
@@ -2478,7 +2496,7 @@
         <v>103</v>
       </c>
       <c r="F65" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2486,7 +2504,7 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
@@ -2497,7 +2515,7 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E68" t="s">
         <v>21</v>
@@ -2541,10 +2559,10 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
@@ -2555,10 +2573,10 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
+        <v>259</v>
       </c>
       <c r="D73" t="s">
         <v>21</v>
@@ -2569,7 +2587,7 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E75" t="s">
         <v>32</v>
@@ -2580,7 +2598,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E76" t="s">
         <v>32</v>
@@ -2591,7 +2609,7 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E77" t="s">
         <v>32</v>
@@ -2602,7 +2620,7 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E78" t="s">
         <v>32</v>
@@ -2613,7 +2631,7 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E79" t="s">
         <v>32</v>
@@ -2624,13 +2642,13 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D80" t="s">
         <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2638,7 +2656,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E82" t="s">
         <v>32</v>
@@ -2649,7 +2667,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E83" t="s">
         <v>32</v>
@@ -2660,7 +2678,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E84" t="s">
         <v>32</v>
@@ -2671,7 +2689,7 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E85" t="s">
         <v>32</v>
@@ -2682,16 +2700,16 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C86" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D86" t="s">
         <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2699,10 +2717,10 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E88" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2710,10 +2728,10 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E89" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2721,10 +2739,10 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E90" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2732,10 +2750,10 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D91" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2743,10 +2761,10 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D92" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2754,10 +2772,10 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D93" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2765,10 +2783,10 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E95" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2776,10 +2794,10 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2787,10 +2805,10 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E98" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2798,10 +2816,10 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E99" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2809,10 +2827,10 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2820,10 +2838,10 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E101" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2831,10 +2849,10 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D102" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2842,10 +2860,10 @@
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D103" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2853,10 +2871,10 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E105" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2864,10 +2882,10 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E106" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2875,10 +2893,10 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E107" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2886,10 +2904,10 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E108" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2897,10 +2915,10 @@
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E109" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2908,10 +2926,10 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E110" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2919,13 +2937,13 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C111" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D111" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2933,13 +2951,13 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C112" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D112" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2947,10 +2965,10 @@
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D113" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2958,10 +2976,10 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E115" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2969,10 +2987,10 @@
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E116" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2980,13 +2998,13 @@
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D117" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F117" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2994,10 +3012,10 @@
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E119" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3005,10 +3023,10 @@
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E120" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3016,10 +3034,10 @@
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E121" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3027,10 +3045,10 @@
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D122" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3038,10 +3056,10 @@
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D123" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3049,10 +3067,10 @@
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E125" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3060,10 +3078,10 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E126" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3071,10 +3089,10 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D127" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3082,10 +3100,10 @@
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D128" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3093,10 +3111,10 @@
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E130" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3104,10 +3122,10 @@
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E131" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3115,10 +3133,10 @@
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D132" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3126,10 +3144,10 @@
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D133" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3137,10 +3155,10 @@
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E135" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3148,10 +3166,10 @@
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E136" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3159,10 +3177,10 @@
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D137" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3170,10 +3188,10 @@
         <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D138" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3181,10 +3199,10 @@
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E140" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3192,10 +3210,10 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E141" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3203,10 +3221,10 @@
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E142" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3214,10 +3232,10 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D143" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3225,10 +3243,10 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D144" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3236,10 +3254,10 @@
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E146" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3247,10 +3265,10 @@
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E147" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3258,10 +3276,10 @@
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E148" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3269,10 +3287,10 @@
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D149" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3280,10 +3298,10 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D150" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3291,10 +3309,10 @@
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3302,10 +3320,10 @@
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3313,10 +3331,10 @@
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D154" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3324,10 +3342,10 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D155" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3335,10 +3353,10 @@
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E157" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -3346,13 +3364,13 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
+        <v>202</v>
+      </c>
+      <c r="D158" t="s">
         <v>205</v>
       </c>
-      <c r="D158" t="s">
-        <v>208</v>
-      </c>
       <c r="G158" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -3360,10 +3378,10 @@
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E160" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -3371,10 +3389,10 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D161" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3382,10 +3400,10 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D162" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -3393,10 +3411,10 @@
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E164" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3404,13 +3422,13 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D165" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G165" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -3418,13 +3436,13 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D166" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G166" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -3432,10 +3450,10 @@
         <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E168" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -3446,10 +3464,10 @@
         <v>73</v>
       </c>
       <c r="C169" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D169" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -3457,10 +3475,10 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D170" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -3468,10 +3486,10 @@
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D171" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -3479,10 +3497,10 @@
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E173" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -3493,10 +3511,10 @@
         <v>73</v>
       </c>
       <c r="C174" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D174" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -3507,10 +3525,10 @@
         <v>73</v>
       </c>
       <c r="C175" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D175" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -3518,10 +3536,10 @@
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D176" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -3529,10 +3547,10 @@
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E178" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -3540,10 +3558,10 @@
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E179" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -3551,10 +3569,10 @@
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E180" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -3562,13 +3580,13 @@
         <v>8</v>
       </c>
       <c r="D181" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F181" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G181" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -3576,10 +3594,10 @@
         <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E183" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -3587,10 +3605,10 @@
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E184" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -3598,13 +3616,13 @@
         <v>8</v>
       </c>
       <c r="D185" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F185" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G185" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -3612,10 +3630,10 @@
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E187" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -3623,10 +3641,10 @@
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E188" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -3634,265 +3652,266 @@
         <v>8</v>
       </c>
       <c r="D189" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F189" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G189" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A115:G158 A79:G81 A88:G94 A1:G77 A163:G187 A189:G1048576 A188:C188 E188:G188">
-    <cfRule type="expression" dxfId="65" priority="121">
+  <conditionalFormatting sqref="A115:G158 A79:G81 A88:G94 A163:G187 A189:G1048576 A188:C188 E188:G188 A1:G77">
+    <cfRule type="expression" dxfId="67" priority="121">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="122">
+    <cfRule type="expression" dxfId="66" priority="122">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:G93">
-    <cfRule type="expression" dxfId="63" priority="59">
+    <cfRule type="expression" dxfId="65" priority="59">
       <formula>$A88="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="60">
+    <cfRule type="expression" dxfId="64" priority="60">
       <formula>$A88="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="expression" dxfId="61" priority="57">
+    <cfRule type="expression" dxfId="63" priority="57">
       <formula>$A157="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="58">
+    <cfRule type="expression" dxfId="62" priority="58">
       <formula>$A157="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:G114 A97:G97 A105:D110 F105:G110 A112:C113 E112:G113 A104:G104 A102:C103 E102:G103 A98:D101 F98:G101 A95:D95 F95:G95 A96:C96 E96:G96">
-    <cfRule type="expression" dxfId="59" priority="53">
+    <cfRule type="expression" dxfId="61" priority="53">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="54">
+    <cfRule type="expression" dxfId="60" priority="54">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:G114 A97:G97 A105:D110 F105:G110 A112:C113 E112:G113 A104:G104 A102:C103 E102:G103 A98:D101 F98:G101 A95:D95 F95:G95 A96:C96 E96:G96">
-    <cfRule type="expression" dxfId="57" priority="55">
+    <cfRule type="expression" dxfId="59" priority="55">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="56">
+    <cfRule type="expression" dxfId="58" priority="56">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:C111 E111:G111">
-    <cfRule type="expression" dxfId="55" priority="49">
+    <cfRule type="expression" dxfId="57" priority="49">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="50">
+    <cfRule type="expression" dxfId="56" priority="50">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:C111 E111:G111">
-    <cfRule type="expression" dxfId="53" priority="51">
+    <cfRule type="expression" dxfId="55" priority="51">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="54" priority="52">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:G162">
-    <cfRule type="expression" dxfId="51" priority="47">
+    <cfRule type="expression" dxfId="53" priority="47">
       <formula>$A159="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="48">
+    <cfRule type="expression" dxfId="52" priority="48">
       <formula>$A159="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="49" priority="45">
+    <cfRule type="expression" dxfId="51" priority="45">
       <formula>$A105="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="46">
+    <cfRule type="expression" dxfId="50" priority="46">
       <formula>$A105="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="47" priority="43">
+    <cfRule type="expression" dxfId="49" priority="43">
       <formula>$A106="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="44">
+    <cfRule type="expression" dxfId="48" priority="44">
       <formula>$A106="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="45" priority="41">
+    <cfRule type="expression" dxfId="47" priority="41">
       <formula>$A107="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="42">
+    <cfRule type="expression" dxfId="46" priority="42">
       <formula>$A107="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="expression" dxfId="43" priority="39">
+    <cfRule type="expression" dxfId="45" priority="39">
       <formula>$A108="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40">
+    <cfRule type="expression" dxfId="44" priority="40">
       <formula>$A108="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="expression" dxfId="41" priority="37">
+    <cfRule type="expression" dxfId="43" priority="37">
       <formula>$A109="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38">
+    <cfRule type="expression" dxfId="42" priority="38">
       <formula>$A109="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="expression" dxfId="39" priority="35">
+    <cfRule type="expression" dxfId="41" priority="35">
       <formula>$A110="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="36">
+    <cfRule type="expression" dxfId="40" priority="36">
       <formula>$A110="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111">
-    <cfRule type="expression" dxfId="37" priority="33">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="34">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112">
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="37" priority="31">
       <formula>$A112="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="32">
+    <cfRule type="expression" dxfId="36" priority="32">
       <formula>$A112="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D113">
-    <cfRule type="expression" dxfId="33" priority="29">
+    <cfRule type="expression" dxfId="35" priority="29">
       <formula>$A113="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="30">
+    <cfRule type="expression" dxfId="34" priority="30">
       <formula>$A113="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="31" priority="27">
+    <cfRule type="expression" dxfId="33" priority="27">
       <formula>$A103="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="28">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>$A103="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="expression" dxfId="29" priority="25">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="27" priority="23">
+    <cfRule type="expression" dxfId="29" priority="23">
       <formula>$A101="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="24">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>$A101="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="expression" dxfId="25" priority="21">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>$A100="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>$A100="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="23" priority="19">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>$A99="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>$A99="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="21" priority="17">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>$A98="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="18">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>$A98="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="19" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>$A96="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>$A96="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:G78">
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>$A78="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>$A78="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:G83 A86:G87">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$A83="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>$A83="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:G82">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$A82="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$A82="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:G85">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>$A85="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$A85="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:G84">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$A84="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$A84="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D188">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$A188="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$A188="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3922,68 +3941,68 @@
         <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4104,7 +4123,7 @@
         <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
         <v>94</v>
@@ -4165,69 +4184,69 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F28">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="320" windowWidth="25860" windowHeight="16660"/>
+    <workbookView xWindow="2040" yWindow="320" windowWidth="25860" windowHeight="16660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sentence" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="261">
   <si>
     <t>Requirement</t>
   </si>
@@ -804,6 +804,9 @@
   </si>
   <si>
     <t>Meine Batterie ist bei {botbattery}. Mein Status ist: {botstatus}</t>
+  </si>
+  <si>
+    <t>ErrorResponse</t>
   </si>
 </sst>
 </file>
@@ -978,7 +981,21 @@
     <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="70">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1733,7 +1750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
@@ -3663,250 +3680,250 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A115:G158 A79:G81 A88:G94 A163:G187 A189:G1048576 A188:C188 E188:G188 A1:G77">
-    <cfRule type="expression" dxfId="67" priority="121">
+    <cfRule type="expression" dxfId="69" priority="121">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="122">
+    <cfRule type="expression" dxfId="68" priority="122">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:G93">
-    <cfRule type="expression" dxfId="65" priority="59">
+    <cfRule type="expression" dxfId="67" priority="59">
       <formula>$A88="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="60">
+    <cfRule type="expression" dxfId="66" priority="60">
       <formula>$A88="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="expression" dxfId="63" priority="57">
+    <cfRule type="expression" dxfId="65" priority="57">
       <formula>$A157="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="58">
+    <cfRule type="expression" dxfId="64" priority="58">
       <formula>$A157="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:G114 A97:G97 A105:D110 F105:G110 A112:C113 E112:G113 A104:G104 A102:C103 E102:G103 A98:D101 F98:G101 A95:D95 F95:G95 A96:C96 E96:G96">
-    <cfRule type="expression" dxfId="61" priority="53">
+    <cfRule type="expression" dxfId="63" priority="53">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="54">
+    <cfRule type="expression" dxfId="62" priority="54">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:G114 A97:G97 A105:D110 F105:G110 A112:C113 E112:G113 A104:G104 A102:C103 E102:G103 A98:D101 F98:G101 A95:D95 F95:G95 A96:C96 E96:G96">
-    <cfRule type="expression" dxfId="59" priority="55">
+    <cfRule type="expression" dxfId="61" priority="55">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="56">
+    <cfRule type="expression" dxfId="60" priority="56">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:C111 E111:G111">
-    <cfRule type="expression" dxfId="57" priority="49">
+    <cfRule type="expression" dxfId="59" priority="49">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="50">
+    <cfRule type="expression" dxfId="58" priority="50">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:C111 E111:G111">
-    <cfRule type="expression" dxfId="55" priority="51">
+    <cfRule type="expression" dxfId="57" priority="51">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="52">
+    <cfRule type="expression" dxfId="56" priority="52">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:G162">
-    <cfRule type="expression" dxfId="53" priority="47">
+    <cfRule type="expression" dxfId="55" priority="47">
       <formula>$A159="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="48">
+    <cfRule type="expression" dxfId="54" priority="48">
       <formula>$A159="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="51" priority="45">
+    <cfRule type="expression" dxfId="53" priority="45">
       <formula>$A105="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="46">
+    <cfRule type="expression" dxfId="52" priority="46">
       <formula>$A105="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="49" priority="43">
+    <cfRule type="expression" dxfId="51" priority="43">
       <formula>$A106="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="44">
+    <cfRule type="expression" dxfId="50" priority="44">
       <formula>$A106="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="47" priority="41">
+    <cfRule type="expression" dxfId="49" priority="41">
       <formula>$A107="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="48" priority="42">
       <formula>$A107="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="expression" dxfId="45" priority="39">
+    <cfRule type="expression" dxfId="47" priority="39">
       <formula>$A108="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="40">
+    <cfRule type="expression" dxfId="46" priority="40">
       <formula>$A108="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="45" priority="37">
       <formula>$A109="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="44" priority="38">
       <formula>$A109="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="expression" dxfId="41" priority="35">
+    <cfRule type="expression" dxfId="43" priority="35">
       <formula>$A110="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="42" priority="36">
       <formula>$A110="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="41" priority="33">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="40" priority="34">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112">
-    <cfRule type="expression" dxfId="37" priority="31">
+    <cfRule type="expression" dxfId="39" priority="31">
       <formula>$A112="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="38" priority="32">
       <formula>$A112="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D113">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="37" priority="29">
       <formula>$A113="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="36" priority="30">
       <formula>$A113="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="35" priority="27">
       <formula>$A103="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="34" priority="28">
       <formula>$A103="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="33" priority="25">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="32" priority="26">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="31" priority="23">
       <formula>$A101="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="30" priority="24">
       <formula>$A101="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="29" priority="21">
       <formula>$A100="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="28" priority="22">
       <formula>$A100="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>$A99="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>$A99="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="25" priority="17">
       <formula>$A98="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>$A98="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="23" priority="15">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="21" priority="13">
       <formula>$A96="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>$A96="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:G78">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>$A78="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>$A78="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:G83 A86:G87">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>$A83="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>$A83="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:G82">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>$A82="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>$A82="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:G85">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$A85="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>$A85="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:G84">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$A84="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>$A84="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D188">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$A188="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$A188="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3922,10 +3939,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3936,7 +3953,7 @@
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
@@ -3949,8 +3966,11 @@
       <c r="D1" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -3964,7 +3984,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>237</v>
       </c>
@@ -3978,7 +3998,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -3992,17 +4012,17 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>183</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="5" priority="1">
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4019,7 +4039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -4243,10 +4263,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F28">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="263">
   <si>
     <t>Requirement</t>
   </si>
@@ -807,6 +807,12 @@
   </si>
   <si>
     <t>ErrorResponse</t>
+  </si>
+  <si>
+    <t>Leider ist mir ein Fehler bei der Verarbeitung der Anfrage unterlaufen.</t>
+  </si>
+  <si>
+    <t>Leider trat ein Fehler während der Berechnung auf.</t>
   </si>
 </sst>
 </file>
@@ -863,8 +869,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -924,7 +936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="61">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -952,6 +964,9 @@
     <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -979,6 +994,9 @@
     <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="70">
@@ -3942,7 +3960,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3983,6 +4001,9 @@
       <c r="D2" t="s">
         <v>208</v>
       </c>
+      <c r="E2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -3997,6 +4018,9 @@
       <c r="D3" t="s">
         <v>238</v>
       </c>
+      <c r="E3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -4010,6 +4034,9 @@
       </c>
       <c r="D4" t="s">
         <v>239</v>
+      </c>
+      <c r="E4" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4027,6 +4054,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="320" windowWidth="25860" windowHeight="16660" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="28860" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Sentence" sheetId="1" r:id="rId1"/>
     <sheet name="Action" sheetId="3" r:id="rId2"/>
     <sheet name="Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Interaction" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -410,15 +411,6 @@
     <t>WordType:Curseword</t>
   </si>
   <si>
-    <t>WordType:Firstname</t>
-  </si>
-  <si>
-    <t>WordType:Firstname|WordType:Lastname</t>
-  </si>
-  <si>
-    <t>WordType:Lastname</t>
-  </si>
-  <si>
     <t>WordType</t>
   </si>
   <si>
@@ -813,6 +805,15 @@
   </si>
   <si>
     <t>Leider trat ein Fehler während der Berechnung auf.</t>
+  </si>
+  <si>
+    <t>WordType:UserFirstname</t>
+  </si>
+  <si>
+    <t>WordType:UserFirstname|WordType:UserLastname</t>
+  </si>
+  <si>
+    <t>WordType:UserLastname</t>
   </si>
 </sst>
 </file>
@@ -999,35 +1000,7 @@
     <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="66">
     <dxf>
       <fill>
         <patternFill>
@@ -1758,7 +1731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1768,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1803,7 +1776,7 @@
         <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1899,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -1910,7 +1883,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -2151,7 +2124,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
@@ -2223,7 +2196,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -2389,7 +2362,7 @@
         <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2403,7 +2376,7 @@
         <v>96</v>
       </c>
       <c r="F54" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2488,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>260</v>
       </c>
       <c r="C63" t="s">
         <v>97</v>
@@ -2497,7 +2470,7 @@
         <v>103</v>
       </c>
       <c r="F63" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2505,7 +2478,7 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>261</v>
       </c>
       <c r="C64" t="s">
         <v>99</v>
@@ -2514,7 +2487,7 @@
         <v>103</v>
       </c>
       <c r="F64" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2522,7 +2495,7 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="C65" t="s">
         <v>98</v>
@@ -2531,7 +2504,7 @@
         <v>103</v>
       </c>
       <c r="F65" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2539,7 +2512,7 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
@@ -2550,7 +2523,7 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E68" t="s">
         <v>21</v>
@@ -2594,10 +2567,10 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C72" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
@@ -2611,7 +2584,7 @@
         <v>115</v>
       </c>
       <c r="C73" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D73" t="s">
         <v>21</v>
@@ -2622,7 +2595,7 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E75" t="s">
         <v>32</v>
@@ -2633,7 +2606,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E76" t="s">
         <v>32</v>
@@ -2644,7 +2617,7 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E77" t="s">
         <v>32</v>
@@ -2655,7 +2628,7 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E78" t="s">
         <v>32</v>
@@ -2666,7 +2639,7 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E79" t="s">
         <v>32</v>
@@ -2677,7 +2650,7 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D80" t="s">
         <v>32</v>
@@ -2691,7 +2664,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E82" t="s">
         <v>32</v>
@@ -2702,7 +2675,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E83" t="s">
         <v>32</v>
@@ -2713,7 +2686,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E84" t="s">
         <v>32</v>
@@ -2724,7 +2697,7 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E85" t="s">
         <v>32</v>
@@ -2735,10 +2708,10 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C86" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D86" t="s">
         <v>32</v>
@@ -2752,10 +2725,10 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E88" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2763,10 +2736,10 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E89" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2774,10 +2747,10 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2785,10 +2758,10 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2796,10 +2769,10 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D92" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2807,10 +2780,10 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2818,10 +2791,10 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E95" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2829,10 +2802,10 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D96" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2840,10 +2813,10 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E98" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2851,10 +2824,10 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E99" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2862,10 +2835,10 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E100" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2873,10 +2846,10 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E101" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2884,10 +2857,10 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D102" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2895,10 +2868,10 @@
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D103" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2906,10 +2879,10 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E105" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2917,10 +2890,10 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E106" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2928,10 +2901,10 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E107" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2939,10 +2912,10 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E108" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2950,10 +2923,10 @@
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E109" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2961,10 +2934,10 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E110" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2972,13 +2945,13 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D111" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2986,13 +2959,13 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D112" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3000,10 +2973,10 @@
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D113" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3011,10 +2984,10 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E115" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3022,10 +2995,10 @@
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E116" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3033,13 +3006,13 @@
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D117" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F117" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3047,10 +3020,10 @@
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E119" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3058,10 +3031,10 @@
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E120" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3069,10 +3042,10 @@
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E121" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3080,10 +3053,10 @@
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D122" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3091,10 +3064,10 @@
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D123" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3102,10 +3075,10 @@
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E125" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3113,10 +3086,10 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E126" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3124,10 +3097,10 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D127" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3135,10 +3108,10 @@
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D128" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3146,10 +3119,10 @@
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E130" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3157,10 +3130,10 @@
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E131" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3168,10 +3141,10 @@
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D132" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3179,10 +3152,10 @@
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D133" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3190,10 +3163,10 @@
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E135" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3201,10 +3174,10 @@
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E136" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3212,10 +3185,10 @@
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D137" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3223,10 +3196,10 @@
         <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D138" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3234,10 +3207,10 @@
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E140" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3245,10 +3218,10 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E141" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3256,10 +3229,10 @@
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E142" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3267,10 +3240,10 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D143" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3278,10 +3251,10 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D144" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3289,10 +3262,10 @@
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E146" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3300,10 +3273,10 @@
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E147" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3311,10 +3284,10 @@
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E148" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3322,10 +3295,10 @@
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D149" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3333,10 +3306,10 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D150" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3344,10 +3317,10 @@
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E152" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3355,10 +3328,10 @@
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E153" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3366,10 +3339,10 @@
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D154" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3377,10 +3350,10 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D155" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3388,10 +3361,10 @@
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E157" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -3399,13 +3372,13 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
+        <v>199</v>
+      </c>
+      <c r="D158" t="s">
         <v>202</v>
       </c>
-      <c r="D158" t="s">
-        <v>205</v>
-      </c>
       <c r="G158" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -3413,10 +3386,10 @@
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E160" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -3424,10 +3397,10 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D161" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3435,10 +3408,10 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D162" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -3446,10 +3419,10 @@
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E164" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3457,13 +3430,13 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D165" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G165" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -3471,13 +3444,13 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D166" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G166" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -3485,10 +3458,10 @@
         <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E168" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -3499,10 +3472,10 @@
         <v>73</v>
       </c>
       <c r="C169" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D169" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -3510,10 +3483,10 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D170" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -3521,10 +3494,10 @@
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D171" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -3532,10 +3505,10 @@
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E173" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -3546,10 +3519,10 @@
         <v>73</v>
       </c>
       <c r="C174" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D174" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -3560,10 +3533,10 @@
         <v>73</v>
       </c>
       <c r="C175" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D175" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -3571,10 +3544,10 @@
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D176" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -3582,10 +3555,10 @@
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E178" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -3593,10 +3566,10 @@
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E179" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -3604,10 +3577,10 @@
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E180" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -3615,13 +3588,13 @@
         <v>8</v>
       </c>
       <c r="D181" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F181" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G181" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -3629,10 +3602,10 @@
         <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E183" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -3640,10 +3613,10 @@
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E184" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -3651,13 +3624,13 @@
         <v>8</v>
       </c>
       <c r="D185" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F185" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G185" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -3665,10 +3638,10 @@
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E187" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -3676,10 +3649,10 @@
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E188" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -3687,266 +3660,265 @@
         <v>8</v>
       </c>
       <c r="D189" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F189" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G189" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A115:G158 A79:G81 A88:G94 A163:G187 A189:G1048576 A188:C188 E188:G188 A1:G77">
-    <cfRule type="expression" dxfId="69" priority="121">
+    <cfRule type="expression" dxfId="65" priority="121">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="122">
+    <cfRule type="expression" dxfId="64" priority="122">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:G93">
-    <cfRule type="expression" dxfId="67" priority="59">
+    <cfRule type="expression" dxfId="63" priority="59">
       <formula>$A88="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="60">
+    <cfRule type="expression" dxfId="62" priority="60">
       <formula>$A88="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="expression" dxfId="65" priority="57">
+    <cfRule type="expression" dxfId="61" priority="57">
       <formula>$A157="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="58">
+    <cfRule type="expression" dxfId="60" priority="58">
       <formula>$A157="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:G114 A97:G97 A105:D110 F105:G110 A112:C113 E112:G113 A104:G104 A102:C103 E102:G103 A98:D101 F98:G101 A95:D95 F95:G95 A96:C96 E96:G96">
-    <cfRule type="expression" dxfId="63" priority="53">
+    <cfRule type="expression" dxfId="59" priority="53">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="54">
+    <cfRule type="expression" dxfId="58" priority="54">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:G114 A97:G97 A105:D110 F105:G110 A112:C113 E112:G113 A104:G104 A102:C103 E102:G103 A98:D101 F98:G101 A95:D95 F95:G95 A96:C96 E96:G96">
-    <cfRule type="expression" dxfId="61" priority="55">
+    <cfRule type="expression" dxfId="57" priority="55">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="56">
+    <cfRule type="expression" dxfId="56" priority="56">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:C111 E111:G111">
-    <cfRule type="expression" dxfId="59" priority="49">
+    <cfRule type="expression" dxfId="55" priority="49">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="50">
+    <cfRule type="expression" dxfId="54" priority="50">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:C111 E111:G111">
-    <cfRule type="expression" dxfId="57" priority="51">
+    <cfRule type="expression" dxfId="53" priority="51">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="52">
+    <cfRule type="expression" dxfId="52" priority="52">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:G162">
-    <cfRule type="expression" dxfId="55" priority="47">
+    <cfRule type="expression" dxfId="51" priority="47">
       <formula>$A159="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="48">
+    <cfRule type="expression" dxfId="50" priority="48">
       <formula>$A159="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="53" priority="45">
+    <cfRule type="expression" dxfId="49" priority="45">
       <formula>$A105="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="46">
+    <cfRule type="expression" dxfId="48" priority="46">
       <formula>$A105="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="51" priority="43">
+    <cfRule type="expression" dxfId="47" priority="43">
       <formula>$A106="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="44">
+    <cfRule type="expression" dxfId="46" priority="44">
       <formula>$A106="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="49" priority="41">
+    <cfRule type="expression" dxfId="45" priority="41">
       <formula>$A107="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="42">
+    <cfRule type="expression" dxfId="44" priority="42">
       <formula>$A107="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="expression" dxfId="47" priority="39">
+    <cfRule type="expression" dxfId="43" priority="39">
       <formula>$A108="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="40">
+    <cfRule type="expression" dxfId="42" priority="40">
       <formula>$A108="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="expression" dxfId="45" priority="37">
+    <cfRule type="expression" dxfId="41" priority="37">
       <formula>$A109="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="38">
+    <cfRule type="expression" dxfId="40" priority="38">
       <formula>$A109="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="expression" dxfId="43" priority="35">
+    <cfRule type="expression" dxfId="39" priority="35">
       <formula>$A110="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="36">
+    <cfRule type="expression" dxfId="38" priority="36">
       <formula>$A110="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111">
-    <cfRule type="expression" dxfId="41" priority="33">
+    <cfRule type="expression" dxfId="37" priority="33">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="34">
+    <cfRule type="expression" dxfId="36" priority="34">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112">
-    <cfRule type="expression" dxfId="39" priority="31">
+    <cfRule type="expression" dxfId="35" priority="31">
       <formula>$A112="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="32">
+    <cfRule type="expression" dxfId="34" priority="32">
       <formula>$A112="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D113">
-    <cfRule type="expression" dxfId="37" priority="29">
+    <cfRule type="expression" dxfId="33" priority="29">
       <formula>$A113="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="30">
+    <cfRule type="expression" dxfId="32" priority="30">
       <formula>$A113="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="35" priority="27">
+    <cfRule type="expression" dxfId="31" priority="27">
       <formula>$A103="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="28">
+    <cfRule type="expression" dxfId="30" priority="28">
       <formula>$A103="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="expression" dxfId="33" priority="25">
+    <cfRule type="expression" dxfId="29" priority="25">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="26">
+    <cfRule type="expression" dxfId="28" priority="26">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="31" priority="23">
+    <cfRule type="expression" dxfId="27" priority="23">
       <formula>$A101="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="24">
+    <cfRule type="expression" dxfId="26" priority="24">
       <formula>$A101="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="expression" dxfId="29" priority="21">
+    <cfRule type="expression" dxfId="25" priority="21">
       <formula>$A100="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="22">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>$A100="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="27" priority="19">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>$A99="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="20">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>$A99="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="25" priority="17">
+    <cfRule type="expression" dxfId="21" priority="17">
       <formula>$A98="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="18">
+    <cfRule type="expression" dxfId="20" priority="18">
       <formula>$A98="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="23" priority="15">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="16">
+    <cfRule type="expression" dxfId="18" priority="16">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>$A96="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>$A96="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:G78">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>$A78="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>$A78="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:G83 A86:G87">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>$A83="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>$A83="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:G82">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>$A82="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>$A82="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:G85">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$A85="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$A85="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:G84">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$A84="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$A84="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D188">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$A188="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$A188="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3959,7 +3931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3976,16 +3948,16 @@
         <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3993,33 +3965,33 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4027,34 +3999,33 @@
         <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4171,7 +4142,7 @@
         <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
         <v>94</v>
@@ -4280,21 +4251,21 @@
         <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D35" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F28">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4305,4 +4276,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="268">
   <si>
     <t>Requirement</t>
   </si>
@@ -591,9 +591,6 @@
     <t>TRIGGER_FACEAPP_OFF</t>
   </si>
   <si>
-    <t>TRIGGER</t>
-  </si>
-  <si>
     <t>Hey, wer hat das List aus gemacht?</t>
   </si>
   <si>
@@ -814,6 +811,24 @@
   </si>
   <si>
     <t>WordType:UserLastname</t>
+  </si>
+  <si>
+    <t>TRIGGER|FACEAPP_ON</t>
+  </si>
+  <si>
+    <t>TRIGGER|FACEAPP_OFF</t>
+  </si>
+  <si>
+    <t>TRIGGER|Intruder</t>
+  </si>
+  <si>
+    <t>TRIGGER|Mute</t>
+  </si>
+  <si>
+    <t>TRIGGER|Unmute</t>
+  </si>
+  <si>
+    <t>TRIGGER|Deaf</t>
   </si>
 </sst>
 </file>
@@ -870,8 +885,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -937,7 +968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="77">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -968,6 +999,14 @@
     <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -998,9 +1037,241 @@
     <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="98">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1741,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1776,7 +2047,7 @@
         <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2124,7 +2395,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
@@ -2362,7 +2633,7 @@
         <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2376,7 +2647,7 @@
         <v>96</v>
       </c>
       <c r="F54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2461,7 +2732,7 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C63" t="s">
         <v>97</v>
@@ -2470,7 +2741,7 @@
         <v>103</v>
       </c>
       <c r="F63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2478,7 +2749,7 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C64" t="s">
         <v>99</v>
@@ -2487,7 +2758,7 @@
         <v>103</v>
       </c>
       <c r="F64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2495,7 +2766,7 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C65" t="s">
         <v>98</v>
@@ -2504,7 +2775,7 @@
         <v>103</v>
       </c>
       <c r="F65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2512,7 +2783,7 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
@@ -2523,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E68" t="s">
         <v>21</v>
@@ -2567,10 +2838,10 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
+        <v>253</v>
+      </c>
+      <c r="C72" t="s">
         <v>254</v>
-      </c>
-      <c r="C72" t="s">
-        <v>255</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
@@ -2584,7 +2855,7 @@
         <v>115</v>
       </c>
       <c r="C73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D73" t="s">
         <v>21</v>
@@ -2617,7 +2888,7 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E77" t="s">
         <v>32</v>
@@ -2664,7 +2935,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E82" t="s">
         <v>32</v>
@@ -2675,7 +2946,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E83" t="s">
         <v>32</v>
@@ -2686,7 +2957,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E84" t="s">
         <v>32</v>
@@ -2697,7 +2968,7 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E85" t="s">
         <v>32</v>
@@ -2708,10 +2979,10 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C86" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D86" t="s">
         <v>32</v>
@@ -2802,7 +3073,7 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D96" t="s">
         <v>150</v>
@@ -2813,7 +3084,7 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E98" t="s">
         <v>150</v>
@@ -2824,7 +3095,7 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E99" t="s">
         <v>150</v>
@@ -2835,7 +3106,7 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E100" t="s">
         <v>150</v>
@@ -2846,7 +3117,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E101" t="s">
         <v>150</v>
@@ -2857,7 +3128,7 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D102" t="s">
         <v>150</v>
@@ -2868,7 +3139,7 @@
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D103" t="s">
         <v>150</v>
@@ -2934,7 +3205,7 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E110" t="s">
         <v>150</v>
@@ -2945,10 +3216,10 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
+        <v>214</v>
+      </c>
+      <c r="C111" t="s">
         <v>215</v>
-      </c>
-      <c r="C111" t="s">
-        <v>216</v>
       </c>
       <c r="D111" t="s">
         <v>150</v>
@@ -2959,10 +3230,10 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112" t="s">
         <v>217</v>
-      </c>
-      <c r="C112" t="s">
-        <v>218</v>
       </c>
       <c r="D112" t="s">
         <v>150</v>
@@ -2973,7 +3244,7 @@
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D113" t="s">
         <v>150</v>
@@ -3361,10 +3632,10 @@
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E157" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -3372,13 +3643,13 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D158" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G158" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -3386,7 +3657,7 @@
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E160" t="s">
         <v>150</v>
@@ -3397,7 +3668,7 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D161" t="s">
         <v>150</v>
@@ -3408,7 +3679,7 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D162" t="s">
         <v>150</v>
@@ -3422,7 +3693,7 @@
         <v>186</v>
       </c>
       <c r="E164" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3430,13 +3701,13 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D165" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c r="G165" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -3444,13 +3715,13 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D166" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c r="G166" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -3461,7 +3732,7 @@
         <v>187</v>
       </c>
       <c r="E168" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -3472,10 +3743,10 @@
         <v>73</v>
       </c>
       <c r="C169" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D169" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -3483,10 +3754,10 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D170" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -3494,10 +3765,10 @@
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D171" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -3505,10 +3776,10 @@
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E173" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -3519,10 +3790,10 @@
         <v>73</v>
       </c>
       <c r="C174" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D174" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -3533,10 +3804,10 @@
         <v>73</v>
       </c>
       <c r="C175" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D175" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -3544,10 +3815,10 @@
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D176" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -3555,10 +3826,10 @@
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E178" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -3566,10 +3837,10 @@
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E179" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -3577,10 +3848,10 @@
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E180" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -3588,13 +3859,13 @@
         <v>8</v>
       </c>
       <c r="D181" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="F181" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G181" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -3602,10 +3873,10 @@
         <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E183" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -3613,10 +3884,10 @@
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E184" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -3624,13 +3895,13 @@
         <v>8</v>
       </c>
       <c r="D185" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="F185" t="s">
+        <v>246</v>
+      </c>
+      <c r="G185" t="s">
         <v>247</v>
-      </c>
-      <c r="G185" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -3638,10 +3909,10 @@
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E187" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -3649,10 +3920,10 @@
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E188" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -3660,265 +3931,266 @@
         <v>8</v>
       </c>
       <c r="D189" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="F189" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G189" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A115:G158 A79:G81 A88:G94 A163:G187 A189:G1048576 A188:C188 E188:G188 A1:G77">
-    <cfRule type="expression" dxfId="65" priority="121">
+  <conditionalFormatting sqref="A115:G158 A79:G81 A88:G94 A188:C188 A1:G77 A163:G187 E188:G188 A189:G1048576">
+    <cfRule type="expression" dxfId="97" priority="121">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="122">
+    <cfRule type="expression" dxfId="96" priority="122">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:G93">
-    <cfRule type="expression" dxfId="63" priority="59">
+    <cfRule type="expression" dxfId="95" priority="59">
       <formula>$A88="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="60">
+    <cfRule type="expression" dxfId="94" priority="60">
       <formula>$A88="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="expression" dxfId="61" priority="57">
+    <cfRule type="expression" dxfId="93" priority="57">
       <formula>$A157="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="58">
+    <cfRule type="expression" dxfId="92" priority="58">
       <formula>$A157="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:G114 A97:G97 A105:D110 F105:G110 A112:C113 E112:G113 A104:G104 A102:C103 E102:G103 A98:D101 F98:G101 A95:D95 F95:G95 A96:C96 E96:G96">
-    <cfRule type="expression" dxfId="59" priority="53">
+    <cfRule type="expression" dxfId="91" priority="53">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="54">
+    <cfRule type="expression" dxfId="90" priority="54">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:G114 A97:G97 A105:D110 F105:G110 A112:C113 E112:G113 A104:G104 A102:C103 E102:G103 A98:D101 F98:G101 A95:D95 F95:G95 A96:C96 E96:G96">
-    <cfRule type="expression" dxfId="57" priority="55">
+    <cfRule type="expression" dxfId="89" priority="55">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="56">
+    <cfRule type="expression" dxfId="88" priority="56">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:C111 E111:G111">
-    <cfRule type="expression" dxfId="55" priority="49">
+    <cfRule type="expression" dxfId="87" priority="49">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="50">
+    <cfRule type="expression" dxfId="86" priority="50">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:C111 E111:G111">
-    <cfRule type="expression" dxfId="53" priority="51">
+    <cfRule type="expression" dxfId="85" priority="51">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="84" priority="52">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:G162">
-    <cfRule type="expression" dxfId="51" priority="47">
+    <cfRule type="expression" dxfId="83" priority="47">
       <formula>$A159="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="48">
+    <cfRule type="expression" dxfId="82" priority="48">
       <formula>$A159="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="49" priority="45">
+    <cfRule type="expression" dxfId="81" priority="45">
       <formula>$A105="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="46">
+    <cfRule type="expression" dxfId="80" priority="46">
       <formula>$A105="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="47" priority="43">
+    <cfRule type="expression" dxfId="79" priority="43">
       <formula>$A106="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="44">
+    <cfRule type="expression" dxfId="78" priority="44">
       <formula>$A106="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="45" priority="41">
+    <cfRule type="expression" dxfId="77" priority="41">
       <formula>$A107="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="42">
+    <cfRule type="expression" dxfId="76" priority="42">
       <formula>$A107="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="expression" dxfId="43" priority="39">
+    <cfRule type="expression" dxfId="75" priority="39">
       <formula>$A108="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40">
+    <cfRule type="expression" dxfId="74" priority="40">
       <formula>$A108="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="expression" dxfId="41" priority="37">
+    <cfRule type="expression" dxfId="73" priority="37">
       <formula>$A109="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38">
+    <cfRule type="expression" dxfId="72" priority="38">
       <formula>$A109="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="expression" dxfId="39" priority="35">
+    <cfRule type="expression" dxfId="71" priority="35">
       <formula>$A110="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="36">
+    <cfRule type="expression" dxfId="70" priority="36">
       <formula>$A110="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111">
-    <cfRule type="expression" dxfId="37" priority="33">
+    <cfRule type="expression" dxfId="69" priority="33">
       <formula>$A111="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="34">
+    <cfRule type="expression" dxfId="68" priority="34">
       <formula>$A111="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112">
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="67" priority="31">
       <formula>$A112="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="32">
+    <cfRule type="expression" dxfId="66" priority="32">
       <formula>$A112="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D113">
-    <cfRule type="expression" dxfId="33" priority="29">
+    <cfRule type="expression" dxfId="65" priority="29">
       <formula>$A113="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="30">
+    <cfRule type="expression" dxfId="64" priority="30">
       <formula>$A113="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="31" priority="27">
+    <cfRule type="expression" dxfId="63" priority="27">
       <formula>$A103="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="28">
+    <cfRule type="expression" dxfId="62" priority="28">
       <formula>$A103="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="expression" dxfId="29" priority="25">
+    <cfRule type="expression" dxfId="61" priority="25">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26">
+    <cfRule type="expression" dxfId="60" priority="26">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="27" priority="23">
+    <cfRule type="expression" dxfId="59" priority="23">
       <formula>$A101="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="24">
+    <cfRule type="expression" dxfId="58" priority="24">
       <formula>$A101="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="expression" dxfId="25" priority="21">
+    <cfRule type="expression" dxfId="57" priority="21">
       <formula>$A100="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="56" priority="22">
       <formula>$A100="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="23" priority="19">
+    <cfRule type="expression" dxfId="55" priority="19">
       <formula>$A99="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="54" priority="20">
       <formula>$A99="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="21" priority="17">
+    <cfRule type="expression" dxfId="53" priority="17">
       <formula>$A98="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="18">
+    <cfRule type="expression" dxfId="52" priority="18">
       <formula>$A98="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="19" priority="15">
+    <cfRule type="expression" dxfId="51" priority="15">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="50" priority="16">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="49" priority="13">
       <formula>$A96="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="48" priority="14">
       <formula>$A96="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:G78">
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="47" priority="11">
       <formula>$A78="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="46" priority="12">
       <formula>$A78="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:G83 A86:G87">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="45" priority="9">
       <formula>$A83="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="44" priority="10">
       <formula>$A83="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:G82">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="43" priority="7">
       <formula>$A82="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="42" priority="8">
       <formula>$A82="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:G85">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="41" priority="5">
       <formula>$A85="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="40" priority="6">
       <formula>$A85="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:G84">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>$A84="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>$A84="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D188">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>$A188="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>$A188="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3948,16 +4220,16 @@
         <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3965,33 +4237,33 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s">
         <v>203</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>204</v>
       </c>
-      <c r="D2" t="s">
-        <v>205</v>
-      </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" t="s">
         <v>234</v>
       </c>
-      <c r="B3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" t="s">
-        <v>235</v>
-      </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3999,16 +4271,16 @@
         <v>119</v>
       </c>
       <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
         <v>237</v>
       </c>
-      <c r="C4" t="s">
-        <v>238</v>
-      </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4018,10 +4290,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4251,21 +4523,21 @@
         <v>117</v>
       </c>
       <c r="B35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" t="s">
         <v>203</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>204</v>
-      </c>
-      <c r="D35" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F28">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="275">
   <si>
     <t>Requirement</t>
   </si>
@@ -829,6 +829,27 @@
   </si>
   <si>
     <t>TRIGGER|Deaf</t>
+  </si>
+  <si>
+    <t>Wie ist mein Name</t>
+  </si>
+  <si>
+    <t>Wie heißte ich</t>
+  </si>
+  <si>
+    <t>Wie nennt man mich</t>
+  </si>
+  <si>
+    <t>Wer bin ich</t>
+  </si>
+  <si>
+    <t>Question|BotName</t>
+  </si>
+  <si>
+    <t>Leider kann ich Sie nicht erkennen.</t>
+  </si>
+  <si>
+    <t>Sie sind {name}</t>
   </si>
 </sst>
 </file>
@@ -885,8 +906,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -968,7 +999,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="87">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1007,6 +1038,11 @@
     <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1045,9 +1081,168 @@
     <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="120">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2010,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="D189" sqref="D189"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2517,7 +2712,7 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2528,7 +2723,7 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2539,7 +2734,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2550,7 +2745,7 @@
         <v>75</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2561,7 +2756,7 @@
         <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2575,10 +2770,7 @@
         <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" t="s">
-        <v>50</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2586,10 +2778,10 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="E48" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2597,57 +2789,68 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" t="s">
-        <v>83</v>
+        <v>270</v>
+      </c>
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>271</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>273</v>
+      </c>
+      <c r="D52" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>8</v>
       </c>
-      <c r="B53" t="s">
-        <v>127</v>
-      </c>
       <c r="C53" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" t="s">
-        <v>96</v>
-      </c>
-      <c r="F54" t="s">
-        <v>242</v>
+        <v>274</v>
+      </c>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2655,32 +2858,21 @@
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E56" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" t="s">
-        <v>103</v>
+        <v>84</v>
+      </c>
+      <c r="D57" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2688,94 +2880,79 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
-      </c>
-      <c r="E59" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" t="s">
-        <v>103</v>
+        <v>95</v>
+      </c>
+      <c r="F60" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" t="s">
-        <v>103</v>
+        <v>96</v>
+      </c>
+      <c r="F61" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" t="s">
-        <v>259</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" t="s">
         <v>103</v>
-      </c>
-      <c r="F63" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" t="s">
-        <v>260</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" t="s">
         <v>103</v>
-      </c>
-      <c r="F64" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" t="s">
-        <v>261</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" t="s">
         <v>103</v>
       </c>
-      <c r="F65" t="s">
-        <v>241</v>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2783,10 +2960,10 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>252</v>
+        <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2794,10 +2971,10 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="E68" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2805,32 +2982,44 @@
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>259</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
-      </c>
-      <c r="E70" t="s">
-        <v>21</v>
+        <v>97</v>
+      </c>
+      <c r="D70" t="s">
+        <v>103</v>
+      </c>
+      <c r="F70" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>8</v>
       </c>
+      <c r="B71" t="s">
+        <v>260</v>
+      </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>103</v>
+      </c>
+      <c r="F71" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2838,26 +3027,26 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C72" t="s">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" t="s">
-        <v>255</v>
-      </c>
-      <c r="D73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>252</v>
+      </c>
+      <c r="E74" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2866,10 +3055,10 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="E75" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2877,10 +3066,10 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2888,46 +3077,49 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>131</v>
-      </c>
-      <c r="E78" t="s">
-        <v>32</v>
+        <v>113</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>253</v>
       </c>
       <c r="C79" t="s">
-        <v>132</v>
-      </c>
-      <c r="E79" t="s">
-        <v>32</v>
+        <v>254</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>8</v>
       </c>
+      <c r="B80" t="s">
+        <v>115</v>
+      </c>
       <c r="C80" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="D80" t="s">
-        <v>32</v>
-      </c>
-      <c r="F80" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2935,7 +3127,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="E82" t="s">
         <v>32</v>
@@ -2946,7 +3138,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="E83" t="s">
         <v>32</v>
@@ -2957,7 +3149,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E84" t="s">
         <v>32</v>
@@ -2968,7 +3160,7 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="E85" t="s">
         <v>32</v>
@@ -2976,30 +3168,27 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" t="s">
-        <v>223</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>229</v>
-      </c>
-      <c r="D86" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" t="s">
         <v>32</v>
       </c>
-      <c r="F86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>135</v>
-      </c>
-      <c r="E88" t="s">
-        <v>181</v>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3007,10 +3196,10 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="E89" t="s">
-        <v>181</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3018,43 +3207,49 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="E90" t="s">
-        <v>181</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
-      </c>
-      <c r="D91" t="s">
-        <v>183</v>
+        <v>226</v>
+      </c>
+      <c r="E91" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
-      </c>
-      <c r="D92" t="s">
-        <v>183</v>
+        <v>227</v>
+      </c>
+      <c r="E92" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>8</v>
       </c>
+      <c r="B93" t="s">
+        <v>223</v>
+      </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="D93" t="s">
-        <v>183</v>
+        <v>32</v>
+      </c>
+      <c r="F93" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3062,75 +3257,75 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E95" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>206</v>
-      </c>
-      <c r="D96" t="s">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="E96" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>137</v>
+      </c>
+      <c r="E97" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>207</v>
-      </c>
-      <c r="E98" t="s">
-        <v>150</v>
+        <v>182</v>
+      </c>
+      <c r="D98" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>208</v>
-      </c>
-      <c r="E99" t="s">
-        <v>150</v>
+        <v>184</v>
+      </c>
+      <c r="D99" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>209</v>
-      </c>
-      <c r="E100" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" t="s">
-        <v>210</v>
-      </c>
-      <c r="E101" t="s">
-        <v>150</v>
+        <v>185</v>
+      </c>
+      <c r="D100" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>211</v>
-      </c>
-      <c r="D102" t="s">
+        <v>138</v>
+      </c>
+      <c r="E102" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3139,7 +3334,7 @@
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D103" t="s">
         <v>150</v>
@@ -3150,7 +3345,7 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="E105" t="s">
         <v>150</v>
@@ -3161,7 +3356,7 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="E106" t="s">
         <v>150</v>
@@ -3172,7 +3367,7 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="E107" t="s">
         <v>150</v>
@@ -3183,7 +3378,7 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="E108" t="s">
         <v>150</v>
@@ -3191,62 +3386,56 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>141</v>
-      </c>
-      <c r="E109" t="s">
+        <v>211</v>
+      </c>
+      <c r="D109" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>213</v>
-      </c>
-      <c r="E110" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" t="s">
-        <v>214</v>
-      </c>
-      <c r="C111" t="s">
-        <v>215</v>
-      </c>
-      <c r="D111" t="s">
+        <v>212</v>
+      </c>
+      <c r="D110" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>217</v>
-      </c>
-      <c r="D112" t="s">
+        <v>139</v>
+      </c>
+      <c r="E112" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>218</v>
-      </c>
-      <c r="D113" t="s">
+        <v>140</v>
+      </c>
+      <c r="E113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>146</v>
+      </c>
+      <c r="E114" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3255,7 +3444,7 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E115" t="s">
         <v>150</v>
@@ -3266,7 +3455,7 @@
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E116" t="s">
         <v>150</v>
@@ -3274,82 +3463,88 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>133</v>
-      </c>
-      <c r="D117" t="s">
-        <v>150</v>
-      </c>
-      <c r="F117" t="s">
-        <v>180</v>
+        <v>213</v>
+      </c>
+      <c r="E117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>214</v>
+      </c>
+      <c r="C118" t="s">
+        <v>215</v>
+      </c>
+      <c r="D118" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>216</v>
       </c>
       <c r="C119" t="s">
-        <v>176</v>
-      </c>
-      <c r="E119" t="s">
+        <v>217</v>
+      </c>
+      <c r="D119" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>175</v>
-      </c>
-      <c r="E120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" t="s">
-        <v>177</v>
-      </c>
-      <c r="E121" t="s">
+        <v>218</v>
+      </c>
+      <c r="D120" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>178</v>
-      </c>
-      <c r="D122" t="s">
+        <v>142</v>
+      </c>
+      <c r="E122" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>179</v>
-      </c>
-      <c r="D123" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" t="s">
-        <v>171</v>
-      </c>
-      <c r="E125" t="s">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="E123" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D124" t="s">
+        <v>150</v>
+      </c>
+      <c r="F124" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3357,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E126" t="s">
         <v>150</v>
@@ -3365,133 +3560,133 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>173</v>
-      </c>
-      <c r="D127" t="s">
+        <v>175</v>
+      </c>
+      <c r="E127" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>174</v>
-      </c>
-      <c r="D128" t="s">
+        <v>177</v>
+      </c>
+      <c r="E128" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>178</v>
+      </c>
+      <c r="D129" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>162</v>
-      </c>
-      <c r="E130" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131" t="s">
-        <v>163</v>
-      </c>
-      <c r="E131" t="s">
+        <v>179</v>
+      </c>
+      <c r="D130" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>166</v>
-      </c>
-      <c r="D132" t="s">
+        <v>171</v>
+      </c>
+      <c r="E132" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>168</v>
-      </c>
-      <c r="D133" t="s">
+        <v>172</v>
+      </c>
+      <c r="E133" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>173</v>
+      </c>
+      <c r="D134" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>164</v>
-      </c>
-      <c r="E135" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" t="s">
-        <v>165</v>
-      </c>
-      <c r="E136" t="s">
+        <v>174</v>
+      </c>
+      <c r="D135" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>169</v>
-      </c>
-      <c r="D137" t="s">
+        <v>162</v>
+      </c>
+      <c r="E137" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>170</v>
-      </c>
-      <c r="D138" t="s">
+        <v>163</v>
+      </c>
+      <c r="E138" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s">
+        <v>166</v>
+      </c>
+      <c r="D139" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>152</v>
-      </c>
-      <c r="E140" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C141" t="s">
-        <v>153</v>
-      </c>
-      <c r="E141" t="s">
+        <v>168</v>
+      </c>
+      <c r="D140" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3500,7 +3695,7 @@
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E142" t="s">
         <v>150</v>
@@ -3508,12 +3703,12 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>159</v>
-      </c>
-      <c r="D143" t="s">
+        <v>165</v>
+      </c>
+      <c r="E143" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3522,142 +3717,150 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
+        <v>169</v>
+      </c>
+      <c r="D144" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>170</v>
+      </c>
+      <c r="D145" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>152</v>
+      </c>
+      <c r="E147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>153</v>
+      </c>
+      <c r="E148" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>154</v>
+      </c>
+      <c r="E149" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>159</v>
+      </c>
+      <c r="D150" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
         <v>160</v>
       </c>
-      <c r="D144" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="D151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
         <v>155</v>
       </c>
-      <c r="E146" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="E153" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
         <v>156</v>
       </c>
-      <c r="E147" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="E154" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
         <v>157</v>
       </c>
-      <c r="E148" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="E155" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
         <v>158</v>
       </c>
-      <c r="D149" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="D156" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
         <v>161</v>
       </c>
-      <c r="D150" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="D157" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
         <v>148</v>
       </c>
-      <c r="E152" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="E159" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
         <v>149</v>
-      </c>
-      <c r="E153" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" t="s">
-        <v>151</v>
-      </c>
-      <c r="D154" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" t="s">
-        <v>167</v>
-      </c>
-      <c r="D155" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" t="s">
-        <v>199</v>
-      </c>
-      <c r="E157" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" t="s">
-        <v>198</v>
-      </c>
-      <c r="D158" t="s">
-        <v>201</v>
-      </c>
-      <c r="G158" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C160" t="s">
-        <v>219</v>
       </c>
       <c r="E160" t="s">
         <v>150</v>
@@ -3668,7 +3871,7 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="D161" t="s">
         <v>150</v>
@@ -3679,7 +3882,7 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="D162" t="s">
         <v>150</v>
@@ -3690,10 +3893,10 @@
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E164" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3701,146 +3904,132 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D165" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="G165" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" t="s">
-        <v>192</v>
-      </c>
-      <c r="D166" t="s">
-        <v>262</v>
-      </c>
-      <c r="G166" t="s">
-        <v>205</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>219</v>
+      </c>
+      <c r="E167" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>187</v>
-      </c>
-      <c r="E168" t="s">
-        <v>263</v>
+        <v>220</v>
+      </c>
+      <c r="D168" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>8</v>
       </c>
-      <c r="B169" t="s">
-        <v>73</v>
-      </c>
       <c r="C169" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="D169" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" t="s">
-        <v>189</v>
-      </c>
-      <c r="D170" t="s">
-        <v>263</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>190</v>
-      </c>
-      <c r="D171" t="s">
-        <v>263</v>
+        <v>186</v>
+      </c>
+      <c r="E171" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>191</v>
+      </c>
+      <c r="D172" t="s">
+        <v>262</v>
+      </c>
+      <c r="G172" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>193</v>
-      </c>
-      <c r="E173" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" t="s">
-        <v>8</v>
-      </c>
-      <c r="B174" t="s">
-        <v>73</v>
-      </c>
-      <c r="C174" t="s">
-        <v>194</v>
-      </c>
-      <c r="D174" t="s">
-        <v>264</v>
+        <v>192</v>
+      </c>
+      <c r="D173" t="s">
+        <v>262</v>
+      </c>
+      <c r="G173" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>8</v>
-      </c>
-      <c r="B175" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>195</v>
-      </c>
-      <c r="D175" t="s">
-        <v>264</v>
+        <v>187</v>
+      </c>
+      <c r="E175" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>8</v>
       </c>
+      <c r="B176" t="s">
+        <v>73</v>
+      </c>
       <c r="C176" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D176" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" t="s">
+        <v>189</v>
+      </c>
+      <c r="D177" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>238</v>
-      </c>
-      <c r="E178" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C179" t="s">
-        <v>239</v>
-      </c>
-      <c r="E179" t="s">
-        <v>265</v>
+        <v>190</v>
+      </c>
+      <c r="D178" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -3848,60 +4037,71 @@
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="E180" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>8</v>
       </c>
+      <c r="B181" t="s">
+        <v>73</v>
+      </c>
+      <c r="C181" t="s">
+        <v>194</v>
+      </c>
       <c r="D181" t="s">
-        <v>265</v>
-      </c>
-      <c r="F181" t="s">
-        <v>243</v>
-      </c>
-      <c r="G181" t="s">
-        <v>205</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" t="s">
+        <v>73</v>
+      </c>
+      <c r="C182" t="s">
+        <v>195</v>
+      </c>
+      <c r="D182" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>244</v>
-      </c>
-      <c r="E183" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C184" t="s">
-        <v>245</v>
-      </c>
-      <c r="E184" t="s">
-        <v>266</v>
+        <v>196</v>
+      </c>
+      <c r="D183" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" t="s">
-        <v>266</v>
-      </c>
-      <c r="F185" t="s">
-        <v>246</v>
-      </c>
-      <c r="G185" t="s">
-        <v>247</v>
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>238</v>
+      </c>
+      <c r="E185" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>239</v>
+      </c>
+      <c r="E186" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -3909,284 +4109,369 @@
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E187" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>265</v>
+      </c>
+      <c r="F188" t="s">
+        <v>243</v>
+      </c>
+      <c r="G188" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>244</v>
+      </c>
+      <c r="E190" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>245</v>
+      </c>
+      <c r="E191" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" t="s">
+        <v>266</v>
+      </c>
+      <c r="F192" t="s">
+        <v>246</v>
+      </c>
+      <c r="G192" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>248</v>
+      </c>
+      <c r="E194" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
         <v>250</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E195" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
-      <c r="A189" t="s">
-        <v>8</v>
-      </c>
-      <c r="D189" t="s">
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" t="s">
         <v>267</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F196" t="s">
         <v>249</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G196" t="s">
         <v>205</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A115:G158 A79:G81 A88:G94 A188:C188 A1:G77 A163:G187 E188:G188 A189:G1048576">
-    <cfRule type="expression" dxfId="97" priority="121">
+  <conditionalFormatting sqref="A122:G165 A86:G88 A95:G101 A195:C195 A170:G194 E195:G195 A1:G47 A196:G1048576 A54:G84 C53:G53 A53">
+    <cfRule type="expression" dxfId="73" priority="125">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="122">
+    <cfRule type="expression" dxfId="72" priority="126">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88:G93">
-    <cfRule type="expression" dxfId="95" priority="59">
-      <formula>$A88="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="60">
-      <formula>$A88="Q"</formula>
+  <conditionalFormatting sqref="A95:G100">
+    <cfRule type="expression" dxfId="71" priority="63">
+      <formula>$A95="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="64">
+      <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
-    <cfRule type="expression" dxfId="93" priority="57">
-      <formula>$A157="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="58">
-      <formula>$A157="Q"</formula>
+  <conditionalFormatting sqref="B164">
+    <cfRule type="expression" dxfId="69" priority="61">
+      <formula>$A164="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="62">
+      <formula>$A164="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A114:G114 A97:G97 A105:D110 F105:G110 A112:C113 E112:G113 A104:G104 A102:C103 E102:G103 A98:D101 F98:G101 A95:D95 F95:G95 A96:C96 E96:G96">
-    <cfRule type="expression" dxfId="91" priority="53">
-      <formula>$A95="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="54">
-      <formula>$A95="Q"</formula>
+  <conditionalFormatting sqref="A121:G121 A104:G104 A112:D117 F112:G117 A119:C120 E119:G120 A111:G111 A109:C110 E109:G110 A105:D108 F105:G108 A102:D102 F102:G102 A103:C103 E103:G103">
+    <cfRule type="expression" dxfId="67" priority="57">
+      <formula>$A102="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="58">
+      <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A114:G114 A97:G97 A105:D110 F105:G110 A112:C113 E112:G113 A104:G104 A102:C103 E102:G103 A98:D101 F98:G101 A95:D95 F95:G95 A96:C96 E96:G96">
-    <cfRule type="expression" dxfId="89" priority="55">
-      <formula>$A95="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="56">
-      <formula>$A95="Q"</formula>
+  <conditionalFormatting sqref="A121:G121 A104:G104 A112:D117 F112:G117 A119:C120 E119:G120 A111:G111 A109:C110 E109:G110 A105:D108 F105:G108 A102:D102 F102:G102 A103:C103 E103:G103">
+    <cfRule type="expression" dxfId="65" priority="59">
+      <formula>$A102="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="60">
+      <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111:C111 E111:G111">
-    <cfRule type="expression" dxfId="87" priority="49">
-      <formula>$A111="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="50">
-      <formula>$A111="Q"</formula>
+  <conditionalFormatting sqref="A118:C118 E118:G118">
+    <cfRule type="expression" dxfId="63" priority="53">
+      <formula>$A118="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="54">
+      <formula>$A118="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111:C111 E111:G111">
-    <cfRule type="expression" dxfId="85" priority="51">
-      <formula>$A111="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="52">
-      <formula>$A111="Q"</formula>
+  <conditionalFormatting sqref="A118:C118 E118:G118">
+    <cfRule type="expression" dxfId="61" priority="55">
+      <formula>$A118="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="56">
+      <formula>$A118="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A159:G162">
-    <cfRule type="expression" dxfId="83" priority="47">
-      <formula>$A159="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="48">
-      <formula>$A159="Q"</formula>
+  <conditionalFormatting sqref="A166:G169">
+    <cfRule type="expression" dxfId="59" priority="51">
+      <formula>$A166="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="52">
+      <formula>$A166="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="expression" dxfId="57" priority="49">
+      <formula>$A112="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="50">
+      <formula>$A112="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="expression" dxfId="55" priority="47">
+      <formula>$A113="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="48">
+      <formula>$A113="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="expression" dxfId="53" priority="45">
+      <formula>$A114="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="46">
+      <formula>$A114="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="expression" dxfId="51" priority="43">
+      <formula>$A115="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="44">
+      <formula>$A115="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="expression" dxfId="49" priority="41">
+      <formula>$A116="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="42">
+      <formula>$A116="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="expression" dxfId="47" priority="39">
+      <formula>$A117="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="40">
+      <formula>$A117="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D118">
+    <cfRule type="expression" dxfId="45" priority="37">
+      <formula>$A118="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="38">
+      <formula>$A118="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119">
+    <cfRule type="expression" dxfId="43" priority="35">
+      <formula>$A119="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="36">
+      <formula>$A119="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D120">
+    <cfRule type="expression" dxfId="41" priority="33">
+      <formula>$A120="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="34">
+      <formula>$A120="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D110">
+    <cfRule type="expression" dxfId="39" priority="31">
+      <formula>$A110="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="32">
+      <formula>$A110="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109">
+    <cfRule type="expression" dxfId="37" priority="29">
+      <formula>$A109="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="30">
+      <formula>$A109="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="expression" dxfId="35" priority="27">
+      <formula>$A108="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="28">
+      <formula>$A108="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="expression" dxfId="33" priority="25">
+      <formula>$A107="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="26">
+      <formula>$A107="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="expression" dxfId="31" priority="23">
+      <formula>$A106="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="24">
+      <formula>$A106="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="81" priority="45">
+    <cfRule type="expression" dxfId="29" priority="21">
       <formula>$A105="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="46">
+    <cfRule type="expression" dxfId="28" priority="22">
       <formula>$A105="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="79" priority="43">
-      <formula>$A106="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="44">
-      <formula>$A106="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="77" priority="41">
-      <formula>$A107="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="42">
-      <formula>$A107="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="expression" dxfId="75" priority="39">
-      <formula>$A108="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="40">
-      <formula>$A108="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="expression" dxfId="73" priority="37">
-      <formula>$A109="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="38">
-      <formula>$A109="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="expression" dxfId="71" priority="35">
-      <formula>$A110="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="36">
-      <formula>$A110="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D111">
-    <cfRule type="expression" dxfId="69" priority="33">
-      <formula>$A111="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="34">
-      <formula>$A111="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D112">
-    <cfRule type="expression" dxfId="67" priority="31">
-      <formula>$A112="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="32">
-      <formula>$A112="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D113">
-    <cfRule type="expression" dxfId="65" priority="29">
-      <formula>$A113="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="30">
-      <formula>$A113="Q"</formula>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" dxfId="27" priority="19">
+      <formula>$A102="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="20">
+      <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="63" priority="27">
+    <cfRule type="expression" dxfId="25" priority="17">
       <formula>$A103="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="28">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>$A103="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D102">
-    <cfRule type="expression" dxfId="61" priority="25">
-      <formula>$A102="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="26">
-      <formula>$A102="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="59" priority="23">
-      <formula>$A101="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="24">
-      <formula>$A101="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="expression" dxfId="57" priority="21">
-      <formula>$A100="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="22">
-      <formula>$A100="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="55" priority="19">
-      <formula>$A99="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="20">
-      <formula>$A99="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="53" priority="17">
-      <formula>$A98="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="18">
-      <formula>$A98="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="51" priority="15">
-      <formula>$A95="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="16">
-      <formula>$A95="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96">
-    <cfRule type="expression" dxfId="49" priority="13">
-      <formula>$A96="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="14">
-      <formula>$A96="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:G78">
-    <cfRule type="expression" dxfId="47" priority="11">
-      <formula>$A78="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="12">
-      <formula>$A78="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83:G83 A86:G87">
-    <cfRule type="expression" dxfId="45" priority="9">
-      <formula>$A83="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="10">
-      <formula>$A83="Q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:G82">
-    <cfRule type="expression" dxfId="43" priority="7">
-      <formula>$A82="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="8">
-      <formula>$A82="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:G85">
-    <cfRule type="expression" dxfId="41" priority="5">
+    <cfRule type="expression" dxfId="23" priority="15">
       <formula>$A85="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="6">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>$A85="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84:G84">
-    <cfRule type="expression" dxfId="39" priority="3">
-      <formula>$A84="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="4">
-      <formula>$A84="Q"</formula>
+  <conditionalFormatting sqref="A90:G90 A93:G94">
+    <cfRule type="expression" dxfId="21" priority="13">
+      <formula>$A90="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="14">
+      <formula>$A90="Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D188">
-    <cfRule type="expression" dxfId="37" priority="1">
-      <formula>$A188="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="2">
-      <formula>$A188="Q"</formula>
+  <conditionalFormatting sqref="A89:G89">
+    <cfRule type="expression" dxfId="19" priority="11">
+      <formula>$A89="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="12">
+      <formula>$A89="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:G92">
+    <cfRule type="expression" dxfId="17" priority="9">
+      <formula>$A92="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="10">
+      <formula>$A92="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91:G91">
+    <cfRule type="expression" dxfId="15" priority="7">
+      <formula>$A91="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="8">
+      <formula>$A91="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D195">
+    <cfRule type="expression" dxfId="13" priority="5">
+      <formula>$A195="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="6">
+      <formula>$A195="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:G51 A52 C52:G52">
+    <cfRule type="expression" dxfId="11" priority="3">
+      <formula>$A48="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="4">
+      <formula>$A48="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="5" priority="131">
+      <formula>$A53="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="132">
+      <formula>$A53="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$A53="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$A53="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4290,10 +4575,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4534,10 +4819,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F28">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="28860" windowHeight="17520"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="28860" windowHeight="17520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sentence" sheetId="1" r:id="rId1"/>
     <sheet name="Action" sheetId="3" r:id="rId2"/>
-    <sheet name="Data" sheetId="2" r:id="rId3"/>
-    <sheet name="Interaction" sheetId="4" r:id="rId4"/>
+    <sheet name="Interaction" sheetId="4" r:id="rId3"/>
+    <sheet name="Data" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="285">
   <si>
     <t>Requirement</t>
   </si>
@@ -850,6 +850,36 @@
   </si>
   <si>
     <t>Sie sind {name}</t>
+  </si>
+  <si>
+    <t>Mache ein Update</t>
+  </si>
+  <si>
+    <t>Wann soll das Update durchgeführt werden?</t>
+  </si>
+  <si>
+    <t>An welchem Tag soll das Update durchgeführt werden?</t>
+  </si>
+  <si>
+    <t>Um welche Uhrzeit soll as Update durchgeführt werden?</t>
+  </si>
+  <si>
+    <t>Date:eqNone|Time:eqNone</t>
+  </si>
+  <si>
+    <t>Date:eqNone</t>
+  </si>
+  <si>
+    <t>Time:eqNone</t>
+  </si>
+  <si>
+    <t>Das Update wurde für den {date} um {time} geplant</t>
+  </si>
+  <si>
+    <t>Plane ein Update</t>
+  </si>
+  <si>
+    <t>ScheduleUpdate</t>
   </si>
 </sst>
 </file>
@@ -906,8 +936,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -999,7 +1041,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="99">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1043,6 +1085,12 @@
     <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1086,9 +1134,127 @@
     <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="136">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2207,9 +2373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
-    </sheetView>
+    <sheetView topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -4203,274 +4367,274 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A122:G165 A86:G88 A95:G101 A195:C195 A170:G194 E195:G195 A1:G47 A196:G1048576 A54:G84 C53:G53 A53">
-    <cfRule type="expression" dxfId="73" priority="125">
+    <cfRule type="expression" dxfId="75" priority="125">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="126">
+    <cfRule type="expression" dxfId="74" priority="126">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:G100">
-    <cfRule type="expression" dxfId="71" priority="63">
+    <cfRule type="expression" dxfId="73" priority="63">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="64">
+    <cfRule type="expression" dxfId="72" priority="64">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="expression" dxfId="69" priority="61">
+    <cfRule type="expression" dxfId="71" priority="61">
       <formula>$A164="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="62">
+    <cfRule type="expression" dxfId="70" priority="62">
       <formula>$A164="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:G121 A104:G104 A112:D117 F112:G117 A119:C120 E119:G120 A111:G111 A109:C110 E109:G110 A105:D108 F105:G108 A102:D102 F102:G102 A103:C103 E103:G103">
-    <cfRule type="expression" dxfId="67" priority="57">
+    <cfRule type="expression" dxfId="69" priority="57">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="58">
+    <cfRule type="expression" dxfId="68" priority="58">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:G121 A104:G104 A112:D117 F112:G117 A119:C120 E119:G120 A111:G111 A109:C110 E109:G110 A105:D108 F105:G108 A102:D102 F102:G102 A103:C103 E103:G103">
-    <cfRule type="expression" dxfId="65" priority="59">
+    <cfRule type="expression" dxfId="67" priority="59">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="60">
+    <cfRule type="expression" dxfId="66" priority="60">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:C118 E118:G118">
-    <cfRule type="expression" dxfId="63" priority="53">
+    <cfRule type="expression" dxfId="65" priority="53">
       <formula>$A118="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="54">
+    <cfRule type="expression" dxfId="64" priority="54">
       <formula>$A118="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:C118 E118:G118">
-    <cfRule type="expression" dxfId="61" priority="55">
+    <cfRule type="expression" dxfId="63" priority="55">
       <formula>$A118="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="56">
+    <cfRule type="expression" dxfId="62" priority="56">
       <formula>$A118="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:G169">
-    <cfRule type="expression" dxfId="59" priority="51">
+    <cfRule type="expression" dxfId="61" priority="51">
       <formula>$A166="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="52">
+    <cfRule type="expression" dxfId="60" priority="52">
       <formula>$A166="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="expression" dxfId="57" priority="49">
+    <cfRule type="expression" dxfId="59" priority="49">
       <formula>$A112="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="50">
+    <cfRule type="expression" dxfId="58" priority="50">
       <formula>$A112="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="expression" dxfId="55" priority="47">
+    <cfRule type="expression" dxfId="57" priority="47">
       <formula>$A113="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="48">
+    <cfRule type="expression" dxfId="56" priority="48">
       <formula>$A113="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="expression" dxfId="53" priority="45">
+    <cfRule type="expression" dxfId="55" priority="45">
       <formula>$A114="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="46">
+    <cfRule type="expression" dxfId="54" priority="46">
       <formula>$A114="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="expression" dxfId="51" priority="43">
+    <cfRule type="expression" dxfId="53" priority="43">
       <formula>$A115="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="44">
+    <cfRule type="expression" dxfId="52" priority="44">
       <formula>$A115="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="expression" dxfId="49" priority="41">
+    <cfRule type="expression" dxfId="51" priority="41">
       <formula>$A116="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="42">
+    <cfRule type="expression" dxfId="50" priority="42">
       <formula>$A116="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="expression" dxfId="47" priority="39">
+    <cfRule type="expression" dxfId="49" priority="39">
       <formula>$A117="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="40">
+    <cfRule type="expression" dxfId="48" priority="40">
       <formula>$A117="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118">
-    <cfRule type="expression" dxfId="45" priority="37">
+    <cfRule type="expression" dxfId="47" priority="37">
       <formula>$A118="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="38">
+    <cfRule type="expression" dxfId="46" priority="38">
       <formula>$A118="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119">
-    <cfRule type="expression" dxfId="43" priority="35">
+    <cfRule type="expression" dxfId="45" priority="35">
       <formula>$A119="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="36">
+    <cfRule type="expression" dxfId="44" priority="36">
       <formula>$A119="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D120">
-    <cfRule type="expression" dxfId="41" priority="33">
+    <cfRule type="expression" dxfId="43" priority="33">
       <formula>$A120="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="34">
+    <cfRule type="expression" dxfId="42" priority="34">
       <formula>$A120="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110">
-    <cfRule type="expression" dxfId="39" priority="31">
+    <cfRule type="expression" dxfId="41" priority="31">
       <formula>$A110="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="32">
+    <cfRule type="expression" dxfId="40" priority="32">
       <formula>$A110="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109">
-    <cfRule type="expression" dxfId="37" priority="29">
+    <cfRule type="expression" dxfId="39" priority="29">
       <formula>$A109="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="30">
+    <cfRule type="expression" dxfId="38" priority="30">
       <formula>$A109="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="expression" dxfId="35" priority="27">
+    <cfRule type="expression" dxfId="37" priority="27">
       <formula>$A108="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="28">
+    <cfRule type="expression" dxfId="36" priority="28">
       <formula>$A108="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="33" priority="25">
+    <cfRule type="expression" dxfId="35" priority="25">
       <formula>$A107="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="26">
+    <cfRule type="expression" dxfId="34" priority="26">
       <formula>$A107="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="31" priority="23">
+    <cfRule type="expression" dxfId="33" priority="23">
       <formula>$A106="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="24">
+    <cfRule type="expression" dxfId="32" priority="24">
       <formula>$A106="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="29" priority="21">
+    <cfRule type="expression" dxfId="31" priority="21">
       <formula>$A105="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="22">
+    <cfRule type="expression" dxfId="30" priority="22">
       <formula>$A105="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="27" priority="19">
+    <cfRule type="expression" dxfId="29" priority="19">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="20">
+    <cfRule type="expression" dxfId="28" priority="20">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="25" priority="17">
+    <cfRule type="expression" dxfId="27" priority="17">
       <formula>$A103="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="18">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>$A103="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:G85">
-    <cfRule type="expression" dxfId="23" priority="15">
+    <cfRule type="expression" dxfId="25" priority="15">
       <formula>$A85="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="16">
+    <cfRule type="expression" dxfId="24" priority="16">
       <formula>$A85="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:G90 A93:G94">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="23" priority="13">
       <formula>$A90="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="14">
+    <cfRule type="expression" dxfId="22" priority="14">
       <formula>$A90="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:G89">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>$A89="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>$A89="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:G92">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>$A92="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>$A92="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>$A91="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>$A91="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D195">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>$A195="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>$A195="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:G51 A52 C52:G52">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$A48="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>$A48="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="5" priority="131">
+    <cfRule type="expression" dxfId="11" priority="131">
       <formula>$A53="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="132">
+    <cfRule type="expression" dxfId="10" priority="132">
       <formula>$A53="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$A53="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$A53="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4575,10 +4739,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4593,10 +4757,136 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="97.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:F1000">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$A1="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$A1="Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4819,10 +5109,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F28">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4833,21 +5123,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -1142,441 +1142,7 @@
     <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="136">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="74">
     <dxf>
       <fill>
         <patternFill>
@@ -2363,7 +1929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4367,279 +3933,278 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A122:G165 A86:G88 A95:G101 A195:C195 A170:G194 E195:G195 A1:G47 A196:G1048576 A54:G84 C53:G53 A53">
-    <cfRule type="expression" dxfId="75" priority="125">
+    <cfRule type="expression" dxfId="73" priority="125">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="126">
+    <cfRule type="expression" dxfId="72" priority="126">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:G100">
-    <cfRule type="expression" dxfId="73" priority="63">
+    <cfRule type="expression" dxfId="71" priority="63">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="64">
+    <cfRule type="expression" dxfId="70" priority="64">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="expression" dxfId="71" priority="61">
+    <cfRule type="expression" dxfId="69" priority="61">
       <formula>$A164="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="62">
+    <cfRule type="expression" dxfId="68" priority="62">
       <formula>$A164="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:G121 A104:G104 A112:D117 F112:G117 A119:C120 E119:G120 A111:G111 A109:C110 E109:G110 A105:D108 F105:G108 A102:D102 F102:G102 A103:C103 E103:G103">
-    <cfRule type="expression" dxfId="69" priority="57">
+    <cfRule type="expression" dxfId="67" priority="57">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="58">
+    <cfRule type="expression" dxfId="66" priority="58">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:G121 A104:G104 A112:D117 F112:G117 A119:C120 E119:G120 A111:G111 A109:C110 E109:G110 A105:D108 F105:G108 A102:D102 F102:G102 A103:C103 E103:G103">
-    <cfRule type="expression" dxfId="67" priority="59">
+    <cfRule type="expression" dxfId="65" priority="59">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="60">
+    <cfRule type="expression" dxfId="64" priority="60">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:C118 E118:G118">
-    <cfRule type="expression" dxfId="65" priority="53">
+    <cfRule type="expression" dxfId="63" priority="53">
       <formula>$A118="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="54">
+    <cfRule type="expression" dxfId="62" priority="54">
       <formula>$A118="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:C118 E118:G118">
-    <cfRule type="expression" dxfId="63" priority="55">
+    <cfRule type="expression" dxfId="61" priority="55">
       <formula>$A118="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="56">
+    <cfRule type="expression" dxfId="60" priority="56">
       <formula>$A118="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:G169">
-    <cfRule type="expression" dxfId="61" priority="51">
+    <cfRule type="expression" dxfId="59" priority="51">
       <formula>$A166="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="52">
+    <cfRule type="expression" dxfId="58" priority="52">
       <formula>$A166="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="expression" dxfId="59" priority="49">
+    <cfRule type="expression" dxfId="57" priority="49">
       <formula>$A112="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="50">
+    <cfRule type="expression" dxfId="56" priority="50">
       <formula>$A112="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="expression" dxfId="57" priority="47">
+    <cfRule type="expression" dxfId="55" priority="47">
       <formula>$A113="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="48">
+    <cfRule type="expression" dxfId="54" priority="48">
       <formula>$A113="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="expression" dxfId="55" priority="45">
+    <cfRule type="expression" dxfId="53" priority="45">
       <formula>$A114="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="46">
+    <cfRule type="expression" dxfId="52" priority="46">
       <formula>$A114="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="expression" dxfId="53" priority="43">
+    <cfRule type="expression" dxfId="51" priority="43">
       <formula>$A115="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="44">
+    <cfRule type="expression" dxfId="50" priority="44">
       <formula>$A115="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="expression" dxfId="51" priority="41">
+    <cfRule type="expression" dxfId="49" priority="41">
       <formula>$A116="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="42">
+    <cfRule type="expression" dxfId="48" priority="42">
       <formula>$A116="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="expression" dxfId="49" priority="39">
+    <cfRule type="expression" dxfId="47" priority="39">
       <formula>$A117="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="40">
+    <cfRule type="expression" dxfId="46" priority="40">
       <formula>$A117="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118">
-    <cfRule type="expression" dxfId="47" priority="37">
+    <cfRule type="expression" dxfId="45" priority="37">
       <formula>$A118="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="38">
+    <cfRule type="expression" dxfId="44" priority="38">
       <formula>$A118="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119">
-    <cfRule type="expression" dxfId="45" priority="35">
+    <cfRule type="expression" dxfId="43" priority="35">
       <formula>$A119="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="36">
+    <cfRule type="expression" dxfId="42" priority="36">
       <formula>$A119="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D120">
-    <cfRule type="expression" dxfId="43" priority="33">
+    <cfRule type="expression" dxfId="41" priority="33">
       <formula>$A120="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="34">
+    <cfRule type="expression" dxfId="40" priority="34">
       <formula>$A120="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110">
-    <cfRule type="expression" dxfId="41" priority="31">
+    <cfRule type="expression" dxfId="39" priority="31">
       <formula>$A110="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="32">
+    <cfRule type="expression" dxfId="38" priority="32">
       <formula>$A110="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109">
-    <cfRule type="expression" dxfId="39" priority="29">
+    <cfRule type="expression" dxfId="37" priority="29">
       <formula>$A109="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="30">
+    <cfRule type="expression" dxfId="36" priority="30">
       <formula>$A109="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="expression" dxfId="37" priority="27">
+    <cfRule type="expression" dxfId="35" priority="27">
       <formula>$A108="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="28">
+    <cfRule type="expression" dxfId="34" priority="28">
       <formula>$A108="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="35" priority="25">
+    <cfRule type="expression" dxfId="33" priority="25">
       <formula>$A107="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="26">
+    <cfRule type="expression" dxfId="32" priority="26">
       <formula>$A107="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="33" priority="23">
+    <cfRule type="expression" dxfId="31" priority="23">
       <formula>$A106="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="24">
+    <cfRule type="expression" dxfId="30" priority="24">
       <formula>$A106="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="31" priority="21">
+    <cfRule type="expression" dxfId="29" priority="21">
       <formula>$A105="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="22">
+    <cfRule type="expression" dxfId="28" priority="22">
       <formula>$A105="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="29" priority="19">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="27" priority="17">
+    <cfRule type="expression" dxfId="25" priority="17">
       <formula>$A103="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="18">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>$A103="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:G85">
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="23" priority="15">
       <formula>$A85="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="16">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>$A85="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:G90 A93:G94">
-    <cfRule type="expression" dxfId="23" priority="13">
+    <cfRule type="expression" dxfId="21" priority="13">
       <formula>$A90="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>$A90="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:G89">
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>$A89="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>$A89="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:G92">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>$A92="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>$A92="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>$A91="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>$A91="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D195">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$A195="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>$A195="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:G51 A52 C52:G52">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$A48="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>$A48="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="11" priority="131">
+    <cfRule type="expression" dxfId="9" priority="131">
       <formula>$A53="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="132">
+    <cfRule type="expression" dxfId="8" priority="132">
       <formula>$A53="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$A53="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$A53="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4739,10 +4304,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4864,15 +4429,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1000">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5109,10 +4673,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F28">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="28860" windowHeight="17520" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sentence" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="287">
   <si>
     <t>Requirement</t>
   </si>
@@ -864,15 +864,6 @@
     <t>Um welche Uhrzeit soll as Update durchgeführt werden?</t>
   </si>
   <si>
-    <t>Date:eqNone|Time:eqNone</t>
-  </si>
-  <si>
-    <t>Date:eqNone</t>
-  </si>
-  <si>
-    <t>Time:eqNone</t>
-  </si>
-  <si>
     <t>Das Update wurde für den {date} um {time} geplant</t>
   </si>
   <si>
@@ -880,6 +871,21 @@
   </si>
   <si>
     <t>ScheduleUpdate</t>
+  </si>
+  <si>
+    <t>UpdateDate:eqNone|UpdateTime:eqNone</t>
+  </si>
+  <si>
+    <t>UpdateTime:eqNone</t>
+  </si>
+  <si>
+    <t>UpdateDate:eqNone</t>
+  </si>
+  <si>
+    <t>{date}</t>
+  </si>
+  <si>
+    <t>{time}</t>
   </si>
 </sst>
 </file>
@@ -936,8 +942,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1041,7 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="107">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1091,6 +1105,10 @@
     <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1140,9 +1158,97 @@
     <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="86">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1929,7 +2035,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1939,7 +2045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -3933,274 +4039,274 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A122:G165 A86:G88 A95:G101 A195:C195 A170:G194 E195:G195 A1:G47 A196:G1048576 A54:G84 C53:G53 A53">
-    <cfRule type="expression" dxfId="73" priority="125">
+    <cfRule type="expression" dxfId="77" priority="125">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="126">
+    <cfRule type="expression" dxfId="76" priority="126">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:G100">
-    <cfRule type="expression" dxfId="71" priority="63">
+    <cfRule type="expression" dxfId="75" priority="63">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="64">
+    <cfRule type="expression" dxfId="74" priority="64">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="expression" dxfId="69" priority="61">
+    <cfRule type="expression" dxfId="73" priority="61">
       <formula>$A164="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="62">
+    <cfRule type="expression" dxfId="72" priority="62">
       <formula>$A164="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:G121 A104:G104 A112:D117 F112:G117 A119:C120 E119:G120 A111:G111 A109:C110 E109:G110 A105:D108 F105:G108 A102:D102 F102:G102 A103:C103 E103:G103">
-    <cfRule type="expression" dxfId="67" priority="57">
+    <cfRule type="expression" dxfId="71" priority="57">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="58">
+    <cfRule type="expression" dxfId="70" priority="58">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:G121 A104:G104 A112:D117 F112:G117 A119:C120 E119:G120 A111:G111 A109:C110 E109:G110 A105:D108 F105:G108 A102:D102 F102:G102 A103:C103 E103:G103">
-    <cfRule type="expression" dxfId="65" priority="59">
+    <cfRule type="expression" dxfId="69" priority="59">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="60">
+    <cfRule type="expression" dxfId="68" priority="60">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:C118 E118:G118">
-    <cfRule type="expression" dxfId="63" priority="53">
+    <cfRule type="expression" dxfId="67" priority="53">
       <formula>$A118="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="54">
+    <cfRule type="expression" dxfId="66" priority="54">
       <formula>$A118="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:C118 E118:G118">
-    <cfRule type="expression" dxfId="61" priority="55">
+    <cfRule type="expression" dxfId="65" priority="55">
       <formula>$A118="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="56">
+    <cfRule type="expression" dxfId="64" priority="56">
       <formula>$A118="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:G169">
-    <cfRule type="expression" dxfId="59" priority="51">
+    <cfRule type="expression" dxfId="63" priority="51">
       <formula>$A166="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="52">
+    <cfRule type="expression" dxfId="62" priority="52">
       <formula>$A166="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="expression" dxfId="57" priority="49">
+    <cfRule type="expression" dxfId="61" priority="49">
       <formula>$A112="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="50">
+    <cfRule type="expression" dxfId="60" priority="50">
       <formula>$A112="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="expression" dxfId="55" priority="47">
+    <cfRule type="expression" dxfId="59" priority="47">
       <formula>$A113="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="48">
+    <cfRule type="expression" dxfId="58" priority="48">
       <formula>$A113="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="expression" dxfId="53" priority="45">
+    <cfRule type="expression" dxfId="57" priority="45">
       <formula>$A114="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="46">
+    <cfRule type="expression" dxfId="56" priority="46">
       <formula>$A114="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="expression" dxfId="51" priority="43">
+    <cfRule type="expression" dxfId="55" priority="43">
       <formula>$A115="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="44">
+    <cfRule type="expression" dxfId="54" priority="44">
       <formula>$A115="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="expression" dxfId="49" priority="41">
+    <cfRule type="expression" dxfId="53" priority="41">
       <formula>$A116="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="42">
+    <cfRule type="expression" dxfId="52" priority="42">
       <formula>$A116="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="expression" dxfId="47" priority="39">
+    <cfRule type="expression" dxfId="51" priority="39">
       <formula>$A117="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="40">
+    <cfRule type="expression" dxfId="50" priority="40">
       <formula>$A117="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118">
-    <cfRule type="expression" dxfId="45" priority="37">
+    <cfRule type="expression" dxfId="49" priority="37">
       <formula>$A118="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="38">
+    <cfRule type="expression" dxfId="48" priority="38">
       <formula>$A118="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119">
-    <cfRule type="expression" dxfId="43" priority="35">
+    <cfRule type="expression" dxfId="47" priority="35">
       <formula>$A119="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="36">
+    <cfRule type="expression" dxfId="46" priority="36">
       <formula>$A119="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D120">
-    <cfRule type="expression" dxfId="41" priority="33">
+    <cfRule type="expression" dxfId="45" priority="33">
       <formula>$A120="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="34">
+    <cfRule type="expression" dxfId="44" priority="34">
       <formula>$A120="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110">
-    <cfRule type="expression" dxfId="39" priority="31">
+    <cfRule type="expression" dxfId="43" priority="31">
       <formula>$A110="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="32">
+    <cfRule type="expression" dxfId="42" priority="32">
       <formula>$A110="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109">
-    <cfRule type="expression" dxfId="37" priority="29">
+    <cfRule type="expression" dxfId="41" priority="29">
       <formula>$A109="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="30">
+    <cfRule type="expression" dxfId="40" priority="30">
       <formula>$A109="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="expression" dxfId="35" priority="27">
+    <cfRule type="expression" dxfId="39" priority="27">
       <formula>$A108="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="28">
+    <cfRule type="expression" dxfId="38" priority="28">
       <formula>$A108="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="33" priority="25">
+    <cfRule type="expression" dxfId="37" priority="25">
       <formula>$A107="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="26">
+    <cfRule type="expression" dxfId="36" priority="26">
       <formula>$A107="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="31" priority="23">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>$A106="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="24">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>$A106="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="29" priority="21">
+    <cfRule type="expression" dxfId="33" priority="21">
       <formula>$A105="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="22">
+    <cfRule type="expression" dxfId="32" priority="22">
       <formula>$A105="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="27" priority="19">
+    <cfRule type="expression" dxfId="31" priority="19">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="20">
+    <cfRule type="expression" dxfId="30" priority="20">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="25" priority="17">
+    <cfRule type="expression" dxfId="29" priority="17">
       <formula>$A103="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="18">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>$A103="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:G85">
-    <cfRule type="expression" dxfId="23" priority="15">
+    <cfRule type="expression" dxfId="27" priority="15">
       <formula>$A85="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="16">
+    <cfRule type="expression" dxfId="26" priority="16">
       <formula>$A85="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:G90 A93:G94">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="25" priority="13">
       <formula>$A90="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="14">
+    <cfRule type="expression" dxfId="24" priority="14">
       <formula>$A90="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:G89">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="23" priority="11">
       <formula>$A89="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>$A89="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:G92">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>$A92="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>$A92="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="19" priority="7">
       <formula>$A91="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>$A91="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D195">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>$A195="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>$A195="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:G51 A52 C52:G52">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>$A48="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>$A48="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="9" priority="131">
+    <cfRule type="expression" dxfId="13" priority="131">
       <formula>$A53="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="132">
+    <cfRule type="expression" dxfId="12" priority="132">
       <formula>$A53="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$A53="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$A53="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4304,10 +4410,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4322,10 +4428,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4366,7 +4472,7 @@
         <v>275</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4374,32 +4480,32 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>279</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>285</v>
+      </c>
+      <c r="D4" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>280</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>286</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4407,36 +4513,59 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
       <c r="C7" t="s">
-        <v>282</v>
-      </c>
-      <c r="E7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" t="s">
         <v>247</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:F1000">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="A1:F1002">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4673,10 +4802,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F28">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -873,19 +873,19 @@
     <t>ScheduleUpdate</t>
   </si>
   <si>
-    <t>UpdateDate:eqNone|UpdateTime:eqNone</t>
-  </si>
-  <si>
-    <t>UpdateTime:eqNone</t>
-  </si>
-  <si>
-    <t>UpdateDate:eqNone</t>
-  </si>
-  <si>
     <t>{date}</t>
   </si>
   <si>
     <t>{time}</t>
+  </si>
+  <si>
+    <t>ScheduleUpdateDate:eqNone|ScheduleUpdateTime:eqNone</t>
+  </si>
+  <si>
+    <t>ScheduleUpdateTime:eqNone</t>
+  </si>
+  <si>
+    <t>ScheduleUpdateDate:eqNone</t>
   </si>
 </sst>
 </file>
@@ -942,8 +942,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1055,7 +1059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="111">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1109,6 +1113,8 @@
     <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1162,9 +1168,39 @@
     <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="90">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2045,7 +2081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A65" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -4039,274 +4075,274 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A122:G165 A86:G88 A95:G101 A195:C195 A170:G194 E195:G195 A1:G47 A196:G1048576 A54:G84 C53:G53 A53">
-    <cfRule type="expression" dxfId="77" priority="125">
+    <cfRule type="expression" dxfId="81" priority="125">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="126">
+    <cfRule type="expression" dxfId="80" priority="126">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:G100">
-    <cfRule type="expression" dxfId="75" priority="63">
+    <cfRule type="expression" dxfId="79" priority="63">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="64">
+    <cfRule type="expression" dxfId="78" priority="64">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="expression" dxfId="73" priority="61">
+    <cfRule type="expression" dxfId="77" priority="61">
       <formula>$A164="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="62">
+    <cfRule type="expression" dxfId="76" priority="62">
       <formula>$A164="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:G121 A104:G104 A112:D117 F112:G117 A119:C120 E119:G120 A111:G111 A109:C110 E109:G110 A105:D108 F105:G108 A102:D102 F102:G102 A103:C103 E103:G103">
-    <cfRule type="expression" dxfId="71" priority="57">
+    <cfRule type="expression" dxfId="75" priority="57">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="58">
+    <cfRule type="expression" dxfId="74" priority="58">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:G121 A104:G104 A112:D117 F112:G117 A119:C120 E119:G120 A111:G111 A109:C110 E109:G110 A105:D108 F105:G108 A102:D102 F102:G102 A103:C103 E103:G103">
-    <cfRule type="expression" dxfId="69" priority="59">
+    <cfRule type="expression" dxfId="73" priority="59">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="60">
+    <cfRule type="expression" dxfId="72" priority="60">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:C118 E118:G118">
-    <cfRule type="expression" dxfId="67" priority="53">
+    <cfRule type="expression" dxfId="71" priority="53">
       <formula>$A118="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="54">
+    <cfRule type="expression" dxfId="70" priority="54">
       <formula>$A118="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:C118 E118:G118">
-    <cfRule type="expression" dxfId="65" priority="55">
+    <cfRule type="expression" dxfId="69" priority="55">
       <formula>$A118="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="56">
+    <cfRule type="expression" dxfId="68" priority="56">
       <formula>$A118="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:G169">
-    <cfRule type="expression" dxfId="63" priority="51">
+    <cfRule type="expression" dxfId="67" priority="51">
       <formula>$A166="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="52">
+    <cfRule type="expression" dxfId="66" priority="52">
       <formula>$A166="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="expression" dxfId="61" priority="49">
+    <cfRule type="expression" dxfId="65" priority="49">
       <formula>$A112="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="50">
+    <cfRule type="expression" dxfId="64" priority="50">
       <formula>$A112="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="expression" dxfId="59" priority="47">
+    <cfRule type="expression" dxfId="63" priority="47">
       <formula>$A113="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="48">
+    <cfRule type="expression" dxfId="62" priority="48">
       <formula>$A113="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="expression" dxfId="57" priority="45">
+    <cfRule type="expression" dxfId="61" priority="45">
       <formula>$A114="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="46">
+    <cfRule type="expression" dxfId="60" priority="46">
       <formula>$A114="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="expression" dxfId="55" priority="43">
+    <cfRule type="expression" dxfId="59" priority="43">
       <formula>$A115="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="44">
+    <cfRule type="expression" dxfId="58" priority="44">
       <formula>$A115="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="expression" dxfId="53" priority="41">
+    <cfRule type="expression" dxfId="57" priority="41">
       <formula>$A116="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="42">
+    <cfRule type="expression" dxfId="56" priority="42">
       <formula>$A116="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="expression" dxfId="51" priority="39">
+    <cfRule type="expression" dxfId="55" priority="39">
       <formula>$A117="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="40">
+    <cfRule type="expression" dxfId="54" priority="40">
       <formula>$A117="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118">
-    <cfRule type="expression" dxfId="49" priority="37">
+    <cfRule type="expression" dxfId="53" priority="37">
       <formula>$A118="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="38">
+    <cfRule type="expression" dxfId="52" priority="38">
       <formula>$A118="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119">
-    <cfRule type="expression" dxfId="47" priority="35">
+    <cfRule type="expression" dxfId="51" priority="35">
       <formula>$A119="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="36">
+    <cfRule type="expression" dxfId="50" priority="36">
       <formula>$A119="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D120">
-    <cfRule type="expression" dxfId="45" priority="33">
+    <cfRule type="expression" dxfId="49" priority="33">
       <formula>$A120="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="34">
+    <cfRule type="expression" dxfId="48" priority="34">
       <formula>$A120="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110">
-    <cfRule type="expression" dxfId="43" priority="31">
+    <cfRule type="expression" dxfId="47" priority="31">
       <formula>$A110="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="32">
+    <cfRule type="expression" dxfId="46" priority="32">
       <formula>$A110="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109">
-    <cfRule type="expression" dxfId="41" priority="29">
+    <cfRule type="expression" dxfId="45" priority="29">
       <formula>$A109="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="30">
+    <cfRule type="expression" dxfId="44" priority="30">
       <formula>$A109="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="expression" dxfId="39" priority="27">
+    <cfRule type="expression" dxfId="43" priority="27">
       <formula>$A108="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="28">
+    <cfRule type="expression" dxfId="42" priority="28">
       <formula>$A108="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="37" priority="25">
+    <cfRule type="expression" dxfId="41" priority="25">
       <formula>$A107="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="26">
+    <cfRule type="expression" dxfId="40" priority="26">
       <formula>$A107="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="35" priority="23">
+    <cfRule type="expression" dxfId="39" priority="23">
       <formula>$A106="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="24">
+    <cfRule type="expression" dxfId="38" priority="24">
       <formula>$A106="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="33" priority="21">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>$A105="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="22">
+    <cfRule type="expression" dxfId="36" priority="22">
       <formula>$A105="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="31" priority="19">
+    <cfRule type="expression" dxfId="35" priority="19">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="20">
+    <cfRule type="expression" dxfId="34" priority="20">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="29" priority="17">
+    <cfRule type="expression" dxfId="33" priority="17">
       <formula>$A103="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="18">
+    <cfRule type="expression" dxfId="32" priority="18">
       <formula>$A103="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:G85">
-    <cfRule type="expression" dxfId="27" priority="15">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>$A85="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="16">
+    <cfRule type="expression" dxfId="30" priority="16">
       <formula>$A85="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:G90 A93:G94">
-    <cfRule type="expression" dxfId="25" priority="13">
+    <cfRule type="expression" dxfId="29" priority="13">
       <formula>$A90="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="14">
+    <cfRule type="expression" dxfId="28" priority="14">
       <formula>$A90="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:G89">
-    <cfRule type="expression" dxfId="23" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>$A89="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="12">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>$A89="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:G92">
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>$A92="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="24" priority="10">
       <formula>$A92="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91">
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>$A91="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>$A91="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D195">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>$A195="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="20" priority="6">
       <formula>$A195="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:G51 A52 C52:G52">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>$A48="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>$A48="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="13" priority="131">
+    <cfRule type="expression" dxfId="17" priority="131">
       <formula>$A53="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="132">
+    <cfRule type="expression" dxfId="16" priority="132">
       <formula>$A53="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>$A53="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>$A53="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4410,10 +4446,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4431,13 +4467,13 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.1640625" customWidth="1"/>
-    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" customWidth="1"/>
     <col min="3" max="3" width="97.1640625" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
@@ -4491,7 +4527,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D4" t="s">
         <v>281</v>
@@ -4502,7 +4538,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D5" t="s">
         <v>281</v>
@@ -4513,7 +4549,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
         <v>276</v>
@@ -4524,7 +4560,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
         <v>277</v>
@@ -4535,7 +4571,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C8" t="s">
         <v>278</v>
@@ -4557,10 +4593,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1002">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4802,10 +4838,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F28">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="288">
   <si>
     <t>Requirement</t>
   </si>
@@ -886,6 +886,9 @@
   </si>
   <si>
     <t>ScheduleUpdateDate:eqNone</t>
+  </si>
+  <si>
+    <t>ScheduleUpdateDate:neqNone|ScheduleUpdateTime:neqNone</t>
   </si>
 </sst>
 </file>
@@ -942,8 +945,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1059,7 +1064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="113">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1115,6 +1120,7 @@
     <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1170,9 +1176,24 @@
     <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="92">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2081,7 +2102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -4075,274 +4096,274 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A122:G165 A86:G88 A95:G101 A195:C195 A170:G194 E195:G195 A1:G47 A196:G1048576 A54:G84 C53:G53 A53">
-    <cfRule type="expression" dxfId="81" priority="125">
+    <cfRule type="expression" dxfId="83" priority="125">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="126">
+    <cfRule type="expression" dxfId="82" priority="126">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:G100">
-    <cfRule type="expression" dxfId="79" priority="63">
+    <cfRule type="expression" dxfId="81" priority="63">
       <formula>$A95="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="64">
+    <cfRule type="expression" dxfId="80" priority="64">
       <formula>$A95="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="expression" dxfId="77" priority="61">
+    <cfRule type="expression" dxfId="79" priority="61">
       <formula>$A164="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="62">
+    <cfRule type="expression" dxfId="78" priority="62">
       <formula>$A164="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:G121 A104:G104 A112:D117 F112:G117 A119:C120 E119:G120 A111:G111 A109:C110 E109:G110 A105:D108 F105:G108 A102:D102 F102:G102 A103:C103 E103:G103">
-    <cfRule type="expression" dxfId="75" priority="57">
+    <cfRule type="expression" dxfId="77" priority="57">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="58">
+    <cfRule type="expression" dxfId="76" priority="58">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:G121 A104:G104 A112:D117 F112:G117 A119:C120 E119:G120 A111:G111 A109:C110 E109:G110 A105:D108 F105:G108 A102:D102 F102:G102 A103:C103 E103:G103">
-    <cfRule type="expression" dxfId="73" priority="59">
+    <cfRule type="expression" dxfId="75" priority="59">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="60">
+    <cfRule type="expression" dxfId="74" priority="60">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:C118 E118:G118">
-    <cfRule type="expression" dxfId="71" priority="53">
+    <cfRule type="expression" dxfId="73" priority="53">
       <formula>$A118="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="54">
+    <cfRule type="expression" dxfId="72" priority="54">
       <formula>$A118="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:C118 E118:G118">
-    <cfRule type="expression" dxfId="69" priority="55">
+    <cfRule type="expression" dxfId="71" priority="55">
       <formula>$A118="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="56">
+    <cfRule type="expression" dxfId="70" priority="56">
       <formula>$A118="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:G169">
-    <cfRule type="expression" dxfId="67" priority="51">
+    <cfRule type="expression" dxfId="69" priority="51">
       <formula>$A166="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="52">
+    <cfRule type="expression" dxfId="68" priority="52">
       <formula>$A166="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="expression" dxfId="65" priority="49">
+    <cfRule type="expression" dxfId="67" priority="49">
       <formula>$A112="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="50">
+    <cfRule type="expression" dxfId="66" priority="50">
       <formula>$A112="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="expression" dxfId="63" priority="47">
+    <cfRule type="expression" dxfId="65" priority="47">
       <formula>$A113="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="48">
+    <cfRule type="expression" dxfId="64" priority="48">
       <formula>$A113="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="expression" dxfId="61" priority="45">
+    <cfRule type="expression" dxfId="63" priority="45">
       <formula>$A114="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="46">
+    <cfRule type="expression" dxfId="62" priority="46">
       <formula>$A114="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="expression" dxfId="59" priority="43">
+    <cfRule type="expression" dxfId="61" priority="43">
       <formula>$A115="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="44">
+    <cfRule type="expression" dxfId="60" priority="44">
       <formula>$A115="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="expression" dxfId="57" priority="41">
+    <cfRule type="expression" dxfId="59" priority="41">
       <formula>$A116="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="42">
+    <cfRule type="expression" dxfId="58" priority="42">
       <formula>$A116="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="expression" dxfId="55" priority="39">
+    <cfRule type="expression" dxfId="57" priority="39">
       <formula>$A117="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="40">
+    <cfRule type="expression" dxfId="56" priority="40">
       <formula>$A117="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118">
-    <cfRule type="expression" dxfId="53" priority="37">
+    <cfRule type="expression" dxfId="55" priority="37">
       <formula>$A118="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="38">
+    <cfRule type="expression" dxfId="54" priority="38">
       <formula>$A118="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119">
-    <cfRule type="expression" dxfId="51" priority="35">
+    <cfRule type="expression" dxfId="53" priority="35">
       <formula>$A119="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="36">
+    <cfRule type="expression" dxfId="52" priority="36">
       <formula>$A119="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D120">
-    <cfRule type="expression" dxfId="49" priority="33">
+    <cfRule type="expression" dxfId="51" priority="33">
       <formula>$A120="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="34">
+    <cfRule type="expression" dxfId="50" priority="34">
       <formula>$A120="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110">
-    <cfRule type="expression" dxfId="47" priority="31">
+    <cfRule type="expression" dxfId="49" priority="31">
       <formula>$A110="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="32">
+    <cfRule type="expression" dxfId="48" priority="32">
       <formula>$A110="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109">
-    <cfRule type="expression" dxfId="45" priority="29">
+    <cfRule type="expression" dxfId="47" priority="29">
       <formula>$A109="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="30">
+    <cfRule type="expression" dxfId="46" priority="30">
       <formula>$A109="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="expression" dxfId="43" priority="27">
+    <cfRule type="expression" dxfId="45" priority="27">
       <formula>$A108="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="28">
+    <cfRule type="expression" dxfId="44" priority="28">
       <formula>$A108="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="41" priority="25">
+    <cfRule type="expression" dxfId="43" priority="25">
       <formula>$A107="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="26">
+    <cfRule type="expression" dxfId="42" priority="26">
       <formula>$A107="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="39" priority="23">
+    <cfRule type="expression" dxfId="41" priority="23">
       <formula>$A106="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="24">
+    <cfRule type="expression" dxfId="40" priority="24">
       <formula>$A106="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="37" priority="21">
+    <cfRule type="expression" dxfId="39" priority="21">
       <formula>$A105="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="22">
+    <cfRule type="expression" dxfId="38" priority="22">
       <formula>$A105="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="35" priority="19">
+    <cfRule type="expression" dxfId="37" priority="19">
       <formula>$A102="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="20">
+    <cfRule type="expression" dxfId="36" priority="20">
       <formula>$A102="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="33" priority="17">
+    <cfRule type="expression" dxfId="35" priority="17">
       <formula>$A103="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="18">
+    <cfRule type="expression" dxfId="34" priority="18">
       <formula>$A103="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:G85">
-    <cfRule type="expression" dxfId="31" priority="15">
+    <cfRule type="expression" dxfId="33" priority="15">
       <formula>$A85="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="16">
+    <cfRule type="expression" dxfId="32" priority="16">
       <formula>$A85="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:G90 A93:G94">
-    <cfRule type="expression" dxfId="29" priority="13">
+    <cfRule type="expression" dxfId="31" priority="13">
       <formula>$A90="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>$A90="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:G89">
-    <cfRule type="expression" dxfId="27" priority="11">
+    <cfRule type="expression" dxfId="29" priority="11">
       <formula>$A89="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="12">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>$A89="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:G92">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>$A92="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>$A92="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>$A91="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>$A91="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D195">
-    <cfRule type="expression" dxfId="21" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>$A195="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>$A195="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:G51 A52 C52:G52">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>$A48="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>$A48="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="17" priority="131">
+    <cfRule type="expression" dxfId="19" priority="131">
       <formula>$A53="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="132">
+    <cfRule type="expression" dxfId="18" priority="132">
       <formula>$A53="Q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$A53="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>$A53="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4446,10 +4467,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4467,7 +4488,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4581,6 +4602,9 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>287</v>
+      </c>
       <c r="C9" t="s">
         <v>279</v>
       </c>
@@ -4593,10 +4617,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1002">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4838,10 +4862,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F28">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$A1="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$A1="Q"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -888,7 +888,7 @@
     <t>ScheduleUpdateDate:eqNone</t>
   </si>
   <si>
-    <t>ScheduleUpdateDate:neqNone|ScheduleUpdateTime:neqNone</t>
+    <t>ScheduleUpdateDate:neNone|ScheduleUpdateTime:neNone</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -4488,7 +4488,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -864,9 +864,6 @@
     <t>Um welche Uhrzeit soll as Update durchgeführt werden?</t>
   </si>
   <si>
-    <t>Das Update wurde für den {date} um {time} geplant</t>
-  </si>
-  <si>
     <t>Plane ein Update</t>
   </si>
   <si>
@@ -889,6 +886,9 @@
   </si>
   <si>
     <t>ScheduleUpdateDate:neNone|ScheduleUpdateTime:neNone</t>
+  </si>
+  <si>
+    <t>Das Update wurde für den {scheduleupdatedate} um {scheduleupdatetime} geplant</t>
   </si>
 </sst>
 </file>
@@ -4488,7 +4488,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4529,7 +4529,7 @@
         <v>275</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4537,10 +4537,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" t="s">
         <v>280</v>
-      </c>
-      <c r="D3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4548,10 +4548,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4559,10 +4559,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4570,7 +4570,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
         <v>276</v>
@@ -4581,7 +4581,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
         <v>277</v>
@@ -4592,7 +4592,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
         <v>278</v>
@@ -4603,13 +4603,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" t="s">
         <v>287</v>
       </c>
-      <c r="C9" t="s">
-        <v>279</v>
-      </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F9" t="s">
         <v>247</v>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -129,9 +129,6 @@
     <t>Gute Nacht</t>
   </si>
   <si>
-    <t>Ist es nicht ein bisschen früß um Gute Nacht zu sagen?</t>
-  </si>
-  <si>
     <t>Gute Nacht!</t>
   </si>
   <si>
@@ -889,6 +886,9 @@
   </si>
   <si>
     <t>Das Update wurde für den {scheduleupdatedate} um {scheduleupdatetime} geplant</t>
+  </si>
+  <si>
+    <t>Ist es nicht ein bisschen früh um Gute Nacht zu sagen?</t>
   </si>
 </sst>
 </file>
@@ -945,8 +945,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1064,7 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="115">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1121,6 +1123,7 @@
     <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1177,6 +1180,7 @@
     <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="92">
@@ -2102,7 +2106,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71:C72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -2132,10 +2138,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2231,7 +2237,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -2242,7 +2248,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -2300,16 +2306,16 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
         <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2317,16 +2323,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
         <v>78</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2405,7 +2411,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2422,7 +2428,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2464,7 +2470,7 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2472,10 +2478,10 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
         <v>35</v>
-      </c>
-      <c r="D28" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2483,16 +2489,16 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>287</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2500,10 +2506,10 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2511,10 +2517,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2522,10 +2528,10 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2533,10 +2539,10 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2544,10 +2550,10 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2555,10 +2561,10 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2566,10 +2572,10 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2577,10 +2583,10 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2588,13 +2594,13 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2602,10 +2608,10 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2613,10 +2619,10 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2624,10 +2630,10 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2635,10 +2641,10 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2646,10 +2652,10 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2657,13 +2663,13 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2671,10 +2677,10 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2682,10 +2688,10 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2693,10 +2699,10 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2704,10 +2710,10 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2715,13 +2721,13 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2729,10 +2735,10 @@
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2740,10 +2746,10 @@
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2751,10 +2757,10 @@
         <v>5</v>
       </c>
       <c r="C56" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" t="s">
         <v>82</v>
-      </c>
-      <c r="E56" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2762,10 +2768,10 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2773,7 +2779,7 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2781,13 +2787,13 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2795,13 +2801,13 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2809,10 +2815,10 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2820,10 +2826,10 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2831,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2842,10 +2848,10 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2853,10 +2859,10 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2864,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2875,10 +2881,10 @@
         <v>5</v>
       </c>
       <c r="C69" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" t="s">
         <v>102</v>
-      </c>
-      <c r="E69" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2886,16 +2892,16 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F70" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2903,16 +2909,16 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2920,16 +2926,16 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F72" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2937,7 +2943,7 @@
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E74" t="s">
         <v>21</v>
@@ -2948,7 +2954,7 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E75" t="s">
         <v>21</v>
@@ -2959,7 +2965,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E76" t="s">
         <v>21</v>
@@ -2970,7 +2976,7 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
         <v>21</v>
@@ -2981,7 +2987,7 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
@@ -2992,10 +2998,10 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" t="s">
         <v>253</v>
-      </c>
-      <c r="C79" t="s">
-        <v>254</v>
       </c>
       <c r="D79" t="s">
         <v>21</v>
@@ -3006,10 +3012,10 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D80" t="s">
         <v>21</v>
@@ -3020,7 +3026,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E82" t="s">
         <v>32</v>
@@ -3031,7 +3037,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E83" t="s">
         <v>32</v>
@@ -3042,7 +3048,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E84" t="s">
         <v>32</v>
@@ -3053,7 +3059,7 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E85" t="s">
         <v>32</v>
@@ -3064,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E86" t="s">
         <v>32</v>
@@ -3075,13 +3081,13 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D87" t="s">
         <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3089,7 +3095,7 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E89" t="s">
         <v>32</v>
@@ -3100,7 +3106,7 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E90" t="s">
         <v>32</v>
@@ -3111,7 +3117,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E91" t="s">
         <v>32</v>
@@ -3122,7 +3128,7 @@
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E92" t="s">
         <v>32</v>
@@ -3133,16 +3139,16 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C93" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D93" t="s">
         <v>32</v>
       </c>
       <c r="F93" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3150,10 +3156,10 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3161,10 +3167,10 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3172,10 +3178,10 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3183,10 +3189,10 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
+        <v>181</v>
+      </c>
+      <c r="D98" t="s">
         <v>182</v>
-      </c>
-      <c r="D98" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3194,10 +3200,10 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D99" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3205,10 +3211,10 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3216,10 +3222,10 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3227,10 +3233,10 @@
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3238,10 +3244,10 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3249,10 +3255,10 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3260,10 +3266,10 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3271,10 +3277,10 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3282,10 +3288,10 @@
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3293,10 +3299,10 @@
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3304,10 +3310,10 @@
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3315,10 +3321,10 @@
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3326,10 +3332,10 @@
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3337,10 +3343,10 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3348,10 +3354,10 @@
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3359,10 +3365,10 @@
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3370,13 +3376,13 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
+        <v>213</v>
+      </c>
+      <c r="C118" t="s">
         <v>214</v>
       </c>
-      <c r="C118" t="s">
-        <v>215</v>
-      </c>
       <c r="D118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3384,13 +3390,13 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
+        <v>215</v>
+      </c>
+      <c r="C119" t="s">
         <v>216</v>
       </c>
-      <c r="C119" t="s">
-        <v>217</v>
-      </c>
       <c r="D119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3398,10 +3404,10 @@
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3409,10 +3415,10 @@
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E122" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3420,10 +3426,10 @@
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3431,13 +3437,13 @@
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D124" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F124" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3445,10 +3451,10 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3456,10 +3462,10 @@
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3467,10 +3473,10 @@
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E128" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3478,10 +3484,10 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D129" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3489,10 +3495,10 @@
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D130" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3500,10 +3506,10 @@
         <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3511,10 +3517,10 @@
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E133" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3522,10 +3528,10 @@
         <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3533,10 +3539,10 @@
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D135" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3544,10 +3550,10 @@
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E137" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3555,10 +3561,10 @@
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E138" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3566,10 +3572,10 @@
         <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D139" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3577,10 +3583,10 @@
         <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3588,10 +3594,10 @@
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E142" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3599,10 +3605,10 @@
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E143" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3610,10 +3616,10 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3621,10 +3627,10 @@
         <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3632,10 +3638,10 @@
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3643,10 +3649,10 @@
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3654,10 +3660,10 @@
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3665,10 +3671,10 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3676,10 +3682,10 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3687,10 +3693,10 @@
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3698,10 +3704,10 @@
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3709,10 +3715,10 @@
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3720,10 +3726,10 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D156" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3731,10 +3737,10 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D157" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3742,10 +3748,10 @@
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E159" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3753,10 +3759,10 @@
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E160" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -3764,10 +3770,10 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D161" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3775,10 +3781,10 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D162" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -3786,10 +3792,10 @@
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E164" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3797,13 +3803,13 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D165" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G165" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -3811,10 +3817,10 @@
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -3822,10 +3828,10 @@
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D168" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -3833,10 +3839,10 @@
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D169" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -3844,10 +3850,10 @@
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E171" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -3855,13 +3861,13 @@
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D172" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G172" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -3869,13 +3875,13 @@
         <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D173" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G173" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -3883,10 +3889,10 @@
         <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E175" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -3894,13 +3900,13 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C176" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D176" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -3908,10 +3914,10 @@
         <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D177" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -3919,10 +3925,10 @@
         <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D178" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -3930,10 +3936,10 @@
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E180" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -3941,13 +3947,13 @@
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C181" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D181" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -3955,13 +3961,13 @@
         <v>8</v>
       </c>
       <c r="B182" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C182" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D182" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -3969,10 +3975,10 @@
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D183" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -3980,10 +3986,10 @@
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E185" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -3991,10 +3997,10 @@
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E186" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4002,10 +4008,10 @@
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E187" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4013,13 +4019,13 @@
         <v>8</v>
       </c>
       <c r="D188" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F188" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G188" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4027,10 +4033,10 @@
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E190" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4038,10 +4044,10 @@
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E191" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4049,13 +4055,13 @@
         <v>8</v>
       </c>
       <c r="D192" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F192" t="s">
+        <v>245</v>
+      </c>
+      <c r="G192" t="s">
         <v>246</v>
-      </c>
-      <c r="G192" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4063,10 +4069,10 @@
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E194" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4074,10 +4080,10 @@
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E195" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4085,13 +4091,13 @@
         <v>8</v>
       </c>
       <c r="D196" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F196" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G196" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4368,6 +4374,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4394,75 +4401,75 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" t="s">
         <v>202</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>203</v>
       </c>
-      <c r="D2" t="s">
-        <v>204</v>
-      </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" t="s">
         <v>233</v>
       </c>
-      <c r="B3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" t="s">
-        <v>234</v>
-      </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
         <v>236</v>
       </c>
-      <c r="C4" t="s">
-        <v>237</v>
-      </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4512,13 +4519,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4526,10 +4533,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4537,10 +4544,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" t="s">
         <v>279</v>
-      </c>
-      <c r="D3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4548,10 +4555,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4559,10 +4566,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4570,10 +4577,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4581,10 +4588,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4592,10 +4599,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4603,16 +4610,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" t="s">
         <v>286</v>
       </c>
-      <c r="C9" t="s">
-        <v>287</v>
-      </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -4653,211 +4660,211 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
         <v>91</v>
-      </c>
-      <c r="E12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
         <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
         <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
         <v>85</v>
-      </c>
-      <c r="C19" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
         <v>110</v>
-      </c>
-      <c r="C20" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
         <v>117</v>
-      </c>
-      <c r="C24" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
         <v>119</v>
-      </c>
-      <c r="C25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
         <v>121</v>
-      </c>
-      <c r="C26" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
         <v>123</v>
-      </c>
-      <c r="C27" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
         <v>125</v>
-      </c>
-      <c r="C28" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" t="s">
         <v>202</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>203</v>
-      </c>
-      <c r="D35" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sentence" sheetId="1" r:id="rId1"/>
@@ -318,36 +318,15 @@
     <t>Hallo {firstname}</t>
   </si>
   <si>
-    <t>Hallo {nametitle}{lastname}</t>
-  </si>
-  <si>
-    <t>Hallo {nametitle}{fullname}</t>
-  </si>
-  <si>
     <t>{firstname}</t>
   </si>
   <si>
     <t>{lastname}</t>
   </si>
   <si>
-    <t>{firstname}{lastname}</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Nenn mich {firstname}{lastname}</t>
-  </si>
-  <si>
-    <t>Ich heiße {firstname}{lastname}</t>
-  </si>
-  <si>
-    <t>Mein Name ist {firstname}{lastname}</t>
-  </si>
-  <si>
-    <t>Ich bin {firstname}{lastname}</t>
-  </si>
-  <si>
     <t>Wie ist dein aktueller Status?</t>
   </si>
   <si>
@@ -411,12 +390,6 @@
     <t>WordType</t>
   </si>
   <si>
-    <t>Wer ist {firstname}{lastname}</t>
-  </si>
-  <si>
-    <t>Wer war {firstname}{lastname}</t>
-  </si>
-  <si>
     <t>Was ist *</t>
   </si>
   <si>
@@ -889,6 +862,33 @@
   </si>
   <si>
     <t>Ist es nicht ein bisschen früh um Gute Nacht zu sagen?</t>
+  </si>
+  <si>
+    <t>Hallo {nametitle} {fullname}</t>
+  </si>
+  <si>
+    <t>Hallo {nametitle} {lastname}</t>
+  </si>
+  <si>
+    <t>{firstname} {lastname}</t>
+  </si>
+  <si>
+    <t>Ich bin {firstname} {lastname}</t>
+  </si>
+  <si>
+    <t>Nenn mich {firstname} {lastname}</t>
+  </si>
+  <si>
+    <t>Ich heiße {firstname} {lastname}</t>
+  </si>
+  <si>
+    <t>Mein Name ist {firstname} {lastname}</t>
+  </si>
+  <si>
+    <t>Wer ist {firstname} {lastname}</t>
+  </si>
+  <si>
+    <t>Wer war {firstname} {lastname}</t>
   </si>
 </sst>
 </file>
@@ -2106,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71:C72"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2138,10 +2138,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2237,7 +2237,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -2248,7 +2248,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -2411,7 +2411,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2428,7 +2428,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2489,10 +2489,10 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C29" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
@@ -2561,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
         <v>35</v>
@@ -2611,7 +2611,7 @@
         <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2622,7 +2622,7 @@
         <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2633,7 +2633,7 @@
         <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2644,7 +2644,7 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2655,7 +2655,7 @@
         <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2669,7 +2669,7 @@
         <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2677,7 +2677,7 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E48" t="s">
         <v>49</v>
@@ -2688,7 +2688,7 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E49" t="s">
         <v>49</v>
@@ -2699,7 +2699,7 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E50" t="s">
         <v>49</v>
@@ -2710,7 +2710,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E51" t="s">
         <v>49</v>
@@ -2724,7 +2724,7 @@
         <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D52" t="s">
         <v>49</v>
@@ -2735,7 +2735,7 @@
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D53" t="s">
         <v>49</v>
@@ -2787,13 +2787,13 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
         <v>94</v>
       </c>
       <c r="F60" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2801,13 +2801,13 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
         <v>95</v>
       </c>
       <c r="F61" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2815,10 +2815,10 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>285</v>
       </c>
       <c r="E63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2826,10 +2826,10 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>284</v>
       </c>
       <c r="E64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2837,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>283</v>
       </c>
       <c r="E65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2848,10 +2848,10 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>282</v>
       </c>
       <c r="E66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2859,10 +2859,10 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" t="s">
         <v>99</v>
-      </c>
-      <c r="E67" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2870,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2881,10 +2881,10 @@
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>281</v>
       </c>
       <c r="E69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2892,16 +2892,16 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C70" t="s">
         <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F70" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2909,16 +2909,16 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>279</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F71" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2926,16 +2926,16 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>280</v>
       </c>
       <c r="D72" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F72" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2943,7 +2943,7 @@
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E74" t="s">
         <v>21</v>
@@ -2954,7 +2954,7 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E75" t="s">
         <v>21</v>
@@ -2976,7 +2976,7 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E77" t="s">
         <v>21</v>
@@ -2987,7 +2987,7 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
@@ -2998,10 +2998,10 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C79" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D79" t="s">
         <v>21</v>
@@ -3012,10 +3012,10 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C80" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D80" t="s">
         <v>21</v>
@@ -3026,7 +3026,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="E82" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="E83" t="s">
         <v>32</v>
@@ -3048,7 +3048,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E84" t="s">
         <v>32</v>
@@ -3059,7 +3059,7 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E85" t="s">
         <v>32</v>
@@ -3070,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E86" t="s">
         <v>32</v>
@@ -3081,13 +3081,13 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D87" t="s">
         <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3095,7 +3095,7 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E89" t="s">
         <v>32</v>
@@ -3106,7 +3106,7 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E90" t="s">
         <v>32</v>
@@ -3117,7 +3117,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E91" t="s">
         <v>32</v>
@@ -3128,7 +3128,7 @@
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E92" t="s">
         <v>32</v>
@@ -3139,16 +3139,16 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C93" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D93" t="s">
         <v>32</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3156,10 +3156,10 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E95" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3167,10 +3167,10 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E96" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3178,10 +3178,10 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E97" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3189,10 +3189,10 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D98" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3200,10 +3200,10 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D99" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3211,10 +3211,10 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D100" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3222,10 +3222,10 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E102" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3233,10 +3233,10 @@
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D103" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3244,10 +3244,10 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E105" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3255,10 +3255,10 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E106" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3266,10 +3266,10 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E107" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3277,10 +3277,10 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E108" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3288,10 +3288,10 @@
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D109" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3299,10 +3299,10 @@
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D110" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3310,10 +3310,10 @@
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E112" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3321,10 +3321,10 @@
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E113" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3332,10 +3332,10 @@
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E114" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3343,10 +3343,10 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3354,10 +3354,10 @@
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E116" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3365,10 +3365,10 @@
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E117" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3376,13 +3376,13 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C118" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D118" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3390,13 +3390,13 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C119" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D119" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3404,10 +3404,10 @@
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D120" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3415,10 +3415,10 @@
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E122" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3426,10 +3426,10 @@
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E123" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3437,13 +3437,13 @@
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D124" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F124" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3451,10 +3451,10 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3462,10 +3462,10 @@
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E127" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3473,10 +3473,10 @@
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E128" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3484,10 +3484,10 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D129" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3495,10 +3495,10 @@
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3506,10 +3506,10 @@
         <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3517,10 +3517,10 @@
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E133" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3528,10 +3528,10 @@
         <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D134" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3539,10 +3539,10 @@
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D135" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3550,10 +3550,10 @@
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E137" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3561,10 +3561,10 @@
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E138" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3572,10 +3572,10 @@
         <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3583,10 +3583,10 @@
         <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D140" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3594,10 +3594,10 @@
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E142" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3605,10 +3605,10 @@
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E143" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3616,10 +3616,10 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D144" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3627,10 +3627,10 @@
         <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D145" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3638,10 +3638,10 @@
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E147" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3649,10 +3649,10 @@
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E148" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3660,10 +3660,10 @@
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E149" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3671,10 +3671,10 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D150" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3682,10 +3682,10 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D151" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3693,10 +3693,10 @@
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E153" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3704,10 +3704,10 @@
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E154" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3715,10 +3715,10 @@
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E155" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3726,10 +3726,10 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D156" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3737,10 +3737,10 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D157" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3748,10 +3748,10 @@
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E159" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3759,10 +3759,10 @@
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E160" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -3770,10 +3770,10 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D161" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3781,10 +3781,10 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D162" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -3792,10 +3792,10 @@
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E164" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3803,13 +3803,13 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D165" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G165" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -3817,10 +3817,10 @@
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E167" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -3828,10 +3828,10 @@
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D168" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -3839,10 +3839,10 @@
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D169" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -3850,10 +3850,10 @@
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E171" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -3861,13 +3861,13 @@
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D172" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G172" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -3875,13 +3875,13 @@
         <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D173" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G173" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -3889,10 +3889,10 @@
         <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E175" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -3903,10 +3903,10 @@
         <v>72</v>
       </c>
       <c r="C176" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D176" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -3914,10 +3914,10 @@
         <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D177" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -3925,10 +3925,10 @@
         <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D178" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -3936,10 +3936,10 @@
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E180" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -3950,10 +3950,10 @@
         <v>72</v>
       </c>
       <c r="C181" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D181" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -3964,10 +3964,10 @@
         <v>72</v>
       </c>
       <c r="C182" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D182" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -3975,10 +3975,10 @@
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D183" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -3986,10 +3986,10 @@
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E185" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -3997,10 +3997,10 @@
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E186" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4008,10 +4008,10 @@
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E187" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4019,13 +4019,13 @@
         <v>8</v>
       </c>
       <c r="D188" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F188" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G188" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4033,10 +4033,10 @@
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E190" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4044,10 +4044,10 @@
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E191" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4055,13 +4055,13 @@
         <v>8</v>
       </c>
       <c r="D192" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F192" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G192" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4069,10 +4069,10 @@
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E194" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4080,10 +4080,10 @@
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E195" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4091,13 +4091,13 @@
         <v>8</v>
       </c>
       <c r="D196" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F196" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G196" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4401,75 +4401,75 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4494,7 +4494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4519,13 +4519,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4533,10 +4533,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4544,10 +4544,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4555,10 +4555,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4566,10 +4566,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4577,10 +4577,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4588,10 +4588,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4599,10 +4599,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4610,16 +4610,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E9" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4749,7 +4749,7 @@
         <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
         <v>93</v>
@@ -4794,77 +4794,77 @@
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sentence" sheetId="1" r:id="rId1"/>
@@ -858,9 +858,6 @@
     <t>ScheduleUpdateDate:neNone|ScheduleUpdateTime:neNone</t>
   </si>
   <si>
-    <t>Das Update wurde für den {scheduleupdatedate} um {scheduleupdatetime} geplant</t>
-  </si>
-  <si>
     <t>Ist es nicht ein bisschen früh um Gute Nacht zu sagen?</t>
   </si>
   <si>
@@ -889,6 +886,9 @@
   </si>
   <si>
     <t>Wer war {firstname} {lastname}</t>
+  </si>
+  <si>
+    <t>Das Update wurde für den {scheduleupdatedate} um {scheduleupdatetime} Uhr geplant</t>
   </si>
 </sst>
 </file>
@@ -2106,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2492,7 +2492,7 @@
         <v>212</v>
       </c>
       <c r="C29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
@@ -2815,7 +2815,7 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E63" t="s">
         <v>99</v>
@@ -2826,7 +2826,7 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E64" t="s">
         <v>99</v>
@@ -2837,7 +2837,7 @@
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E65" t="s">
         <v>99</v>
@@ -2848,7 +2848,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E66" t="s">
         <v>99</v>
@@ -2881,7 +2881,7 @@
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E69" t="s">
         <v>99</v>
@@ -2912,7 +2912,7 @@
         <v>250</v>
       </c>
       <c r="C71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D71" t="s">
         <v>99</v>
@@ -2929,7 +2929,7 @@
         <v>251</v>
       </c>
       <c r="C72" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D72" t="s">
         <v>99</v>
@@ -3026,7 +3026,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E82" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E83" t="s">
         <v>32</v>
@@ -4494,7 +4494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4613,7 +4613,7 @@
         <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="E9" t="s">
         <v>270</v>

--- a/EmeraldAI/Data/TrainingData/DE_Training.xlsx
+++ b/EmeraldAI/Data/TrainingData/DE_Training.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sentence" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="291">
   <si>
     <t>Requirement</t>
   </si>
@@ -889,6 +889,15 @@
   </si>
   <si>
     <t>Das Update wurde für den {scheduleupdatedate} um {scheduleupdatetime} Uhr geplant</t>
+  </si>
+  <si>
+    <t>INIT_ROBOT</t>
+  </si>
+  <si>
+    <t>Spracherkennung Aktiv</t>
+  </si>
+  <si>
+    <t>System</t>
   </si>
 </sst>
 </file>
@@ -2104,10 +2113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4098,6 +4107,31 @@
       </c>
       <c r="G196" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>288</v>
+      </c>
+      <c r="E198" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>289</v>
+      </c>
+      <c r="E199" t="s">
+        <v>290</v>
+      </c>
+      <c r="G199" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4494,7 +4528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
